--- a/SuppXLS/Scen_SYS_WAM_Emissions.xlsx
+++ b/SuppXLS/Scen_SYS_WAM_Emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F51763-844E-433A-9DC5-F8EAADC552AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54449EF-3D63-4B16-9E94-6DB7D315A71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18870" yWindow="-13470" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -108,7 +108,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -815,7 +814,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647A85D2-472E-4E8B-937B-A8C9EFB80713}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -859,7 +858,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B9DF28-4E09-4546-AEF2-943E434614D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,7 +907,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA896E23-8599-4A36-B39D-472EC2D175E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +957,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819EC704-5FA6-4740-A9BB-5379CD3B40C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1008,7 +1007,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F02DDD5-D2EE-4337-8374-6A8A547DC83C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1057,7 +1056,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547ED4EC-EDA1-462A-B562-5A0427DBBE77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1491,7 +1490,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -5109,10 +5108,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011941A8-04BF-45E8-9F60-D4E07475AB4A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5121,18 +5120,18 @@
     <col min="2" max="2" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="9.140625" style="8"/>
-    <col min="21" max="21" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="8"/>
+    <col min="14" max="14" width="16.42578125" style="8" customWidth="1"/>
+    <col min="15" max="21" width="9.140625" style="8"/>
+    <col min="22" max="22" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
       <c r="M1"/>
-      <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -5144,13 +5143,13 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="M2"/>
-      <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -5162,13 +5161,13 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="M3"/>
-      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -5180,8 +5179,9 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z3"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>61</v>
@@ -5190,7 +5190,6 @@
         <f xml:space="preserve"> _xlfn.TEXTJOIN("_",TRUE,"UC","WAM","CO2","Emissions")</f>
         <v>UC_WAM_CO2_Emissions</v>
       </c>
-      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -5202,8 +5201,9 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z4"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>66</v>
@@ -5212,7 +5212,6 @@
         <f xml:space="preserve"> _xlfn.TEXTJOIN(" ",TRUE,"WAM CO2 Emissions Bound")</f>
         <v>WAM CO2 Emissions Bound</v>
       </c>
-      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -5224,8 +5223,9 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z5"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>72</v>
       </c>
@@ -5263,10 +5263,13 @@
         <v>2030</v>
       </c>
       <c r="N6" s="8">
+        <v>2050</v>
+      </c>
+      <c r="O6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>67</v>
       </c>
@@ -5303,11 +5306,14 @@
       <c r="M7" s="16">
         <v>27046</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="16">
+        <v>6589</v>
+      </c>
+      <c r="O7" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>77</v>
       </c>
@@ -5351,11 +5357,15 @@
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="M8" s="8" t="str">
-        <f t="shared" ref="M8" si="1">L8</f>
+        <f t="shared" ref="M8:N8" si="1">L8</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>62</v>
       </c>
@@ -5399,11 +5409,15 @@
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="M9" s="8" t="str">
-        <f t="shared" ref="M9" si="3">L9</f>
+        <f t="shared" ref="M9:N9" si="3">L9</f>
         <v>*CO2*,-*CO2S</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N9" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>71</v>
       </c>
@@ -5447,16 +5461,20 @@
         <v>ENV</v>
       </c>
       <c r="M10" s="8" t="str">
-        <f t="shared" ref="M10" si="5">L10</f>
+        <f t="shared" ref="M10:N10" si="5">L10</f>
         <v>ENV</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N10" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>ENV</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
@@ -5500,11 +5518,15 @@
         <v>UP</v>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" ref="M12" si="7">L12</f>
+        <f t="shared" ref="M12:N12" si="7">L12</f>
         <v>UP</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N12" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>UP</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>79</v>
       </c>
@@ -5548,11 +5570,15 @@
         <v>-1</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" ref="M13" si="9">L13</f>
+        <f t="shared" ref="M13:N13" si="9">L13</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N13" s="8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>80</v>
@@ -5597,10 +5623,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" ref="M14" si="10">L14</f>
+        <f t="shared" ref="M14:N14" si="10">L14</f>
         <v>1</v>
       </c>
-      <c r="N14"/>
+      <c r="N14" s="8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5613,13 +5642,13 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="M15"/>
-      <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5631,13 +5660,13 @@
       <c r="W15"/>
       <c r="X15"/>
       <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="M16"/>
-      <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5649,13 +5678,13 @@
       <c r="W16"/>
       <c r="X16"/>
       <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="M17"/>
-      <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5667,6 +5696,7 @@
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
+      <c r="Z17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5677,10 +5707,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,48 +5801,48 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="str">
-        <f>VLOOKUP(B$5, config!$B$4:$N$14,2,FALSE) &amp; "_Single"</f>
+        <f>VLOOKUP(B$5, config!$B$4:$O$14,2,FALSE) &amp; "_Single"</f>
         <v>UC_WAM_CO2_Emissions_Single</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F7" s="8">
         <v>2020</v>
       </c>
       <c r="G7" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H7" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J7" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>33792</v>
       </c>
       <c r="K7" s="8" t="str">
-        <f>VLOOKUP(K$5, config!$B$4:$N$14,2,FALSE) &amp; " - Single"</f>
+        <f>VLOOKUP(K$5, config!$B$4:$O$14,2,FALSE) &amp; " - Single"</f>
         <v>WAM CO2 Emissions Bound - Single</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F8" s="8">
@@ -5820,46 +5850,46 @@
         <v>2020</v>
       </c>
       <c r="I8" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F9" s="8">
         <v>2021</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H9" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J9" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>35644</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F10" s="8">
@@ -5867,46 +5897,46 @@
         <v>2021</v>
       </c>
       <c r="I10" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F11" s="8">
         <v>2022</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H11" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>36186</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F12" s="8">
@@ -5914,46 +5944,46 @@
         <v>2022</v>
       </c>
       <c r="I12" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F13" s="8">
         <v>2023</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H13" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J13" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>35729</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F14" s="8">
@@ -5961,46 +5991,46 @@
         <v>2023</v>
       </c>
       <c r="I14" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D15" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F15" s="8">
         <v>2024</v>
       </c>
       <c r="G15" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H15" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J15" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>34339</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D16" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F16" s="8">
@@ -6008,46 +6038,46 @@
         <v>2024</v>
       </c>
       <c r="I16" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D17" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F17" s="8">
         <v>2025</v>
       </c>
       <c r="G17" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H17" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J17" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>32912</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D18" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F18" s="8">
@@ -6055,46 +6085,46 @@
         <v>2025</v>
       </c>
       <c r="I18" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F19" s="8">
         <v>2026</v>
       </c>
       <c r="G19" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H19" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>30554</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D20" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F20" s="8">
@@ -6102,46 +6132,46 @@
         <v>2026</v>
       </c>
       <c r="I20" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D21" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F21" s="8">
         <v>2027</v>
       </c>
       <c r="G21" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H21" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J21" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>29948</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D22" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F22" s="8">
@@ -6149,46 +6179,46 @@
         <v>2027</v>
       </c>
       <c r="I22" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D23" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F23" s="8">
         <v>2028</v>
       </c>
       <c r="G23" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H23" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J23" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>28505</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F24" s="8">
@@ -6196,46 +6226,46 @@
         <v>2028</v>
       </c>
       <c r="I24" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F25" s="8">
         <v>2029</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H25" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J25" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>27699</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F26" s="8">
@@ -6243,46 +6273,46 @@
         <v>2029</v>
       </c>
       <c r="I26" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D27" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F27" s="8">
         <v>2030</v>
       </c>
       <c r="G27" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H27" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J27" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>27046</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D28" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F28" s="8">
@@ -6290,16 +6320,62 @@
         <v>2030</v>
       </c>
       <c r="I28" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
       <c r="F29" s="8">
+        <v>2050</v>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H29" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2050</v>
+      </c>
+      <c r="I30" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="J29" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F29,config!$B$6:$N$6,),FALSE)</f>
+      <c r="J31" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F31,config!$B$6:$O$6,),FALSE)</f>
         <v>5</v>
       </c>
     </row>
@@ -6312,10 +6388,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EC2971-91FC-4261-B0BB-58C7F43C1746}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6406,48 +6482,48 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="str">
-        <f>VLOOKUP(B$5, config!$B$4:$N$14,2,FALSE) &amp; "_Multi"</f>
+        <f>VLOOKUP(B$5, config!$B$4:$O$14,2,FALSE) &amp; "_Multi"</f>
         <v>UC_WAM_CO2_Emissions_Multi</v>
       </c>
       <c r="C7" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D7" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F7" s="8">
         <v>2020</v>
       </c>
       <c r="G7" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H7" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J7" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F7,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
         <v>33792</v>
       </c>
       <c r="K7" s="8" t="str">
-        <f>VLOOKUP(K$5, config!$B$4:$N$14,2,FALSE) &amp; " - Multi"</f>
+        <f>VLOOKUP(K$5, config!$B$4:$O$14,2,FALSE) &amp; " - Multi"</f>
         <v>WAM CO2 Emissions Bound - Multi</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D8" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F8" s="8">
@@ -6455,46 +6531,46 @@
         <v>2020</v>
       </c>
       <c r="I8" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F8,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D9" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F9" s="8">
         <v>2021</v>
       </c>
       <c r="G9" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H9" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J9" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F9,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
         <v>35644</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D10" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F10" s="8">
@@ -6502,46 +6578,46 @@
         <v>2021</v>
       </c>
       <c r="I10" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F10,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D11" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F11" s="8">
         <v>2022</v>
       </c>
       <c r="G11" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H11" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F11,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
         <v>36186</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D12" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F12" s="8">
@@ -6549,46 +6625,46 @@
         <v>2022</v>
       </c>
       <c r="I12" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F12,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D13" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F13" s="8">
         <v>2023</v>
       </c>
       <c r="G13" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H13" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J13" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F13,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
         <v>35729</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D14" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F14" s="8">
@@ -6596,46 +6672,46 @@
         <v>2023</v>
       </c>
       <c r="I14" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F14,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D15" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F15" s="8">
         <v>2024</v>
       </c>
       <c r="G15" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H15" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J15" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F15,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
         <v>34339</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D16" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F16" s="8">
@@ -6643,46 +6719,46 @@
         <v>2024</v>
       </c>
       <c r="I16" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F16,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D17" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F17" s="8">
         <v>2025</v>
       </c>
       <c r="G17" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H17" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J17" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F17,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
         <v>32912</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D18" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F18" s="8">
@@ -6690,46 +6766,46 @@
         <v>2025</v>
       </c>
       <c r="I18" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F18,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D19" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F19" s="8">
         <v>2026</v>
       </c>
       <c r="G19" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H19" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J19" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F19,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
         <v>30554</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D20" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F20" s="8">
@@ -6737,46 +6813,46 @@
         <v>2026</v>
       </c>
       <c r="I20" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F20,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D21" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F21" s="8">
         <v>2027</v>
       </c>
       <c r="G21" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H21" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J21" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F21,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
         <v>29948</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D22" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F22" s="8">
@@ -6784,46 +6860,46 @@
         <v>2027</v>
       </c>
       <c r="I22" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F22,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D23" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F23" s="8">
         <v>2028</v>
       </c>
       <c r="G23" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H23" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J23" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F23,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
         <v>28505</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D24" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F24" s="8">
@@ -6831,46 +6907,46 @@
         <v>2028</v>
       </c>
       <c r="I24" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F24,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D25" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F25" s="8">
         <v>2029</v>
       </c>
       <c r="G25" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H25" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J25" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F25,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
         <v>27699</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D26" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F26" s="8">
@@ -6878,46 +6954,46 @@
         <v>2029</v>
       </c>
       <c r="I26" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F26,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D27" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="F27" s="8">
         <v>2030</v>
       </c>
       <c r="G27" s="8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>UP</v>
       </c>
       <c r="H27" s="8">
-        <f>VLOOKUP(H$5, config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>1</v>
       </c>
       <c r="J27" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F27,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
         <v>27046</v>
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>*CO2*,-*CO2S</v>
       </c>
       <c r="D28" s="8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F28" s="8">
@@ -6925,16 +7001,63 @@
         <v>2030</v>
       </c>
       <c r="I28" s="8">
-        <f>VLOOKUP(I$5, config!$B$4:$N$14,MATCH($F28,config!$B$6:$N$6,),FALSE)</f>
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
       <c r="F29" s="8">
+        <v>2050</v>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>UP</v>
+      </c>
+      <c r="H29" s="8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="str">
+        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>*CO2*,-*CO2S</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>T-A*INT*,T-NAV*</v>
+      </c>
+      <c r="F30" s="8">
+        <f>F29</f>
+        <v>2050</v>
+      </c>
+      <c r="I30" s="8">
+        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="8">
         <v>0</v>
       </c>
-      <c r="J29" s="8">
-        <f>VLOOKUP("Value", config!$B$4:$N$14,MATCH($F29,config!$B$6:$N$6,),FALSE)</f>
+      <c r="J31" s="8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F31,config!$B$6:$O$6,),FALSE)</f>
         <v>5</v>
       </c>
     </row>

--- a/SuppXLS/Scen_SYS_WAM_Emissions.xlsx
+++ b/SuppXLS/Scen_SYS_WAM_Emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05631297-6A42-4AE7-983A-4836AEFD8256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B8C4E2-2EB5-4AC3-A452-4031F4F67A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>LimType</t>
   </si>
@@ -466,6 +466,15 @@
   </si>
   <si>
     <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
+  </si>
+  <si>
+    <t>WEM</t>
+  </si>
+  <si>
+    <t>WAM</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -581,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +630,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +713,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -773,6 +788,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -798,7 +816,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1463,7 +1481,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
@@ -4358,116 +4376,116 @@
       </c>
       <c r="D3" s="1" t="str" cm="1">
         <f t="array" ref="D3">IF(LEFT(INDEX(D5:D7,$A$4),1)&lt;&gt;"*",INDEX(D5:D7,$A$4),"")</f>
-        <v>National</v>
+        <v/>
       </c>
       <c r="E3" s="1" t="str" cm="1">
         <f t="array" ref="E3">IF(LEFT(INDEX(E5:E7,$A$4),1)&lt;&gt;"*",INDEX(E5:E7,$A$4),"")</f>
-        <v>IE-CW</v>
+        <v/>
       </c>
       <c r="F3" s="1" t="str" cm="1">
         <f t="array" ref="F3">IF(LEFT(INDEX(F5:F7,$A$4),1)&lt;&gt;"*",INDEX(F5:F7,$A$4),"")</f>
-        <v>IE-D</v>
+        <v/>
       </c>
       <c r="G3" s="1" t="str" cm="1">
         <f t="array" ref="G3">IF(LEFT(INDEX(G5:G7,$A$4),1)&lt;&gt;"*",INDEX(G5:G7,$A$4),"")</f>
-        <v>IE-KE</v>
+        <v/>
       </c>
       <c r="H3" s="1" t="str" cm="1">
         <f t="array" ref="H3">IF(LEFT(INDEX(H5:H7,$A$4),1)&lt;&gt;"*",INDEX(H5:H7,$A$4),"")</f>
-        <v>IE-KK</v>
+        <v/>
       </c>
       <c r="I3" s="1" t="str" cm="1">
         <f t="array" ref="I3">IF(LEFT(INDEX(I5:I7,$A$4),1)&lt;&gt;"*",INDEX(I5:I7,$A$4),"")</f>
-        <v>IE-LS</v>
+        <v/>
       </c>
       <c r="J3" s="1" t="str" cm="1">
         <f t="array" ref="J3">IF(LEFT(INDEX(J5:J7,$A$4),1)&lt;&gt;"*",INDEX(J5:J7,$A$4),"")</f>
-        <v>IE-LD</v>
+        <v/>
       </c>
       <c r="K3" s="1" t="str" cm="1">
         <f t="array" ref="K3">IF(LEFT(INDEX(K5:K7,$A$4),1)&lt;&gt;"*",INDEX(K5:K7,$A$4),"")</f>
-        <v>IE-LH</v>
+        <v/>
       </c>
       <c r="L3" s="1" t="str" cm="1">
         <f t="array" ref="L3">IF(LEFT(INDEX(L5:L7,$A$4),1)&lt;&gt;"*",INDEX(L5:L7,$A$4),"")</f>
-        <v>IE-MH</v>
+        <v/>
       </c>
       <c r="M3" s="1" t="str" cm="1">
         <f t="array" ref="M3">IF(LEFT(INDEX(M5:M7,$A$4),1)&lt;&gt;"*",INDEX(M5:M7,$A$4),"")</f>
-        <v>IE-OY</v>
+        <v/>
       </c>
       <c r="N3" s="1" t="str" cm="1">
         <f t="array" ref="N3">IF(LEFT(INDEX(N5:N7,$A$4),1)&lt;&gt;"*",INDEX(N5:N7,$A$4),"")</f>
-        <v>IE-WH</v>
+        <v/>
       </c>
       <c r="O3" s="1" t="str" cm="1">
         <f t="array" ref="O3">IF(LEFT(INDEX(O5:O7,$A$4),1)&lt;&gt;"*",INDEX(O5:O7,$A$4),"")</f>
-        <v>IE-WX</v>
+        <v/>
       </c>
       <c r="P3" s="1" t="str" cm="1">
         <f t="array" ref="P3">IF(LEFT(INDEX(P5:P7,$A$4),1)&lt;&gt;"*",INDEX(P5:P7,$A$4),"")</f>
-        <v>IE-WW</v>
+        <v/>
       </c>
       <c r="Q3" s="1" t="str" cm="1">
         <f t="array" ref="Q3">IF(LEFT(INDEX(Q5:Q7,$A$4),1)&lt;&gt;"*",INDEX(Q5:Q7,$A$4),"")</f>
-        <v>IE-CE</v>
+        <v/>
       </c>
       <c r="R3" s="1" t="str" cm="1">
         <f t="array" ref="R3">IF(LEFT(INDEX(R5:R7,$A$4),1)&lt;&gt;"*",INDEX(R5:R7,$A$4),"")</f>
-        <v>IE-CO</v>
+        <v/>
       </c>
       <c r="S3" s="1" t="str" cm="1">
         <f t="array" ref="S3">IF(LEFT(INDEX(S5:S7,$A$4),1)&lt;&gt;"*",INDEX(S5:S7,$A$4),"")</f>
-        <v>IE-KY</v>
+        <v/>
       </c>
       <c r="T3" s="1" t="str" cm="1">
         <f t="array" ref="T3">IF(LEFT(INDEX(T5:T7,$A$4),1)&lt;&gt;"*",INDEX(T5:T7,$A$4),"")</f>
-        <v>IE-LK</v>
+        <v/>
       </c>
       <c r="U3" s="1" t="str" cm="1">
         <f t="array" ref="U3">IF(LEFT(INDEX(U5:U7,$A$4),1)&lt;&gt;"*",INDEX(U5:U7,$A$4),"")</f>
-        <v>IE-TA</v>
+        <v/>
       </c>
       <c r="V3" s="1" t="str" cm="1">
         <f t="array" ref="V3">IF(LEFT(INDEX(V5:V7,$A$4),1)&lt;&gt;"*",INDEX(V5:V7,$A$4),"")</f>
-        <v>IE-WD</v>
+        <v/>
       </c>
       <c r="W3" s="1" t="str" cm="1">
         <f t="array" ref="W3">IF(LEFT(INDEX(W5:W7,$A$4),1)&lt;&gt;"*",INDEX(W5:W7,$A$4),"")</f>
-        <v>IE-G</v>
+        <v/>
       </c>
       <c r="X3" s="1" t="str" cm="1">
         <f t="array" ref="X3">IF(LEFT(INDEX(X5:X7,$A$4),1)&lt;&gt;"*",INDEX(X5:X7,$A$4),"")</f>
-        <v>IE-LM</v>
+        <v/>
       </c>
       <c r="Y3" s="1" t="str" cm="1">
         <f t="array" ref="Y3">IF(LEFT(INDEX(Y5:Y7,$A$4),1)&lt;&gt;"*",INDEX(Y5:Y7,$A$4),"")</f>
-        <v>IE-MO</v>
+        <v/>
       </c>
       <c r="Z3" s="1" t="str" cm="1">
         <f t="array" ref="Z3">IF(LEFT(INDEX(Z5:Z7,$A$4),1)&lt;&gt;"*",INDEX(Z5:Z7,$A$4),"")</f>
-        <v>IE-RN</v>
+        <v/>
       </c>
       <c r="AA3" s="1" t="str" cm="1">
         <f t="array" ref="AA3">IF(LEFT(INDEX(AA5:AA7,$A$4),1)&lt;&gt;"*",INDEX(AA5:AA7,$A$4),"")</f>
-        <v>IE-SO</v>
+        <v/>
       </c>
       <c r="AB3" s="1" t="str" cm="1">
         <f t="array" ref="AB3">IF(LEFT(INDEX(AB5:AB7,$A$4),1)&lt;&gt;"*",INDEX(AB5:AB7,$A$4),"")</f>
-        <v>IE-CN</v>
+        <v/>
       </c>
       <c r="AC3" s="1" t="str" cm="1">
         <f t="array" ref="AC3">IF(LEFT(INDEX(AC5:AC7,$A$4),1)&lt;&gt;"*",INDEX(AC5:AC7,$A$4),"")</f>
-        <v>IE-DL</v>
+        <v/>
       </c>
       <c r="AD3" s="1" t="str" cm="1">
         <f t="array" ref="AD3">IF(LEFT(INDEX(AD5:AD7,$A$4),1)&lt;&gt;"*",INDEX(AD5:AD7,$A$4),"")</f>
-        <v>IE-MN</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -5079,10 +5097,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011941A8-04BF-45E8-9F60-D4E07475AB4A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:O17"/>
+  <dimension ref="B4:AG23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5168,34 +5186,44 @@
         <v>35644</v>
       </c>
       <c r="E7" s="14">
-        <v>36186</v>
+        <f>+SUMIF($D$22:$D$23,LEFT($C$5,3),E$22:E$23)</f>
+        <v>36120.541870510591</v>
       </c>
       <c r="F7" s="14">
-        <v>35729</v>
+        <f t="shared" ref="F7:N7" si="0">+SUMIF($D$22:$D$23,LEFT($C$5,3),F$22:F$23)</f>
+        <v>33403.510410036513</v>
       </c>
       <c r="G7" s="14">
-        <v>34339</v>
+        <f t="shared" si="0"/>
+        <v>33183.978436940459</v>
       </c>
       <c r="H7" s="14">
-        <v>32912</v>
+        <f t="shared" si="0"/>
+        <v>32441.107494343385</v>
       </c>
       <c r="I7" s="14">
-        <v>30554</v>
+        <f t="shared" si="0"/>
+        <v>31416.730569184929</v>
       </c>
       <c r="J7" s="14">
-        <v>29948</v>
+        <f t="shared" si="0"/>
+        <v>29441.229319207665</v>
       </c>
       <c r="K7" s="14">
-        <v>28505</v>
+        <f t="shared" si="0"/>
+        <v>27503.787690498513</v>
       </c>
       <c r="L7" s="14">
-        <v>27699</v>
+        <f t="shared" si="0"/>
+        <v>25700.949786210538</v>
       </c>
       <c r="M7" s="14">
-        <v>27046</v>
+        <f t="shared" si="0"/>
+        <v>23316.871527694617</v>
       </c>
       <c r="N7" s="14">
-        <v>6589</v>
+        <f>+SUMIF($D$22:$D$23,LEFT($C$5,3),AG$22:AG$23)</f>
+        <v>12293.968889487049</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -5213,43 +5241,43 @@
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ref="E8:L8" si="0">D8</f>
+        <f t="shared" ref="E8:L8" si="1">D8</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ref="M8:N8" si="1">L8</f>
+        <f t="shared" ref="M8:N8" si="2">L8</f>
         <v>T-A*INT*,T-NAV*</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>T-A*INT*,T-NAV*</v>
       </c>
     </row>
@@ -5265,43 +5293,43 @@
         <v>TOTCO2</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ref="E9:L9" si="2">D9</f>
+        <f t="shared" ref="E9:L9" si="3">D9</f>
         <v>TOTCO2</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOTCO2</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOTCO2</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOTCO2</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOTCO2</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOTCO2</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOTCO2</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TOTCO2</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ref="M9:N9" si="3">L9</f>
+        <f t="shared" ref="M9:N9" si="4">L9</f>
         <v>TOTCO2</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TOTCO2</v>
       </c>
     </row>
@@ -5317,43 +5345,43 @@
         <v>ENV</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ref="E10:L10" si="4">D10</f>
+        <f t="shared" ref="E10:L10" si="5">D10</f>
         <v>ENV</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ENV</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ENV</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ENV</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ENV</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ENV</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ENV</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ENV</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ref="M10:N10" si="5">L10</f>
+        <f t="shared" ref="M10:N10" si="6">L10</f>
         <v>ENV</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ENV</v>
       </c>
     </row>
@@ -5367,51 +5395,50 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D12" t="str">
         <f>C12</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" ref="E12:L12" si="6">D12</f>
-        <v>UP</v>
+        <f t="shared" ref="E12:L12" si="7">D12</f>
+        <v>LO</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="6"/>
-        <v>UP</v>
+        <f t="shared" si="7"/>
+        <v>LO</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="6"/>
-        <v>UP</v>
+        <f t="shared" si="7"/>
+        <v>LO</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="6"/>
-        <v>UP</v>
+        <f t="shared" si="7"/>
+        <v>LO</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="6"/>
-        <v>UP</v>
+        <f t="shared" si="7"/>
+        <v>LO</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="6"/>
-        <v>UP</v>
+        <f t="shared" si="7"/>
+        <v>LO</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="6"/>
-        <v>UP</v>
+        <f t="shared" si="7"/>
+        <v>LO</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="6"/>
-        <v>UP</v>
+        <f t="shared" si="7"/>
+        <v>LO</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ref="M12:N12" si="7">L12</f>
-        <v>UP</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="7"/>
-        <v>UP</v>
+        <f t="shared" ref="M12:N12" si="8">L12</f>
+        <v>LO</v>
+      </c>
+      <c r="N12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
@@ -5422,47 +5449,47 @@
         <v>-1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:L14" si="8">C13</f>
+        <f t="shared" ref="D13:L14" si="9">C13</f>
         <v>-1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="L13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:N13" si="9">L13</f>
+        <f t="shared" ref="M13:N13" si="10">L13</f>
         <v>-1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
     </row>
@@ -5474,53 +5501,326 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:N14" si="10">L14</f>
+        <f t="shared" ref="M14:N14" si="11">L14</f>
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="E21" s="33">
+        <v>2022</v>
+      </c>
+      <c r="F21" s="34">
+        <v>2023</v>
+      </c>
+      <c r="G21" s="34">
+        <v>2024</v>
+      </c>
+      <c r="H21" s="34">
+        <v>2025</v>
+      </c>
+      <c r="I21" s="34">
+        <v>2026</v>
+      </c>
+      <c r="J21" s="34">
+        <v>2027</v>
+      </c>
+      <c r="K21" s="34">
+        <v>2028</v>
+      </c>
+      <c r="L21" s="34">
+        <v>2029</v>
+      </c>
+      <c r="M21" s="34">
+        <v>2030</v>
+      </c>
+      <c r="N21" s="34">
+        <v>2031</v>
+      </c>
+      <c r="O21" s="34">
+        <v>2032</v>
+      </c>
+      <c r="P21" s="34">
+        <v>2033</v>
+      </c>
+      <c r="Q21" s="34">
+        <v>2034</v>
+      </c>
+      <c r="R21" s="34">
+        <v>2035</v>
+      </c>
+      <c r="S21" s="34">
+        <v>2036</v>
+      </c>
+      <c r="T21" s="34">
+        <v>2037</v>
+      </c>
+      <c r="U21" s="34">
+        <v>2038</v>
+      </c>
+      <c r="V21" s="34">
+        <v>2039</v>
+      </c>
+      <c r="W21" s="34">
+        <v>2040</v>
+      </c>
+      <c r="X21" s="34">
+        <v>2041</v>
+      </c>
+      <c r="Y21" s="34">
+        <v>2042</v>
+      </c>
+      <c r="Z21" s="34">
+        <v>2043</v>
+      </c>
+      <c r="AA21" s="34">
+        <v>2044</v>
+      </c>
+      <c r="AB21" s="34">
+        <v>2045</v>
+      </c>
+      <c r="AC21" s="34">
+        <v>2046</v>
+      </c>
+      <c r="AD21" s="34">
+        <v>2047</v>
+      </c>
+      <c r="AE21" s="34">
+        <v>2048</v>
+      </c>
+      <c r="AF21" s="34">
+        <v>2049</v>
+      </c>
+      <c r="AG21" s="34">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="35">
+        <v>36120.541870510591</v>
+      </c>
+      <c r="F22" s="35">
+        <v>33394.346951961532</v>
+      </c>
+      <c r="G22" s="35">
+        <v>33230.461444037421</v>
+      </c>
+      <c r="H22" s="35">
+        <v>32539.99432570759</v>
+      </c>
+      <c r="I22" s="35">
+        <v>32241.660735922636</v>
+      </c>
+      <c r="J22" s="35">
+        <v>30946.012381086966</v>
+      </c>
+      <c r="K22" s="35">
+        <v>29909.180253073129</v>
+      </c>
+      <c r="L22" s="35">
+        <v>29498.224015191583</v>
+      </c>
+      <c r="M22" s="35">
+        <v>28377.843936727644</v>
+      </c>
+      <c r="N22" s="35">
+        <v>27689.653638313579</v>
+      </c>
+      <c r="O22" s="35">
+        <v>26129.650186050134</v>
+      </c>
+      <c r="P22" s="35">
+        <v>25541.651146935994</v>
+      </c>
+      <c r="Q22" s="35">
+        <v>24910.969285124174</v>
+      </c>
+      <c r="R22" s="35">
+        <v>24748.670234348599</v>
+      </c>
+      <c r="S22" s="35">
+        <v>23727.913152271685</v>
+      </c>
+      <c r="T22" s="35">
+        <v>23061.327512987617</v>
+      </c>
+      <c r="U22" s="35">
+        <v>22646.738068440773</v>
+      </c>
+      <c r="V22" s="35">
+        <v>21617.215600545227</v>
+      </c>
+      <c r="W22" s="35">
+        <v>20700.480010350129</v>
+      </c>
+      <c r="X22" s="35">
+        <v>19948.570771673287</v>
+      </c>
+      <c r="Y22" s="35">
+        <v>19350.707545311543</v>
+      </c>
+      <c r="Z22" s="35">
+        <v>19257.978892406329</v>
+      </c>
+      <c r="AA22" s="35">
+        <v>18927.587871988169</v>
+      </c>
+      <c r="AB22" s="35">
+        <v>18879.108898778017</v>
+      </c>
+      <c r="AC22" s="35">
+        <v>18100.769535124247</v>
+      </c>
+      <c r="AD22" s="35">
+        <v>18070.962054698768</v>
+      </c>
+      <c r="AE22" s="35">
+        <v>17641.944923222272</v>
+      </c>
+      <c r="AF22" s="35">
+        <v>17439.284131526918</v>
+      </c>
+      <c r="AG22" s="35">
+        <v>17726.082501034147</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23">
+        <v>36120.541870510591</v>
+      </c>
+      <c r="F23">
+        <v>33403.510410036513</v>
+      </c>
+      <c r="G23">
+        <v>33183.978436940459</v>
+      </c>
+      <c r="H23">
+        <v>32441.107494343385</v>
+      </c>
+      <c r="I23">
+        <v>31416.730569184929</v>
+      </c>
+      <c r="J23">
+        <v>29441.229319207665</v>
+      </c>
+      <c r="K23">
+        <v>27503.787690498513</v>
+      </c>
+      <c r="L23">
+        <v>25700.949786210538</v>
+      </c>
+      <c r="M23">
+        <v>23316.871527694617</v>
+      </c>
+      <c r="N23">
+        <v>22715.895797798625</v>
+      </c>
+      <c r="O23">
+        <v>21026.192470549988</v>
+      </c>
+      <c r="P23">
+        <v>20279.485471837965</v>
+      </c>
+      <c r="Q23">
+        <v>19557.577846159729</v>
+      </c>
+      <c r="R23">
+        <v>19179.671625912488</v>
+      </c>
+      <c r="S23">
+        <v>18106.33277887624</v>
+      </c>
+      <c r="T23">
+        <v>17323.916218426009</v>
+      </c>
+      <c r="U23">
+        <v>16741.259420722119</v>
+      </c>
+      <c r="V23">
+        <v>15772.045680566909</v>
+      </c>
+      <c r="W23">
+        <v>14638.027601078207</v>
+      </c>
+      <c r="X23">
+        <v>14022.926737360418</v>
+      </c>
+      <c r="Y23">
+        <v>13382.248132294379</v>
+      </c>
+      <c r="Z23">
+        <v>13349.854699133435</v>
+      </c>
+      <c r="AA23">
+        <v>12818.908488048815</v>
+      </c>
+      <c r="AB23">
+        <v>13124.264208521379</v>
+      </c>
+      <c r="AC23">
+        <v>12421.129998873279</v>
+      </c>
+      <c r="AD23">
+        <v>12451.770923555665</v>
+      </c>
+      <c r="AE23">
+        <v>12227.793723312854</v>
+      </c>
+      <c r="AF23">
+        <v>12030.76188786107</v>
+      </c>
+      <c r="AG23">
+        <v>12293.968889487049</v>
       </c>
     </row>
   </sheetData>
@@ -5532,10 +5832,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5635,11 +5935,11 @@
         <v>ENV</v>
       </c>
       <c r="F7">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H7">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
@@ -5647,7 +5947,7 @@
       </c>
       <c r="J7">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
-        <v>33792</v>
+        <v>36120.541870510591</v>
       </c>
       <c r="K7" t="str">
         <f>VLOOKUP(K$5, config!$B$4:$O$14,2,FALSE) &amp; " - Single"</f>
@@ -5655,9 +5955,6 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
       <c r="C8" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>TOTCO2</v>
@@ -5666,17 +5963,20 @@
         <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
       <c r="F8">
-        <f>F7</f>
-        <v>2020</v>
-      </c>
-      <c r="I8">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
+        <v>2023</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
+        <v>33403.510410036513</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -5689,11 +5989,11 @@
         <v>ENV</v>
       </c>
       <c r="F9">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H9">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
@@ -5701,13 +6001,10 @@
       </c>
       <c r="J9">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
-        <v>35644</v>
+        <v>33183.978436940459</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
       <c r="C10" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>TOTCO2</v>
@@ -5716,17 +6013,20 @@
         <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
       <c r="F10">
-        <f>F9</f>
-        <v>2021</v>
-      </c>
-      <c r="I10">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
+        <v>2025</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
+        <v>32441.107494343385</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -5739,11 +6039,11 @@
         <v>ENV</v>
       </c>
       <c r="F11">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H11">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
@@ -5751,13 +6051,10 @@
       </c>
       <c r="J11">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
-        <v>36186</v>
+        <v>31416.730569184929</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
       <c r="C12" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>TOTCO2</v>
@@ -5766,17 +6063,20 @@
         <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
       <c r="F12">
-        <f>F11</f>
-        <v>2022</v>
-      </c>
-      <c r="I12">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
+        <v>2027</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
+        <v>29441.229319207665</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -5789,11 +6089,11 @@
         <v>ENV</v>
       </c>
       <c r="F13">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H13">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
@@ -5801,13 +6101,10 @@
       </c>
       <c r="J13">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
-        <v>35729</v>
+        <v>27503.787690498513</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
       <c r="C14" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>TOTCO2</v>
@@ -5816,17 +6113,20 @@
         <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
         <v>ENV</v>
       </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
       <c r="F14">
-        <f>F13</f>
-        <v>2023</v>
-      </c>
-      <c r="I14">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
+        <v>2029</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <v>25700.949786210538</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -5839,11 +6139,11 @@
         <v>ENV</v>
       </c>
       <c r="F15">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H15">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
@@ -5851,390 +6151,15 @@
       </c>
       <c r="J15">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
-        <v>34339</v>
+        <v>23316.871527694617</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
       <c r="F16">
-        <f>F15</f>
-        <v>2024</v>
-      </c>
-      <c r="I16">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C17" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F17">
-        <v>2025</v>
-      </c>
-      <c r="G17" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="H17">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1</v>
-      </c>
-      <c r="J17">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
-        <v>32912</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F18">
-        <f>F17</f>
-        <v>2025</v>
-      </c>
-      <c r="I18">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C19" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F19">
-        <v>2026</v>
-      </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="H19">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
-        <v>30554</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F20">
-        <f>F19</f>
-        <v>2026</v>
-      </c>
-      <c r="I20">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C21" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F21">
-        <v>2027</v>
-      </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="H21">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
-        <v>29948</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F22">
-        <f>F21</f>
-        <v>2027</v>
-      </c>
-      <c r="I22">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C23" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F23">
-        <v>2028</v>
-      </c>
-      <c r="G23" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="H23">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
-        <v>28505</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E24" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F24">
-        <f>F23</f>
-        <v>2028</v>
-      </c>
-      <c r="I24">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C25" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F25">
-        <v>2029</v>
-      </c>
-      <c r="G25" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="H25">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
-        <v>27699</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D26" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E26" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F26">
-        <f>F25</f>
-        <v>2029</v>
-      </c>
-      <c r="I26">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C27" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F27">
-        <v>2030</v>
-      </c>
-      <c r="G27" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="H27">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>27046</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D28" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E28" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F28">
-        <f>F27</f>
-        <v>2030</v>
-      </c>
-      <c r="I28">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C29" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="F29">
-        <v>2050</v>
-      </c>
-      <c r="G29" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
-      </c>
-      <c r="H29">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
-        <v>6589</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
-      <c r="E30" t="str">
-        <f>VLOOKUP(E$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
-        <v>T-A*INT*,T-NAV*</v>
-      </c>
-      <c r="F30">
-        <v>2050</v>
-      </c>
-      <c r="I30">
-        <f>VLOOKUP(I$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F31,config!$B$6:$O$6,),FALSE)</f>
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6249,7 +6174,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6274,7 +6199,7 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="str">
         <f>"~UC_Sets: R_S: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!D3:AD3)</f>
-        <v>~UC_Sets: R_S: National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+        <v xml:space="preserve">~UC_Sets: R_S: </v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -6285,7 +6210,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G4" t="str">
         <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
-        <v>~UC_T</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -6354,7 +6279,7 @@
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H7">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F7,config!$B$6:$O$6,),FALSE)</f>
@@ -6408,7 +6333,7 @@
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H9">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
@@ -6458,7 +6383,7 @@
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H11">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
@@ -6466,7 +6391,7 @@
       </c>
       <c r="J11">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
-        <v>36186</v>
+        <v>36120.541870510591</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -6508,7 +6433,7 @@
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H13">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
@@ -6516,7 +6441,7 @@
       </c>
       <c r="J13">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
-        <v>35729</v>
+        <v>33403.510410036513</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -6558,7 +6483,7 @@
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H15">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
@@ -6566,7 +6491,7 @@
       </c>
       <c r="J15">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
-        <v>34339</v>
+        <v>33183.978436940459</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -6608,7 +6533,7 @@
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H17">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
@@ -6616,7 +6541,7 @@
       </c>
       <c r="J17">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
-        <v>32912</v>
+        <v>32441.107494343385</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
@@ -6658,7 +6583,7 @@
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H19">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
@@ -6666,7 +6591,7 @@
       </c>
       <c r="J19">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F19,config!$B$6:$O$6,),FALSE)</f>
-        <v>30554</v>
+        <v>31416.730569184929</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
@@ -6708,7 +6633,7 @@
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H21">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
@@ -6716,7 +6641,7 @@
       </c>
       <c r="J21">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F21,config!$B$6:$O$6,),FALSE)</f>
-        <v>29948</v>
+        <v>29441.229319207665</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
@@ -6758,7 +6683,7 @@
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H23">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
@@ -6766,7 +6691,7 @@
       </c>
       <c r="J23">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F23,config!$B$6:$O$6,),FALSE)</f>
-        <v>28505</v>
+        <v>27503.787690498513</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
@@ -6808,7 +6733,7 @@
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H25">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
@@ -6816,7 +6741,7 @@
       </c>
       <c r="J25">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F25,config!$B$6:$O$6,),FALSE)</f>
-        <v>27699</v>
+        <v>25700.949786210538</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
@@ -6858,7 +6783,7 @@
       </c>
       <c r="G27" t="str">
         <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>UP</v>
+        <v>LO</v>
       </c>
       <c r="H27">
         <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
@@ -6866,7 +6791,7 @@
       </c>
       <c r="J27">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
-        <v>27046</v>
+        <v>23316.871527694617</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
@@ -6916,7 +6841,7 @@
       </c>
       <c r="J29">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F29,config!$B$6:$O$6,),FALSE)</f>
-        <v>6589</v>
+        <v>12293.968889487049</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">

--- a/SuppXLS/Scen_SYS_WAM_Emissions.xlsx
+++ b/SuppXLS/Scen_SYS_WAM_Emissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B8C4E2-2EB5-4AC3-A452-4031F4F67A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22CC873-43AC-4AD4-9C4F-55B0AA288595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="config" sheetId="20" r:id="rId3"/>
     <sheet name="single" sheetId="21" r:id="rId4"/>
     <sheet name="multi" sheetId="22" r:id="rId5"/>
+    <sheet name="With Additional Measures" sheetId="24" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
   <si>
     <t>LimType</t>
   </si>
@@ -378,9 +379,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>~UC_Sets: T_S:</t>
-  </si>
-  <si>
     <t>Other_indexes</t>
   </si>
   <si>
@@ -447,12 +445,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>Hannah Daly (UCC, h.daly@ucc.ie)</t>
-  </si>
-  <si>
     <t>Specify upper bound for emissions in the WAM scenario</t>
   </si>
   <si>
@@ -475,13 +467,188 @@
   </si>
   <si>
     <t>LO</t>
+  </si>
+  <si>
+    <t>2023-2050 GHG Emissions Projections (kt CO2 eq)</t>
+  </si>
+  <si>
+    <t>Energy Industries</t>
+  </si>
+  <si>
+    <t>Public electricity and heat production</t>
+  </si>
+  <si>
+    <t>Petroleum refining</t>
+  </si>
+  <si>
+    <t>Solid fuels and other energy industries</t>
+  </si>
+  <si>
+    <t>Fugitive emissions</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>Manufacturing Combustion</t>
+  </si>
+  <si>
+    <t>Commercial / Public Services</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Domestic aviation</t>
+  </si>
+  <si>
+    <t>Road transportation</t>
+  </si>
+  <si>
+    <t>Railways</t>
+  </si>
+  <si>
+    <t>Domestic navigation</t>
+  </si>
+  <si>
+    <t>Other transportation</t>
+  </si>
+  <si>
+    <t>Industrial Processes</t>
+  </si>
+  <si>
+    <t>Mineral industry</t>
+  </si>
+  <si>
+    <t>Chemical industry</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Metal industry</t>
+  </si>
+  <si>
+    <t>Non-energy products from fuels and solvent use</t>
+  </si>
+  <si>
+    <t>Other product manufacture and use</t>
+  </si>
+  <si>
+    <t>F-Gases</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>Enteric fermentation</t>
+  </si>
+  <si>
+    <t>Manure management</t>
+  </si>
+  <si>
+    <t>Agricultural soils</t>
+  </si>
+  <si>
+    <t>Liming</t>
+  </si>
+  <si>
+    <t>Urea application</t>
+  </si>
+  <si>
+    <t>Agriculture/Forestry/Fishing fuel combustion</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Landfills</t>
+  </si>
+  <si>
+    <t>Biological treatment of solid waste</t>
+  </si>
+  <si>
+    <t>Incineration and open burning of waste</t>
+  </si>
+  <si>
+    <t>Wastewater treatment and discharge</t>
+  </si>
+  <si>
+    <t>Land use, land use change and forestry</t>
+  </si>
+  <si>
+    <t>Forest land</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
+  </si>
+  <si>
+    <t>Settlements</t>
+  </si>
+  <si>
+    <t>Other land</t>
+  </si>
+  <si>
+    <t>Harvested wood products</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>National Total</t>
+  </si>
+  <si>
+    <t>National Total including LULUCF</t>
+  </si>
+  <si>
+    <t>CommName</t>
+  </si>
+  <si>
+    <t>AGRCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2N</t>
+  </si>
+  <si>
+    <t>INDCO2P</t>
+  </si>
+  <si>
+    <t>PWRCO2N</t>
+  </si>
+  <si>
+    <t>RSDCO2</t>
+  </si>
+  <si>
+    <t>SRVCO2N</t>
+  </si>
+  <si>
+    <t>TRACO2N</t>
+  </si>
+  <si>
+    <t>SUPCO2N</t>
+  </si>
+  <si>
+    <t>TOTCO2-sup</t>
+  </si>
+  <si>
+    <t>~UC_Sets: T_E:</t>
+  </si>
+  <si>
+    <t>INDCO2N,INDCO2P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
@@ -590,7 +757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +886,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -779,6 +952,21 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -788,9 +976,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1919,12 +2104,12 @@
       <c r="Z15" s="16"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
@@ -2006,13 +2191,13 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+        <v>82</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
       <c r="G19" s="24"/>
@@ -2038,13 +2223,13 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+        <v>83</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
@@ -2070,10 +2255,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -2130,13 +2315,13 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -2162,9 +2347,7 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
-      <c r="B24" s="25" t="s">
-        <v>97</v>
-      </c>
+      <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="16"/>
@@ -2220,13 +2403,13 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+        <v>86</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -2308,7 +2491,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="26">
         <v>1</v>
@@ -2340,13 +2523,13 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="16"/>
@@ -2372,13 +2555,13 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="16"/>
@@ -2405,7 +2588,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28"/>
       <c r="B32" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
@@ -5097,10 +5280,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011941A8-04BF-45E8-9F60-D4E07475AB4A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:AG23"/>
+  <dimension ref="B4:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5190,7 +5373,7 @@
         <v>36120.541870510591</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" ref="F7:N7" si="0">+SUMIF($D$22:$D$23,LEFT($C$5,3),F$22:F$23)</f>
+        <f t="shared" ref="F7:M7" si="0">+SUMIF($D$22:$D$23,LEFT($C$5,3),F$22:F$23)</f>
         <v>33403.510410036513</v>
       </c>
       <c r="G7" s="14">
@@ -5231,10 +5414,10 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
       </c>
       <c r="D8" t="str">
         <f>C8</f>
@@ -5286,7 +5469,7 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" t="str">
         <f>C9</f>
@@ -5338,7 +5521,7 @@
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" t="str">
         <f>C10</f>
@@ -5387,7 +5570,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.35">
@@ -5395,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" t="str">
         <f>C12</f>
@@ -5434,7 +5617,7 @@
         <v>LO</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ref="M12:N12" si="8">L12</f>
+        <f t="shared" ref="M12" si="8">L12</f>
         <v>LO</v>
       </c>
       <c r="N12" t="s">
@@ -5443,7 +5626,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -5495,7 +5678,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -5547,193 +5730,193 @@
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.35">
-      <c r="E21" s="33">
+      <c r="E21" s="30">
         <v>2022</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <v>2023</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="31">
         <v>2024</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="31">
         <v>2025</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="31">
         <v>2026</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="31">
         <v>2027</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="31">
         <v>2028</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="31">
         <v>2029</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="31">
         <v>2030</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N21" s="31">
         <v>2031</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="31">
         <v>2032</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="31">
         <v>2033</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="31">
         <v>2034</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="31">
         <v>2035</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="31">
         <v>2036</v>
       </c>
-      <c r="T21" s="34">
+      <c r="T21" s="31">
         <v>2037</v>
       </c>
-      <c r="U21" s="34">
+      <c r="U21" s="31">
         <v>2038</v>
       </c>
-      <c r="V21" s="34">
+      <c r="V21" s="31">
         <v>2039</v>
       </c>
-      <c r="W21" s="34">
+      <c r="W21" s="31">
         <v>2040</v>
       </c>
-      <c r="X21" s="34">
+      <c r="X21" s="31">
         <v>2041</v>
       </c>
-      <c r="Y21" s="34">
+      <c r="Y21" s="31">
         <v>2042</v>
       </c>
-      <c r="Z21" s="34">
+      <c r="Z21" s="31">
         <v>2043</v>
       </c>
-      <c r="AA21" s="34">
+      <c r="AA21" s="31">
         <v>2044</v>
       </c>
-      <c r="AB21" s="34">
+      <c r="AB21" s="31">
         <v>2045</v>
       </c>
-      <c r="AC21" s="34">
+      <c r="AC21" s="31">
         <v>2046</v>
       </c>
-      <c r="AD21" s="34">
+      <c r="AD21" s="31">
         <v>2047</v>
       </c>
-      <c r="AE21" s="34">
+      <c r="AE21" s="31">
         <v>2048</v>
       </c>
-      <c r="AF21" s="34">
+      <c r="AF21" s="31">
         <v>2049</v>
       </c>
-      <c r="AG21" s="34">
+      <c r="AG21" s="31">
         <v>2050</v>
       </c>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="35">
+        <v>100</v>
+      </c>
+      <c r="E22" s="32">
         <v>36120.541870510591</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="32">
         <v>33394.346951961532</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="32">
         <v>33230.461444037421</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="32">
         <v>32539.99432570759</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="32">
         <v>32241.660735922636</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="32">
         <v>30946.012381086966</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="32">
         <v>29909.180253073129</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="32">
         <v>29498.224015191583</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22" s="32">
         <v>28377.843936727644</v>
       </c>
-      <c r="N22" s="35">
+      <c r="N22" s="32">
         <v>27689.653638313579</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="32">
         <v>26129.650186050134</v>
       </c>
-      <c r="P22" s="35">
+      <c r="P22" s="32">
         <v>25541.651146935994</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="32">
         <v>24910.969285124174</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="32">
         <v>24748.670234348599</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="32">
         <v>23727.913152271685</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="32">
         <v>23061.327512987617</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="32">
         <v>22646.738068440773</v>
       </c>
-      <c r="V22" s="35">
+      <c r="V22" s="32">
         <v>21617.215600545227</v>
       </c>
-      <c r="W22" s="35">
+      <c r="W22" s="32">
         <v>20700.480010350129</v>
       </c>
-      <c r="X22" s="35">
+      <c r="X22" s="32">
         <v>19948.570771673287</v>
       </c>
-      <c r="Y22" s="35">
+      <c r="Y22" s="32">
         <v>19350.707545311543</v>
       </c>
-      <c r="Z22" s="35">
+      <c r="Z22" s="32">
         <v>19257.978892406329</v>
       </c>
-      <c r="AA22" s="35">
+      <c r="AA22" s="32">
         <v>18927.587871988169</v>
       </c>
-      <c r="AB22" s="35">
+      <c r="AB22" s="32">
         <v>18879.108898778017</v>
       </c>
-      <c r="AC22" s="35">
+      <c r="AC22" s="32">
         <v>18100.769535124247</v>
       </c>
-      <c r="AD22" s="35">
+      <c r="AD22" s="32">
         <v>18070.962054698768</v>
       </c>
-      <c r="AE22" s="35">
+      <c r="AE22" s="32">
         <v>17641.944923222272</v>
       </c>
-      <c r="AF22" s="35">
+      <c r="AF22" s="32">
         <v>17439.284131526918</v>
       </c>
-      <c r="AG22" s="35">
+      <c r="AG22" s="32">
         <v>17726.082501034147</v>
       </c>
     </row>
     <row r="23" spans="3:33" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>36120.541870510591</v>
@@ -5821,6 +6004,1308 @@
       </c>
       <c r="AG23">
         <v>12293.968889487049</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="30">
+        <v>2022</v>
+      </c>
+      <c r="F27" s="31">
+        <v>2023</v>
+      </c>
+      <c r="G27" s="31">
+        <v>2024</v>
+      </c>
+      <c r="H27" s="31">
+        <v>2025</v>
+      </c>
+      <c r="I27" s="31">
+        <v>2026</v>
+      </c>
+      <c r="J27" s="31">
+        <v>2027</v>
+      </c>
+      <c r="K27" s="31">
+        <v>2028</v>
+      </c>
+      <c r="L27" s="31">
+        <v>2029</v>
+      </c>
+      <c r="M27" s="31">
+        <v>2030</v>
+      </c>
+      <c r="N27" s="31">
+        <v>2031</v>
+      </c>
+      <c r="O27" s="31">
+        <v>2032</v>
+      </c>
+      <c r="P27" s="31">
+        <v>2033</v>
+      </c>
+      <c r="Q27" s="31">
+        <v>2034</v>
+      </c>
+      <c r="R27" s="31">
+        <v>2035</v>
+      </c>
+      <c r="S27" s="31">
+        <v>2036</v>
+      </c>
+      <c r="T27" s="31">
+        <v>2037</v>
+      </c>
+      <c r="U27" s="31">
+        <v>2038</v>
+      </c>
+      <c r="V27" s="31">
+        <v>2039</v>
+      </c>
+      <c r="W27" s="31">
+        <v>2040</v>
+      </c>
+      <c r="X27" s="31">
+        <v>2041</v>
+      </c>
+      <c r="Y27" s="31">
+        <v>2042</v>
+      </c>
+      <c r="Z27" s="31">
+        <v>2043</v>
+      </c>
+      <c r="AA27" s="31">
+        <v>2044</v>
+      </c>
+      <c r="AB27" s="31">
+        <v>2045</v>
+      </c>
+      <c r="AC27" s="31">
+        <v>2046</v>
+      </c>
+      <c r="AD27" s="31">
+        <v>2047</v>
+      </c>
+      <c r="AE27" s="31">
+        <v>2048</v>
+      </c>
+      <c r="AF27" s="31">
+        <v>2049</v>
+      </c>
+      <c r="AG27" s="31">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="32">
+        <f>+'With Additional Measures'!B29</f>
+        <v>920.05280096864146</v>
+      </c>
+      <c r="F28" s="32">
+        <f>+'With Additional Measures'!C29</f>
+        <v>968.9816678486502</v>
+      </c>
+      <c r="G28" s="32">
+        <f>+'With Additional Measures'!D29</f>
+        <v>1017.9105347286592</v>
+      </c>
+      <c r="H28" s="32">
+        <f>+'With Additional Measures'!E29</f>
+        <v>1012.9629742967587</v>
+      </c>
+      <c r="I28" s="32">
+        <f>+'With Additional Measures'!F29</f>
+        <v>1011.2731485404631</v>
+      </c>
+      <c r="J28" s="32">
+        <f>+'With Additional Measures'!G29</f>
+        <v>999.29025673442845</v>
+      </c>
+      <c r="K28" s="32">
+        <f>+'With Additional Measures'!H29</f>
+        <v>987.24162394301095</v>
+      </c>
+      <c r="L28" s="32">
+        <f>+'With Additional Measures'!I29</f>
+        <v>978.46534127578047</v>
+      </c>
+      <c r="M28" s="32">
+        <f>+'With Additional Measures'!J29</f>
+        <v>969.54365897649882</v>
+      </c>
+      <c r="N28" s="32">
+        <f>+'With Additional Measures'!K29</f>
+        <v>970.8086010186596</v>
+      </c>
+      <c r="O28" s="32">
+        <f>+'With Additional Measures'!L29</f>
+        <v>971.9492570803003</v>
+      </c>
+      <c r="P28" s="32">
+        <f>+'With Additional Measures'!M29</f>
+        <v>973.11715835147345</v>
+      </c>
+      <c r="Q28" s="32">
+        <f>+'With Additional Measures'!N29</f>
+        <v>983.6600748803412</v>
+      </c>
+      <c r="R28" s="32">
+        <f>+'With Additional Measures'!O29</f>
+        <v>992.22917183854486</v>
+      </c>
+      <c r="S28" s="32">
+        <f>+'With Additional Measures'!P29</f>
+        <v>993.34946301350033</v>
+      </c>
+      <c r="T28" s="32">
+        <f>+'With Additional Measures'!Q29</f>
+        <v>994.65123956358411</v>
+      </c>
+      <c r="U28" s="32">
+        <f>+'With Additional Measures'!R29</f>
+        <v>995.77153073915849</v>
+      </c>
+      <c r="V28" s="32">
+        <f>+'With Additional Measures'!S29</f>
+        <v>1006.9504642678262</v>
+      </c>
+      <c r="W28" s="32">
+        <f>+'With Additional Measures'!T29</f>
+        <v>1011.5085717944844</v>
+      </c>
+      <c r="X28" s="32">
+        <f>+'With Additional Measures'!U29</f>
+        <v>1006.0874910946576</v>
+      </c>
+      <c r="Y28" s="32">
+        <f>+'With Additional Measures'!V29</f>
+        <v>1014.3202032200096</v>
+      </c>
+      <c r="Z28" s="32">
+        <f>+'With Additional Measures'!W29</f>
+        <v>1022.6186563307443</v>
+      </c>
+      <c r="AA28" s="32">
+        <f>+'With Additional Measures'!X29</f>
+        <v>1027.6447593172929</v>
+      </c>
+      <c r="AB28" s="32">
+        <f>+'With Additional Measures'!Y29</f>
+        <v>1036.1769887113323</v>
+      </c>
+      <c r="AC28" s="32">
+        <f>+'With Additional Measures'!Z29</f>
+        <v>1044.6047740902488</v>
+      </c>
+      <c r="AD28" s="32">
+        <f>+'With Additional Measures'!AA29</f>
+        <v>1053.1568454496858</v>
+      </c>
+      <c r="AE28" s="32">
+        <f>+'With Additional Measures'!AB29</f>
+        <v>1058.32094482415</v>
+      </c>
+      <c r="AF28" s="32">
+        <f>+'With Additional Measures'!AC29</f>
+        <v>1057.4707567537866</v>
+      </c>
+      <c r="AG28" s="32">
+        <f>+'With Additional Measures'!AD29</f>
+        <v>1067.5529370801066</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="32">
+        <f>+'With Additional Measures'!B8</f>
+        <v>4302.058623617625</v>
+      </c>
+      <c r="F29" s="32">
+        <f>+'With Additional Measures'!C8</f>
+        <v>4167.331818223046</v>
+      </c>
+      <c r="G29" s="32">
+        <f>+'With Additional Measures'!D8</f>
+        <v>4032.6050128284678</v>
+      </c>
+      <c r="H29" s="32">
+        <f>+'With Additional Measures'!E8</f>
+        <v>4019.2701170807081</v>
+      </c>
+      <c r="I29" s="32">
+        <f>+'With Additional Measures'!F8</f>
+        <v>3986.1050473111</v>
+      </c>
+      <c r="J29" s="32">
+        <f>+'With Additional Measures'!G8</f>
+        <v>3912.5830053819827</v>
+      </c>
+      <c r="K29" s="32">
+        <f>+'With Additional Measures'!H8</f>
+        <v>3798.4786566411562</v>
+      </c>
+      <c r="L29" s="32">
+        <f>+'With Additional Measures'!I8</f>
+        <v>3552.8542597537712</v>
+      </c>
+      <c r="M29" s="32">
+        <f>+'With Additional Measures'!J8</f>
+        <v>2909.4339881243873</v>
+      </c>
+      <c r="N29" s="32">
+        <f>+'With Additional Measures'!K8</f>
+        <v>2847.8322674298165</v>
+      </c>
+      <c r="O29" s="32">
+        <f>+'With Additional Measures'!L8</f>
+        <v>2776.4154912504732</v>
+      </c>
+      <c r="P29" s="32">
+        <f>+'With Additional Measures'!M8</f>
+        <v>2703.0088490535054</v>
+      </c>
+      <c r="Q29" s="32">
+        <f>+'With Additional Measures'!N8</f>
+        <v>2658.1625033771188</v>
+      </c>
+      <c r="R29" s="32">
+        <f>+'With Additional Measures'!O8</f>
+        <v>2561.6116133565324</v>
+      </c>
+      <c r="S29" s="32">
+        <f>+'With Additional Measures'!P8</f>
+        <v>2463.744144671397</v>
+      </c>
+      <c r="T29" s="32">
+        <f>+'With Additional Measures'!Q8</f>
+        <v>2369.1414907375624</v>
+      </c>
+      <c r="U29" s="32">
+        <f>+'With Additional Measures'!R8</f>
+        <v>2265.0738268217588</v>
+      </c>
+      <c r="V29" s="32">
+        <f>+'With Additional Measures'!S8</f>
+        <v>2159.982585422832</v>
+      </c>
+      <c r="W29" s="32">
+        <f>+'With Additional Measures'!T8</f>
+        <v>2053.8029946728061</v>
+      </c>
+      <c r="X29" s="32">
+        <f>+'With Additional Measures'!U8</f>
+        <v>1931.0260686995762</v>
+      </c>
+      <c r="Y29" s="32">
+        <f>+'With Additional Measures'!V8</f>
+        <v>1808.1551682877478</v>
+      </c>
+      <c r="Z29" s="32">
+        <f>+'With Additional Measures'!W8</f>
+        <v>1684.7901973063406</v>
+      </c>
+      <c r="AA29" s="32">
+        <f>+'With Additional Measures'!X8</f>
+        <v>1562.2253649077907</v>
+      </c>
+      <c r="AB29" s="32">
+        <f>+'With Additional Measures'!Y8</f>
+        <v>1473.8846774841279</v>
+      </c>
+      <c r="AC29" s="32">
+        <f>+'With Additional Measures'!Z8</f>
+        <v>1416.5631378145097</v>
+      </c>
+      <c r="AD29" s="32">
+        <f>+'With Additional Measures'!AA8</f>
+        <v>1407.481615155521</v>
+      </c>
+      <c r="AE29" s="32">
+        <f>+'With Additional Measures'!AB8</f>
+        <v>1336.1234820053139</v>
+      </c>
+      <c r="AF29" s="32">
+        <f>+'With Additional Measures'!AC8</f>
+        <v>1316.1168959329025</v>
+      </c>
+      <c r="AG29" s="32">
+        <f>+'With Additional Measures'!AD8</f>
+        <v>1315.4733348397583</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" s="32">
+        <f>+'With Additional Measures'!B16</f>
+        <v>2287.9852285519778</v>
+      </c>
+      <c r="F30" s="32">
+        <f>+'With Additional Measures'!C16</f>
+        <v>2178.6110005517894</v>
+      </c>
+      <c r="G30" s="32">
+        <f>+'With Additional Measures'!D16</f>
+        <v>2205.2180427647486</v>
+      </c>
+      <c r="H30" s="32">
+        <f>+'With Additional Measures'!E16</f>
+        <v>2231.7232863728545</v>
+      </c>
+      <c r="I30" s="32">
+        <f>+'With Additional Measures'!F16</f>
+        <v>2258.337418216413</v>
+      </c>
+      <c r="J30" s="32">
+        <f>+'With Additional Measures'!G16</f>
+        <v>2286.603768211095</v>
+      </c>
+      <c r="K30" s="32">
+        <f>+'With Additional Measures'!H16</f>
+        <v>2315.2496766440368</v>
+      </c>
+      <c r="L30" s="32">
+        <f>+'With Additional Measures'!I16</f>
+        <v>2344.2804573333715</v>
+      </c>
+      <c r="M30" s="32">
+        <f>+'With Additional Measures'!J16</f>
+        <v>2373.7014984906905</v>
+      </c>
+      <c r="N30" s="32">
+        <f>+'With Additional Measures'!K16</f>
+        <v>2403.5182637625453</v>
+      </c>
+      <c r="O30" s="32">
+        <f>+'With Additional Measures'!L16</f>
+        <v>2433.698620853374</v>
+      </c>
+      <c r="P30" s="32">
+        <f>+'With Additional Measures'!M16</f>
+        <v>2464.285859895871</v>
+      </c>
+      <c r="Q30" s="32">
+        <f>+'With Additional Measures'!N16</f>
+        <v>2495.2856772373607</v>
+      </c>
+      <c r="R30" s="32">
+        <f>+'With Additional Measures'!O16</f>
+        <v>2556.7536679505229</v>
+      </c>
+      <c r="S30" s="32">
+        <f>+'With Additional Measures'!P16</f>
+        <v>2557.8710284935764</v>
+      </c>
+      <c r="T30" s="32">
+        <f>+'With Additional Measures'!Q16</f>
+        <v>2558.9607562112888</v>
+      </c>
+      <c r="U30" s="32">
+        <f>+'With Additional Measures'!R16</f>
+        <v>2560.0504839290006</v>
+      </c>
+      <c r="V30" s="32">
+        <f>+'With Additional Measures'!S16</f>
+        <v>2561.1402116467125</v>
+      </c>
+      <c r="W30" s="32">
+        <f>+'With Additional Measures'!T16</f>
+        <v>2562.2299393644248</v>
+      </c>
+      <c r="X30" s="32">
+        <f>+'With Additional Measures'!U16</f>
+        <v>2563.3196670821367</v>
+      </c>
+      <c r="Y30" s="32">
+        <f>+'With Additional Measures'!V16</f>
+        <v>2564.3311814741414</v>
+      </c>
+      <c r="Z30" s="32">
+        <f>+'With Additional Measures'!W16</f>
+        <v>2565.3426958661457</v>
+      </c>
+      <c r="AA30" s="32">
+        <f>+'With Additional Measures'!X16</f>
+        <v>2566.3542102581505</v>
+      </c>
+      <c r="AB30" s="32">
+        <f>+'With Additional Measures'!Y16</f>
+        <v>2567.3657246501552</v>
+      </c>
+      <c r="AC30" s="32">
+        <f>+'With Additional Measures'!Z16</f>
+        <v>2568.3772390421591</v>
+      </c>
+      <c r="AD30" s="32">
+        <f>+'With Additional Measures'!AA16</f>
+        <v>2569.2451392346375</v>
+      </c>
+      <c r="AE30" s="32">
+        <f>+'With Additional Measures'!AB16</f>
+        <v>2570.1130394271154</v>
+      </c>
+      <c r="AF30" s="32">
+        <f>+'With Additional Measures'!AC16</f>
+        <v>2570.9809396195938</v>
+      </c>
+      <c r="AG30" s="32">
+        <f>+'With Additional Measures'!AD16</f>
+        <v>2571.8488398120717</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="32">
+        <f>+'With Additional Measures'!B3+'With Additional Measures'!B33</f>
+        <v>9649.7333347851145</v>
+      </c>
+      <c r="F31" s="32">
+        <f>+'With Additional Measures'!C3+'With Additional Measures'!C33</f>
+        <v>7118.4287006246859</v>
+      </c>
+      <c r="G31" s="32">
+        <f>+'With Additional Measures'!D3+'With Additional Measures'!D33</f>
+        <v>7196.6033426262929</v>
+      </c>
+      <c r="H31" s="32">
+        <f>+'With Additional Measures'!E3+'With Additional Measures'!E33</f>
+        <v>6672.3962070500666</v>
+      </c>
+      <c r="I31" s="32">
+        <f>+'With Additional Measures'!F3+'With Additional Measures'!F33</f>
+        <v>6493.0162304836067</v>
+      </c>
+      <c r="J31" s="32">
+        <f>+'With Additional Measures'!G3+'With Additional Measures'!G33</f>
+        <v>5452.4560652896744</v>
+      </c>
+      <c r="K31" s="32">
+        <f>+'With Additional Measures'!H3+'With Additional Measures'!H33</f>
+        <v>4552.0851304568732</v>
+      </c>
+      <c r="L31" s="32">
+        <f>+'With Additional Measures'!I3+'With Additional Measures'!I33</f>
+        <v>4007.8397830456192</v>
+      </c>
+      <c r="M31" s="32">
+        <f>+'With Additional Measures'!J3+'With Additional Measures'!J33</f>
+        <v>3516.7224449053992</v>
+      </c>
+      <c r="N31" s="32">
+        <f>+'With Additional Measures'!K3+'With Additional Measures'!K33</f>
+        <v>3728.883865505119</v>
+      </c>
+      <c r="O31" s="32">
+        <f>+'With Additional Measures'!L3+'With Additional Measures'!L33</f>
+        <v>2886.7056328380868</v>
+      </c>
+      <c r="P31" s="32">
+        <f>+'With Additional Measures'!M3+'With Additional Measures'!M33</f>
+        <v>2987.7196595181849</v>
+      </c>
+      <c r="Q31" s="32">
+        <f>+'With Additional Measures'!N3+'With Additional Measures'!N33</f>
+        <v>3072.6574787074937</v>
+      </c>
+      <c r="R31" s="32">
+        <f>+'With Additional Measures'!O3+'With Additional Measures'!O33</f>
+        <v>3462.4897636760275</v>
+      </c>
+      <c r="S31" s="32">
+        <f>+'With Additional Measures'!P3+'With Additional Measures'!P33</f>
+        <v>3213.6972277021459</v>
+      </c>
+      <c r="T31" s="32">
+        <f>+'With Additional Measures'!Q3+'With Additional Measures'!Q33</f>
+        <v>3164.6548434198335</v>
+      </c>
+      <c r="U31" s="32">
+        <f>+'With Additional Measures'!R3+'With Additional Measures'!R33</f>
+        <v>3355.0194830532519</v>
+      </c>
+      <c r="V31" s="32">
+        <f>+'With Additional Measures'!S3+'With Additional Measures'!S33</f>
+        <v>3039.8604134664602</v>
+      </c>
+      <c r="W31" s="32">
+        <f>+'With Additional Measures'!T3+'With Additional Measures'!T33</f>
+        <v>2519.2006329688497</v>
+      </c>
+      <c r="X31" s="32">
+        <f>+'With Additional Measures'!U3+'With Additional Measures'!U33</f>
+        <v>2403.5562313862474</v>
+      </c>
+      <c r="Y31" s="32">
+        <f>+'With Additional Measures'!V3+'With Additional Measures'!V33</f>
+        <v>2167.382942070949</v>
+      </c>
+      <c r="Z31" s="32">
+        <f>+'With Additional Measures'!W3+'With Additional Measures'!W33</f>
+        <v>2428.1225966016218</v>
+      </c>
+      <c r="AA31" s="32">
+        <f>+'With Additional Measures'!X3+'With Additional Measures'!X33</f>
+        <v>2201.230519610087</v>
+      </c>
+      <c r="AB31" s="32">
+        <f>+'With Additional Measures'!Y3+'With Additional Measures'!Y33</f>
+        <v>2726.938745291568</v>
+      </c>
+      <c r="AC31" s="32">
+        <f>+'With Additional Measures'!Z3+'With Additional Measures'!Z33</f>
+        <v>2199.9634321565163</v>
+      </c>
+      <c r="AD31" s="32">
+        <f>+'With Additional Measures'!AA3+'With Additional Measures'!AA33</f>
+        <v>2308.5822164775072</v>
+      </c>
+      <c r="AE31" s="32">
+        <f>+'With Additional Measures'!AB3+'With Additional Measures'!AB33</f>
+        <v>2233.4945049441021</v>
+      </c>
+      <c r="AF31" s="32">
+        <f>+'With Additional Measures'!AC3+'With Additional Measures'!AC33</f>
+        <v>2115.7162401855794</v>
+      </c>
+      <c r="AG31" s="32">
+        <f>+'With Additional Measures'!AD3+'With Additional Measures'!AD33</f>
+        <v>2408.1271237678347</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="32">
+        <f>+'With Additional Measures'!B7</f>
+        <v>5787.3846312369369</v>
+      </c>
+      <c r="F32" s="32">
+        <f>+'With Additional Measures'!C7</f>
+        <v>5802.1087395543946</v>
+      </c>
+      <c r="G32" s="32">
+        <f>+'With Additional Measures'!D7</f>
+        <v>5816.8328478718504</v>
+      </c>
+      <c r="H32" s="32">
+        <f>+'With Additional Measures'!E7</f>
+        <v>5769.2727387878758</v>
+      </c>
+      <c r="I32" s="32">
+        <f>+'With Additional Measures'!F7</f>
+        <v>5512.2157131536915</v>
+      </c>
+      <c r="J32" s="32">
+        <f>+'With Additional Measures'!G7</f>
+        <v>5231.7534518544189</v>
+      </c>
+      <c r="K32" s="32">
+        <f>+'With Additional Measures'!H7</f>
+        <v>4926.5099898252511</v>
+      </c>
+      <c r="L32" s="32">
+        <f>+'With Additional Measures'!I7</f>
+        <v>4598.8855348985026</v>
+      </c>
+      <c r="M32" s="32">
+        <f>+'With Additional Measures'!J7</f>
+        <v>4205.2293553764675</v>
+      </c>
+      <c r="N32" s="32">
+        <f>+'With Additional Measures'!K7</f>
+        <v>3788.3545642487284</v>
+      </c>
+      <c r="O32" s="32">
+        <f>+'With Additional Measures'!L7</f>
+        <v>3346.4056220821881</v>
+      </c>
+      <c r="P32" s="32">
+        <f>+'With Additional Measures'!M7</f>
+        <v>2904.3643350117818</v>
+      </c>
+      <c r="Q32" s="32">
+        <f>+'With Additional Measures'!N7</f>
+        <v>2462.329935993007</v>
+      </c>
+      <c r="R32" s="32">
+        <f>+'With Additional Measures'!O7</f>
+        <v>2091.1775647069535</v>
+      </c>
+      <c r="S32" s="32">
+        <f>+'With Additional Measures'!P7</f>
+        <v>1723.1927021189308</v>
+      </c>
+      <c r="T32" s="32">
+        <f>+'With Additional Measures'!Q7</f>
+        <v>1416.5221774547981</v>
+      </c>
+      <c r="U32" s="32">
+        <f>+'With Additional Measures'!R7</f>
+        <v>1075.515652080484</v>
+      </c>
+      <c r="V32" s="32">
+        <f>+'With Additional Measures'!S7</f>
+        <v>822.45215462303349</v>
+      </c>
+      <c r="W32" s="32">
+        <f>+'With Additional Measures'!T7</f>
+        <v>601.66779632393127</v>
+      </c>
+      <c r="X32" s="32">
+        <f>+'With Additional Measures'!U7</f>
+        <v>516.22328622710972</v>
+      </c>
+      <c r="Y32" s="32">
+        <f>+'With Additional Measures'!V7</f>
+        <v>433.16771196297293</v>
+      </c>
+      <c r="Z32" s="32">
+        <f>+'With Additional Measures'!W7</f>
+        <v>353.95999199484231</v>
+      </c>
+      <c r="AA32" s="32">
+        <f>+'With Additional Measures'!X7</f>
+        <v>276.13781919337589</v>
+      </c>
+      <c r="AB32" s="32">
+        <f>+'With Additional Measures'!Y7</f>
+        <v>249.66990796761934</v>
+      </c>
+      <c r="AC32" s="32">
+        <f>+'With Additional Measures'!Z7</f>
+        <v>223.8060065898199</v>
+      </c>
+      <c r="AD32" s="32">
+        <f>+'With Additional Measures'!AA7</f>
+        <v>223.35072914530275</v>
+      </c>
+      <c r="AE32" s="32">
+        <f>+'With Additional Measures'!AB7</f>
+        <v>222.90220065807932</v>
+      </c>
+      <c r="AF32" s="32">
+        <f>+'With Additional Measures'!AC7</f>
+        <v>222.41949614673661</v>
+      </c>
+      <c r="AG32" s="32">
+        <f>+'With Additional Measures'!AD7</f>
+        <v>221.68962831263147</v>
+      </c>
+    </row>
+    <row r="33" spans="4:33" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="32">
+        <f>+'With Additional Measures'!B9</f>
+        <v>1422.0414021555512</v>
+      </c>
+      <c r="F33" s="32">
+        <f>+'With Additional Measures'!C9</f>
+        <v>1395.7876216787199</v>
+      </c>
+      <c r="G33" s="32">
+        <f>+'With Additional Measures'!D9</f>
+        <v>1369.5338412018882</v>
+      </c>
+      <c r="H33" s="32">
+        <f>+'With Additional Measures'!E9</f>
+        <v>1345.9695689087916</v>
+      </c>
+      <c r="I33" s="32">
+        <f>+'With Additional Measures'!F9</f>
+        <v>1259.7016813985983</v>
+      </c>
+      <c r="J33" s="32">
+        <f>+'With Additional Measures'!G9</f>
+        <v>1166.6069431625792</v>
+      </c>
+      <c r="K33" s="32">
+        <f>+'With Additional Measures'!H9</f>
+        <v>1055.3871276451755</v>
+      </c>
+      <c r="L33" s="32">
+        <f>+'With Additional Measures'!I9</f>
+        <v>898.03479076139524</v>
+      </c>
+      <c r="M33" s="32">
+        <f>+'With Additional Measures'!J9</f>
+        <v>611.74492139824611</v>
+      </c>
+      <c r="N33" s="32">
+        <f>+'With Additional Measures'!K9</f>
+        <v>571.70561619797343</v>
+      </c>
+      <c r="O33" s="32">
+        <f>+'With Additional Measures'!L9</f>
+        <v>529.94566616960515</v>
+      </c>
+      <c r="P33" s="32">
+        <f>+'With Additional Measures'!M9</f>
+        <v>486.33145740920054</v>
+      </c>
+      <c r="Q33" s="32">
+        <f>+'With Additional Measures'!N9</f>
+        <v>438.96520625537732</v>
+      </c>
+      <c r="R33" s="32">
+        <f>+'With Additional Measures'!O9</f>
+        <v>388.35330489967572</v>
+      </c>
+      <c r="S33" s="32">
+        <f>+'With Additional Measures'!P9</f>
+        <v>351.92956079592307</v>
+      </c>
+      <c r="T33" s="32">
+        <f>+'With Additional Measures'!Q9</f>
+        <v>328.81334683314981</v>
+      </c>
+      <c r="U33" s="32">
+        <f>+'With Additional Measures'!R9</f>
+        <v>294.2364275033475</v>
+      </c>
+      <c r="V33" s="32">
+        <f>+'With Additional Measures'!S9</f>
+        <v>262.25838593024667</v>
+      </c>
+      <c r="W33" s="32">
+        <f>+'With Additional Measures'!T9</f>
+        <v>232.90790342038849</v>
+      </c>
+      <c r="X33" s="32">
+        <f>+'With Additional Measures'!U9</f>
+        <v>200.95120594143378</v>
+      </c>
+      <c r="Y33" s="32">
+        <f>+'With Additional Measures'!V9</f>
+        <v>170.47621892233371</v>
+      </c>
+      <c r="Z33" s="32">
+        <f>+'With Additional Measures'!W9</f>
+        <v>140.81056068401404</v>
+      </c>
+      <c r="AA33" s="32">
+        <f>+'With Additional Measures'!X9</f>
+        <v>111.75308396122765</v>
+      </c>
+      <c r="AB33" s="32">
+        <f>+'With Additional Measures'!Y9</f>
+        <v>90.835508341726552</v>
+      </c>
+      <c r="AC33" s="32">
+        <f>+'With Additional Measures'!Z9</f>
+        <v>75.696200139392062</v>
+      </c>
+      <c r="AD33" s="32">
+        <f>+'With Additional Measures'!AA9</f>
+        <v>72.773586320381298</v>
+      </c>
+      <c r="AE33" s="32">
+        <f>+'With Additional Measures'!AB9</f>
+        <v>56.319182373843432</v>
+      </c>
+      <c r="AF33" s="32">
+        <f>+'With Additional Measures'!AC9</f>
+        <v>51.435891355519004</v>
+      </c>
+      <c r="AG33" s="32">
+        <f>+'With Additional Measures'!AD9</f>
+        <v>51.655289689340393</v>
+      </c>
+    </row>
+    <row r="34" spans="4:33" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="32">
+        <f>+'With Additional Measures'!B10</f>
+        <v>11751.285849194741</v>
+      </c>
+      <c r="F34" s="32">
+        <f>+'With Additional Measures'!C10</f>
+        <v>11772.260861555227</v>
+      </c>
+      <c r="G34" s="32">
+        <f>+'With Additional Measures'!D10</f>
+        <v>11545.274814918552</v>
+      </c>
+      <c r="H34" s="32">
+        <f>+'With Additional Measures'!E10</f>
+        <v>11389.512601846327</v>
+      </c>
+      <c r="I34" s="32">
+        <f>+'With Additional Measures'!F10</f>
+        <v>10896.081330081059</v>
+      </c>
+      <c r="J34" s="32">
+        <f>+'With Additional Measures'!G10</f>
+        <v>10391.935828573485</v>
+      </c>
+      <c r="K34" s="32">
+        <f>+'With Additional Measures'!H10</f>
+        <v>9868.8354853430083</v>
+      </c>
+      <c r="L34" s="32">
+        <f>+'With Additional Measures'!I10</f>
+        <v>9320.5896191420998</v>
+      </c>
+      <c r="M34" s="32">
+        <f>+'With Additional Measures'!J10</f>
+        <v>8730.4956604229301</v>
+      </c>
+      <c r="N34" s="32">
+        <f>+'With Additional Measures'!K10</f>
+        <v>8404.7926196357839</v>
+      </c>
+      <c r="O34" s="32">
+        <f>+'With Additional Measures'!L10</f>
+        <v>8081.072180275959</v>
+      </c>
+      <c r="P34" s="32">
+        <f>+'With Additional Measures'!M10</f>
+        <v>7760.6581525979482</v>
+      </c>
+      <c r="Q34" s="32">
+        <f>+'With Additional Measures'!N10</f>
+        <v>7446.5169697090341</v>
+      </c>
+      <c r="R34" s="32">
+        <f>+'With Additional Measures'!O10</f>
+        <v>7127.056539484227</v>
+      </c>
+      <c r="S34" s="32">
+        <f>+'With Additional Measures'!P10</f>
+        <v>6802.5486520807663</v>
+      </c>
+      <c r="T34" s="32">
+        <f>+'With Additional Measures'!Q10</f>
+        <v>6491.1723642057896</v>
+      </c>
+      <c r="U34" s="32">
+        <f>+'With Additional Measures'!R10</f>
+        <v>6195.5920165951156</v>
+      </c>
+      <c r="V34" s="32">
+        <f>+'With Additional Measures'!S10</f>
+        <v>5919.4014652098003</v>
+      </c>
+      <c r="W34" s="32">
+        <f>+'With Additional Measures'!T10</f>
+        <v>5656.7097625333236</v>
+      </c>
+      <c r="X34" s="32">
+        <f>+'With Additional Measures'!U10</f>
+        <v>5401.7627869292592</v>
+      </c>
+      <c r="Y34" s="32">
+        <f>+'With Additional Measures'!V10</f>
+        <v>5224.4147063562241</v>
+      </c>
+      <c r="Z34" s="32">
+        <f>+'With Additional Measures'!W10</f>
+        <v>5154.2100003497271</v>
+      </c>
+      <c r="AA34" s="32">
+        <f>+'With Additional Measures'!X10</f>
+        <v>5073.5627308008916</v>
+      </c>
+      <c r="AB34" s="32">
+        <f>+'With Additional Measures'!Y10</f>
+        <v>4979.3926560748514</v>
+      </c>
+      <c r="AC34" s="32">
+        <f>+'With Additional Measures'!Z10</f>
+        <v>4892.119209040633</v>
+      </c>
+      <c r="AD34" s="32">
+        <f>+'With Additional Measures'!AA10</f>
+        <v>4817.1807917726301</v>
+      </c>
+      <c r="AE34" s="32">
+        <f>+'With Additional Measures'!AB10</f>
+        <v>4750.52036908025</v>
+      </c>
+      <c r="AF34" s="32">
+        <f>+'With Additional Measures'!AC10</f>
+        <v>4696.6216678669534</v>
+      </c>
+      <c r="AG34" s="32">
+        <f>+'With Additional Measures'!AD10</f>
+        <v>4657.6217359853063</v>
+      </c>
+    </row>
+    <row r="35" spans="4:33" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="32">
+        <f>+'With Additional Measures'!B4+'With Additional Measures'!B5+'With Additional Measures'!B6</f>
+        <v>464.81518297543533</v>
+      </c>
+      <c r="F35" s="32">
+        <f>+'With Additional Measures'!C4+'With Additional Measures'!C5+'With Additional Measures'!C6</f>
+        <v>431.38283969892188</v>
+      </c>
+      <c r="G35" s="32">
+        <f>+'With Additional Measures'!D4+'With Additional Measures'!D5+'With Additional Measures'!D6</f>
+        <v>402.8213912128594</v>
+      </c>
+      <c r="H35" s="32">
+        <f>+'With Additional Measures'!E4+'With Additional Measures'!E5+'With Additional Measures'!E6</f>
+        <v>400.37360684213758</v>
+      </c>
+      <c r="I35" s="32">
+        <f>+'With Additional Measures'!F4+'With Additional Measures'!F5+'With Additional Measures'!F6</f>
+        <v>401.27525184437008</v>
+      </c>
+      <c r="J35" s="32">
+        <f>+'With Additional Measures'!G4+'With Additional Measures'!G5+'With Additional Measures'!G6</f>
+        <v>393.87924513506908</v>
+      </c>
+      <c r="K35" s="32">
+        <f>+'With Additional Measures'!H4+'With Additional Measures'!H5+'With Additional Measures'!H6</f>
+        <v>387.01472342583145</v>
+      </c>
+      <c r="L35" s="32">
+        <f>+'With Additional Measures'!I4+'With Additional Measures'!I5+'With Additional Measures'!I6</f>
+        <v>350.02842723625025</v>
+      </c>
+      <c r="M35" s="32">
+        <f>+'With Additional Measures'!J4+'With Additional Measures'!J5+'With Additional Measures'!J6</f>
+        <v>370.15740055593716</v>
+      </c>
+      <c r="N35" s="32">
+        <f>+'With Additional Measures'!K4+'With Additional Measures'!K5+'With Additional Measures'!K6</f>
+        <v>370.75356093229198</v>
+      </c>
+      <c r="O35" s="32">
+        <f>+'With Additional Measures'!L4+'With Additional Measures'!L5+'With Additional Measures'!L6</f>
+        <v>364.27974332633704</v>
+      </c>
+      <c r="P35" s="32">
+        <f>+'With Additional Measures'!M4+'With Additional Measures'!M5+'With Additional Measures'!M6</f>
+        <v>363.83924805879167</v>
+      </c>
+      <c r="Q35" s="32">
+        <f>+'With Additional Measures'!N4+'With Additional Measures'!N5+'With Additional Measures'!N6</f>
+        <v>333.30720931440896</v>
+      </c>
+      <c r="R35" s="32">
+        <f>+'With Additional Measures'!O4+'With Additional Measures'!O5+'With Additional Measures'!O6</f>
+        <v>364.60607733067536</v>
+      </c>
+      <c r="S35" s="32">
+        <f>+'With Additional Measures'!P4+'With Additional Measures'!P5+'With Additional Measures'!P6</f>
+        <v>361.75452066485229</v>
+      </c>
+      <c r="T35" s="32">
+        <f>+'With Additional Measures'!Q4+'With Additional Measures'!Q5+'With Additional Measures'!Q6</f>
+        <v>360.32244295532649</v>
+      </c>
+      <c r="U35" s="32">
+        <f>+'With Additional Measures'!R4+'With Additional Measures'!R5+'With Additional Measures'!R6</f>
+        <v>360.29376115922798</v>
+      </c>
+      <c r="V35" s="32">
+        <f>+'With Additional Measures'!S4+'With Additional Measures'!S5+'With Additional Measures'!S6</f>
+        <v>326.9379810251902</v>
+      </c>
+      <c r="W35" s="32">
+        <f>+'With Additional Measures'!T4+'With Additional Measures'!T5+'With Additional Measures'!T6</f>
+        <v>352.35356177922756</v>
+      </c>
+      <c r="X35" s="32">
+        <f>+'With Additional Measures'!U4+'With Additional Measures'!U5+'With Additional Measures'!U6</f>
+        <v>350.56890497549659</v>
+      </c>
+      <c r="Y35" s="32">
+        <f>+'With Additional Measures'!V4+'With Additional Measures'!V5+'With Additional Measures'!V6</f>
+        <v>348.01135590577559</v>
+      </c>
+      <c r="Z35" s="32">
+        <f>+'With Additional Measures'!W4+'With Additional Measures'!W5+'With Additional Measures'!W6</f>
+        <v>348.68730910436034</v>
+      </c>
+      <c r="AA35" s="32">
+        <f>+'With Additional Measures'!X4+'With Additional Measures'!X5+'With Additional Measures'!X6</f>
+        <v>346.24451653945937</v>
+      </c>
+      <c r="AB35" s="32">
+        <f>+'With Additional Measures'!Y4+'With Additional Measures'!Y5+'With Additional Measures'!Y6</f>
+        <v>348.83134544092155</v>
+      </c>
+      <c r="AC35" s="32">
+        <f>+'With Additional Measures'!Z4+'With Additional Measures'!Z5+'With Additional Measures'!Z6</f>
+        <v>344.70678054855614</v>
+      </c>
+      <c r="AD35" s="32">
+        <f>+'With Additional Measures'!AA4+'With Additional Measures'!AA5+'With Additional Measures'!AA6</f>
+        <v>345.24546455921694</v>
+      </c>
+      <c r="AE35" s="32">
+        <f>+'With Additional Measures'!AB4+'With Additional Measures'!AB5+'With Additional Measures'!AB6</f>
+        <v>344.18243413409465</v>
+      </c>
+      <c r="AF35" s="32">
+        <f>+'With Additional Measures'!AC4+'With Additional Measures'!AC5+'With Additional Measures'!AC6</f>
+        <v>343.14868394976548</v>
+      </c>
+      <c r="AG35" s="32">
+        <f>+'With Additional Measures'!AD4+'With Additional Measures'!AD5+'With Additional Measures'!AD6</f>
+        <v>344.96785038029583</v>
+      </c>
+    </row>
+    <row r="36" spans="4:33" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="44">
+        <f>+SUM(E28:E34)</f>
+        <v>36120.541870510584</v>
+      </c>
+      <c r="F36" s="44">
+        <f t="shared" ref="F36:AG36" si="12">+SUM(F28:F34)</f>
+        <v>33403.510410036513</v>
+      </c>
+      <c r="G36" s="44">
+        <f t="shared" si="12"/>
+        <v>33183.978436940459</v>
+      </c>
+      <c r="H36" s="44">
+        <f t="shared" si="12"/>
+        <v>32441.107494343385</v>
+      </c>
+      <c r="I36" s="44">
+        <f t="shared" si="12"/>
+        <v>31416.730569184929</v>
+      </c>
+      <c r="J36" s="44">
+        <f t="shared" si="12"/>
+        <v>29441.229319207665</v>
+      </c>
+      <c r="K36" s="44">
+        <f t="shared" si="12"/>
+        <v>27503.78769049851</v>
+      </c>
+      <c r="L36" s="44">
+        <f t="shared" si="12"/>
+        <v>25700.949786210542</v>
+      </c>
+      <c r="M36" s="44">
+        <f t="shared" si="12"/>
+        <v>23316.871527694617</v>
+      </c>
+      <c r="N36" s="44">
+        <f t="shared" si="12"/>
+        <v>22715.895797798625</v>
+      </c>
+      <c r="O36" s="44">
+        <f t="shared" si="12"/>
+        <v>21026.192470549988</v>
+      </c>
+      <c r="P36" s="44">
+        <f t="shared" si="12"/>
+        <v>20279.485471837965</v>
+      </c>
+      <c r="Q36" s="44">
+        <f t="shared" si="12"/>
+        <v>19557.577846159733</v>
+      </c>
+      <c r="R36" s="44">
+        <f t="shared" si="12"/>
+        <v>19179.671625912484</v>
+      </c>
+      <c r="S36" s="44">
+        <f t="shared" si="12"/>
+        <v>18106.33277887624</v>
+      </c>
+      <c r="T36" s="44">
+        <f t="shared" si="12"/>
+        <v>17323.916218426006</v>
+      </c>
+      <c r="U36" s="44">
+        <f t="shared" si="12"/>
+        <v>16741.259420722119</v>
+      </c>
+      <c r="V36" s="44">
+        <f t="shared" si="12"/>
+        <v>15772.045680566913</v>
+      </c>
+      <c r="W36" s="44">
+        <f t="shared" si="12"/>
+        <v>14638.027601078207</v>
+      </c>
+      <c r="X36" s="44">
+        <f t="shared" si="12"/>
+        <v>14022.92673736042</v>
+      </c>
+      <c r="Y36" s="44">
+        <f t="shared" si="12"/>
+        <v>13382.248132294379</v>
+      </c>
+      <c r="Z36" s="44">
+        <f t="shared" si="12"/>
+        <v>13349.854699133437</v>
+      </c>
+      <c r="AA36" s="44">
+        <f t="shared" si="12"/>
+        <v>12818.908488048815</v>
+      </c>
+      <c r="AB36" s="44">
+        <f t="shared" si="12"/>
+        <v>13124.264208521381</v>
+      </c>
+      <c r="AC36" s="44">
+        <f t="shared" si="12"/>
+        <v>12421.129998873279</v>
+      </c>
+      <c r="AD36" s="44">
+        <f t="shared" si="12"/>
+        <v>12451.770923555665</v>
+      </c>
+      <c r="AE36" s="44">
+        <f t="shared" si="12"/>
+        <v>12227.793723312854</v>
+      </c>
+      <c r="AF36" s="44">
+        <f t="shared" si="12"/>
+        <v>12030.76188786107</v>
+      </c>
+      <c r="AG36" s="44">
+        <f t="shared" si="12"/>
+        <v>12293.968889487049</v>
+      </c>
+    </row>
+    <row r="37" spans="4:33" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="44">
+        <f>+E36+E35</f>
+        <v>36585.357053486019</v>
+      </c>
+      <c r="F37" s="44">
+        <f t="shared" ref="F37:AG37" si="13">+F36+F35</f>
+        <v>33834.893249735433</v>
+      </c>
+      <c r="G37" s="44">
+        <f t="shared" si="13"/>
+        <v>33586.799828153315</v>
+      </c>
+      <c r="H37" s="44">
+        <f t="shared" si="13"/>
+        <v>32841.48110118552</v>
+      </c>
+      <c r="I37" s="44">
+        <f t="shared" si="13"/>
+        <v>31818.005821029299</v>
+      </c>
+      <c r="J37" s="44">
+        <f t="shared" si="13"/>
+        <v>29835.108564342732</v>
+      </c>
+      <c r="K37" s="44">
+        <f t="shared" si="13"/>
+        <v>27890.802413924343</v>
+      </c>
+      <c r="L37" s="44">
+        <f t="shared" si="13"/>
+        <v>26050.978213446793</v>
+      </c>
+      <c r="M37" s="44">
+        <f t="shared" si="13"/>
+        <v>23687.028928250555</v>
+      </c>
+      <c r="N37" s="44">
+        <f t="shared" si="13"/>
+        <v>23086.649358730916</v>
+      </c>
+      <c r="O37" s="44">
+        <f t="shared" si="13"/>
+        <v>21390.472213876325</v>
+      </c>
+      <c r="P37" s="44">
+        <f t="shared" si="13"/>
+        <v>20643.324719896755</v>
+      </c>
+      <c r="Q37" s="44">
+        <f t="shared" si="13"/>
+        <v>19890.88505547414</v>
+      </c>
+      <c r="R37" s="44">
+        <f t="shared" si="13"/>
+        <v>19544.277703243159</v>
+      </c>
+      <c r="S37" s="44">
+        <f t="shared" si="13"/>
+        <v>18468.087299541094</v>
+      </c>
+      <c r="T37" s="44">
+        <f t="shared" si="13"/>
+        <v>17684.238661381332</v>
+      </c>
+      <c r="U37" s="44">
+        <f t="shared" si="13"/>
+        <v>17101.553181881347</v>
+      </c>
+      <c r="V37" s="44">
+        <f t="shared" si="13"/>
+        <v>16098.983661592103</v>
+      </c>
+      <c r="W37" s="44">
+        <f t="shared" si="13"/>
+        <v>14990.381162857435</v>
+      </c>
+      <c r="X37" s="44">
+        <f t="shared" si="13"/>
+        <v>14373.495642335916</v>
+      </c>
+      <c r="Y37" s="44">
+        <f t="shared" si="13"/>
+        <v>13730.259488200154</v>
+      </c>
+      <c r="Z37" s="44">
+        <f t="shared" si="13"/>
+        <v>13698.542008237797</v>
+      </c>
+      <c r="AA37" s="44">
+        <f t="shared" si="13"/>
+        <v>13165.153004588276</v>
+      </c>
+      <c r="AB37" s="44">
+        <f t="shared" si="13"/>
+        <v>13473.095553962303</v>
+      </c>
+      <c r="AC37" s="44">
+        <f t="shared" si="13"/>
+        <v>12765.836779421836</v>
+      </c>
+      <c r="AD37" s="44">
+        <f t="shared" si="13"/>
+        <v>12797.016388114882</v>
+      </c>
+      <c r="AE37" s="44">
+        <f t="shared" si="13"/>
+        <v>12571.976157446948</v>
+      </c>
+      <c r="AF37" s="44">
+        <f t="shared" si="13"/>
+        <v>12373.910571810835</v>
+      </c>
+      <c r="AG37" s="44">
+        <f t="shared" si="13"/>
+        <v>12638.936739867344</v>
       </c>
     </row>
   </sheetData>
@@ -5832,15 +7317,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9318C9B-7F0A-410C-BCB5-F22D93E1F454}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7265625" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
@@ -5864,7 +7349,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -5884,7 +7369,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>72</v>
@@ -5893,13 +7378,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>63</v>
@@ -5955,24 +7440,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C8" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F8">
         <v>2023</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
+        <f>+G7</f>
         <v>LO</v>
-      </c>
-      <c r="H8">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J8">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
@@ -5980,24 +7453,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C9" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F9">
         <v>2024</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
+        <f t="shared" ref="G9:G16" si="0">+G8</f>
         <v>LO</v>
-      </c>
-      <c r="H9">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J9">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F9,config!$B$6:$O$6,),FALSE)</f>
@@ -6005,24 +7466,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C10" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F10">
         <v>2025</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>LO</v>
-      </c>
-      <c r="H10">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J10">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
@@ -6030,24 +7479,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C11" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F11">
         <v>2026</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>LO</v>
-      </c>
-      <c r="H11">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J11">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F11,config!$B$6:$O$6,),FALSE)</f>
@@ -6055,24 +7492,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C12" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F12">
         <v>2027</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>LO</v>
-      </c>
-      <c r="H12">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J12">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
@@ -6080,24 +7505,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F13">
         <v>2028</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>LO</v>
-      </c>
-      <c r="H13">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J13">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F13,config!$B$6:$O$6,),FALSE)</f>
@@ -6105,24 +7518,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F14">
         <v>2029</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>LO</v>
-      </c>
-      <c r="H14">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J14">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
@@ -6130,24 +7531,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15" t="str">
-        <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
-        <v>TOTCO2</v>
-      </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
-        <v>ENV</v>
-      </c>
       <c r="F15">
         <v>2030</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
+        <f t="shared" si="0"/>
         <v>LO</v>
-      </c>
-      <c r="H15">
-        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
-        <v>1</v>
       </c>
       <c r="J15">
         <f>VLOOKUP("Value", config!$B$4:$O$14,MATCH($F15,config!$B$6:$O$6,),FALSE)</f>
@@ -6158,7 +7547,1061 @@
       <c r="F16">
         <v>0</v>
       </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>LO</v>
+      </c>
       <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" t="str">
+        <f>"UC_"&amp;LEFT(config!$C$5,3)&amp;"_"&amp;C17&amp;"_Emissions_Single"</f>
+        <v>UC_WAM_AGRCO2N_Emissions_Single</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F17">
+        <v>2022</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F17,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N17,FALSE)</f>
+        <v>920.05280096864146</v>
+      </c>
+      <c r="K17" t="str">
+        <f>"WAM "&amp;C17&amp;" Emissions Bound - Single"</f>
+        <v>WAM AGRCO2N Emissions Bound - Single</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>2023</v>
+      </c>
+      <c r="G18" t="str">
+        <f>+G17</f>
+        <v>LO</v>
+      </c>
+      <c r="J18">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N18,FALSE)</f>
+        <v>968.9816678486502</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <v>2024</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G26" si="1">+G18</f>
+        <v>LO</v>
+      </c>
+      <c r="J19">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N19,FALSE)</f>
+        <v>1017.9105347286592</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>2025</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>LO</v>
+      </c>
+      <c r="J20">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N20,FALSE)</f>
+        <v>1012.9629742967587</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <v>2026</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>LO</v>
+      </c>
+      <c r="J21">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N21,FALSE)</f>
+        <v>1011.2731485404631</v>
+      </c>
+      <c r="N21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <v>2027</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>LO</v>
+      </c>
+      <c r="J22">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N22,FALSE)</f>
+        <v>999.29025673442845</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <v>2028</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>LO</v>
+      </c>
+      <c r="J23">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N23,FALSE)</f>
+        <v>987.24162394301095</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <v>2029</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>LO</v>
+      </c>
+      <c r="J24">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N24,FALSE)</f>
+        <v>978.46534127578047</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <v>2030</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>LO</v>
+      </c>
+      <c r="J25">
+        <f>+VLOOKUP($C$17,config!$D$27:$M$37,N25,FALSE)</f>
+        <v>969.54365897649882</v>
+      </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>LO</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" t="str">
+        <f>"UC_"&amp;LEFT(config!$C$5,3)&amp;"_"&amp;LEFT(C27,7)&amp;"_Emissions_Single"</f>
+        <v>UC_WAM_INDCO2N_Emissions_Single</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F27">
+        <v>2022</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F27,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N27,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N27,FALSE)</f>
+        <v>6590.0438521696033</v>
+      </c>
+      <c r="K27" t="str">
+        <f>"WAM "&amp;C27&amp;" Emissions Bound - Single"</f>
+        <v>WAM INDCO2N,INDCO2P Emissions Bound - Single</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <v>2023</v>
+      </c>
+      <c r="G28" t="str">
+        <f>+G27</f>
+        <v>LO</v>
+      </c>
+      <c r="J28">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N28,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N28,FALSE)</f>
+        <v>6345.9428187748354</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <v>2024</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ref="G29:G36" si="2">+G28</f>
+        <v>LO</v>
+      </c>
+      <c r="J29">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N29,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N29,FALSE)</f>
+        <v>6237.8230555932168</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <v>2025</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>LO</v>
+      </c>
+      <c r="J30">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N30,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N30,FALSE)</f>
+        <v>6250.9934034535627</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <v>2026</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>LO</v>
+      </c>
+      <c r="J31">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N31,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N31,FALSE)</f>
+        <v>6244.4424655275125</v>
+      </c>
+      <c r="N31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <v>2027</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>LO</v>
+      </c>
+      <c r="J32">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N32,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N32,FALSE)</f>
+        <v>6199.1867735930773</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <v>2028</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>LO</v>
+      </c>
+      <c r="J33">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N33,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N33,FALSE)</f>
+        <v>6113.728333285193</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <v>2029</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>LO</v>
+      </c>
+      <c r="J34">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N34,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N34,FALSE)</f>
+        <v>5897.1347170871431</v>
+      </c>
+      <c r="N34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <v>2030</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>LO</v>
+      </c>
+      <c r="J35">
+        <f>+VLOOKUP(LEFT($C$27,7),config!$D$27:$M$37,N35,FALSE)+VLOOKUP(RIGHT($C$27,7),config!$D$27:$M$37,N35,FALSE)</f>
+        <v>5283.1354866150778</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>LO</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" t="str">
+        <f>"UC_"&amp;LEFT(config!$C$5,3)&amp;"_"&amp;C37&amp;"_Emissions_Single"</f>
+        <v>UC_WAM_PWRCO2N_Emissions_Single</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F37,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F37">
+        <v>2022</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F37,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H37">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F37,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N37,FALSE)</f>
+        <v>9649.7333347851145</v>
+      </c>
+      <c r="K37" t="str">
+        <f>"WAM "&amp;C37&amp;" Emissions Bound - Single"</f>
+        <v>WAM PWRCO2N Emissions Bound - Single</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <v>2023</v>
+      </c>
+      <c r="G38" t="str">
+        <f>+G37</f>
+        <v>LO</v>
+      </c>
+      <c r="J38">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N38,FALSE)</f>
+        <v>7118.4287006246859</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <v>2024</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" ref="G39:G46" si="3">+G38</f>
+        <v>LO</v>
+      </c>
+      <c r="J39">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N39,FALSE)</f>
+        <v>7196.6033426262929</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <v>2025</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>LO</v>
+      </c>
+      <c r="J40">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N40,FALSE)</f>
+        <v>6672.3962070500666</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <v>2026</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>LO</v>
+      </c>
+      <c r="J41">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N41,FALSE)</f>
+        <v>6493.0162304836067</v>
+      </c>
+      <c r="N41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <v>2027</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>LO</v>
+      </c>
+      <c r="J42">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N42,FALSE)</f>
+        <v>5452.4560652896744</v>
+      </c>
+      <c r="N42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <v>2028</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>LO</v>
+      </c>
+      <c r="J43">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N43,FALSE)</f>
+        <v>4552.0851304568732</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>2029</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>LO</v>
+      </c>
+      <c r="J44">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N44,FALSE)</f>
+        <v>4007.8397830456192</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>2030</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>LO</v>
+      </c>
+      <c r="J45">
+        <f>+VLOOKUP($C$37,config!$D$27:$M$37,N45,FALSE)</f>
+        <v>3516.7224449053992</v>
+      </c>
+      <c r="N45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="3"/>
+        <v>LO</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B47" t="str">
+        <f>"UC_"&amp;LEFT(config!$C$5,3)&amp;"_"&amp;C47&amp;"_Emissions_Single"</f>
+        <v>UC_WAM_RSDCO2_Emissions_Single</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F47,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F47">
+        <v>2022</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F47,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H47">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F47,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N47,FALSE)</f>
+        <v>5787.3846312369369</v>
+      </c>
+      <c r="K47" t="str">
+        <f>"WAM "&amp;C47&amp;" Emissions Bound - Single"</f>
+        <v>WAM RSDCO2 Emissions Bound - Single</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <v>2023</v>
+      </c>
+      <c r="G48" t="str">
+        <f>+G47</f>
+        <v>LO</v>
+      </c>
+      <c r="J48">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N48,FALSE)</f>
+        <v>5802.1087395543946</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F49">
+        <v>2024</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" ref="G49:G56" si="4">+G48</f>
+        <v>LO</v>
+      </c>
+      <c r="J49">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N49,FALSE)</f>
+        <v>5816.8328478718504</v>
+      </c>
+      <c r="N49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F50">
+        <v>2025</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="4"/>
+        <v>LO</v>
+      </c>
+      <c r="J50">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N50,FALSE)</f>
+        <v>5769.2727387878758</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F51">
+        <v>2026</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="4"/>
+        <v>LO</v>
+      </c>
+      <c r="J51">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N51,FALSE)</f>
+        <v>5512.2157131536915</v>
+      </c>
+      <c r="N51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F52">
+        <v>2027</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="4"/>
+        <v>LO</v>
+      </c>
+      <c r="J52">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N52,FALSE)</f>
+        <v>5231.7534518544189</v>
+      </c>
+      <c r="N52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F53">
+        <v>2028</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="4"/>
+        <v>LO</v>
+      </c>
+      <c r="J53">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N53,FALSE)</f>
+        <v>4926.5099898252511</v>
+      </c>
+      <c r="N53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F54">
+        <v>2029</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="4"/>
+        <v>LO</v>
+      </c>
+      <c r="J54">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N54,FALSE)</f>
+        <v>4598.8855348985026</v>
+      </c>
+      <c r="N54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>2030</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="4"/>
+        <v>LO</v>
+      </c>
+      <c r="J55">
+        <f>+VLOOKUP($C$47,config!$D$27:$M$37,N55,FALSE)</f>
+        <v>4205.2293553764675</v>
+      </c>
+      <c r="N55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="4"/>
+        <v>LO</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B57" t="str">
+        <f>"UC_"&amp;LEFT(config!$C$5,3)&amp;"_"&amp;C57&amp;"_Emissions_Single"</f>
+        <v>UC_WAM_SRVCO2N_Emissions_Single</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F57,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F57">
+        <v>2022</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F57,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H57">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F57,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N57,FALSE)</f>
+        <v>1422.0414021555512</v>
+      </c>
+      <c r="K57" t="str">
+        <f>"WAM "&amp;C57&amp;" Emissions Bound - Single"</f>
+        <v>WAM SRVCO2N Emissions Bound - Single</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F58">
+        <v>2023</v>
+      </c>
+      <c r="G58" t="str">
+        <f>+G57</f>
+        <v>LO</v>
+      </c>
+      <c r="J58">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N58,FALSE)</f>
+        <v>1395.7876216787199</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>2024</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ref="G59:G66" si="5">+G58</f>
+        <v>LO</v>
+      </c>
+      <c r="J59">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N59,FALSE)</f>
+        <v>1369.5338412018882</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>2025</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="5"/>
+        <v>LO</v>
+      </c>
+      <c r="J60">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N60,FALSE)</f>
+        <v>1345.9695689087916</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F61">
+        <v>2026</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="5"/>
+        <v>LO</v>
+      </c>
+      <c r="J61">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N61,FALSE)</f>
+        <v>1259.7016813985983</v>
+      </c>
+      <c r="N61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F62">
+        <v>2027</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="5"/>
+        <v>LO</v>
+      </c>
+      <c r="J62">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N62,FALSE)</f>
+        <v>1166.6069431625792</v>
+      </c>
+      <c r="N62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F63">
+        <v>2028</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="5"/>
+        <v>LO</v>
+      </c>
+      <c r="J63">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N63,FALSE)</f>
+        <v>1055.3871276451755</v>
+      </c>
+      <c r="N63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F64">
+        <v>2029</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="5"/>
+        <v>LO</v>
+      </c>
+      <c r="J64">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N64,FALSE)</f>
+        <v>898.03479076139524</v>
+      </c>
+      <c r="N64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F65">
+        <v>2030</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="5"/>
+        <v>LO</v>
+      </c>
+      <c r="J65">
+        <f>+VLOOKUP($C$57,config!$D$27:$M$37,N65,FALSE)</f>
+        <v>611.74492139824611</v>
+      </c>
+      <c r="N65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="5"/>
+        <v>LO</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B67" t="str">
+        <f>"UC_"&amp;LEFT(config!$C$5,3)&amp;"_"&amp;C67&amp;"_Emissions_Single"</f>
+        <v>UC_WAM_TRACO2N_Emissions_Single</v>
+      </c>
+      <c r="C67" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" t="str">
+        <f>VLOOKUP(D$5, config!$B$4:$O$14,MATCH($F67,config!$B$6:$O$6,),FALSE)</f>
+        <v>ENV</v>
+      </c>
+      <c r="F67">
+        <v>2022</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(G$5, config!$B$4:$O$14,MATCH($F67,config!$B$6:$O$6,),FALSE)</f>
+        <v>LO</v>
+      </c>
+      <c r="H67">
+        <f>VLOOKUP(H$5, config!$B$4:$O$14,MATCH($F67,config!$B$6:$O$6,),FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N67,FALSE)</f>
+        <v>11751.285849194741</v>
+      </c>
+      <c r="K67" t="str">
+        <f>"WAM "&amp;C67&amp;" Emissions Bound - Single"</f>
+        <v>WAM TRACO2N Emissions Bound - Single</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F68">
+        <v>2023</v>
+      </c>
+      <c r="G68" t="str">
+        <f>+G67</f>
+        <v>LO</v>
+      </c>
+      <c r="J68">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N68,FALSE)</f>
+        <v>11772.260861555227</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F69">
+        <v>2024</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" ref="G69:G76" si="6">+G68</f>
+        <v>LO</v>
+      </c>
+      <c r="J69">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N69,FALSE)</f>
+        <v>11545.274814918552</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F70">
+        <v>2025</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="6"/>
+        <v>LO</v>
+      </c>
+      <c r="J70">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N70,FALSE)</f>
+        <v>11389.512601846327</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F71">
+        <v>2026</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="6"/>
+        <v>LO</v>
+      </c>
+      <c r="J71">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N71,FALSE)</f>
+        <v>10896.081330081059</v>
+      </c>
+      <c r="N71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F72">
+        <v>2027</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="6"/>
+        <v>LO</v>
+      </c>
+      <c r="J72">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N72,FALSE)</f>
+        <v>10391.935828573485</v>
+      </c>
+      <c r="N72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F73">
+        <v>2028</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>LO</v>
+      </c>
+      <c r="J73">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N73,FALSE)</f>
+        <v>9868.8354853430083</v>
+      </c>
+      <c r="N73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F74">
+        <v>2029</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>LO</v>
+      </c>
+      <c r="J74">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N74,FALSE)</f>
+        <v>9320.5896191420998</v>
+      </c>
+      <c r="N74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F75">
+        <v>2030</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>LO</v>
+      </c>
+      <c r="J75">
+        <f>+VLOOKUP($C$67,config!$D$27:$M$37,N75,FALSE)</f>
+        <v>8730.4956604229301</v>
+      </c>
+      <c r="N75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>LO</v>
+      </c>
+      <c r="J76">
         <v>1</v>
       </c>
     </row>
@@ -6174,7 +8617,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6197,21 +8640,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="str">
-        <f>"~UC_Sets: R_S: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!D3:AD3)</f>
-        <v xml:space="preserve">~UC_Sets: R_S: </v>
-      </c>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G4" t="str">
-        <f>IF(RIGHT(B2,1)&lt;&gt;" ","~UC_T","")</f>
-        <v/>
-      </c>
+      <c r="B3" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
@@ -6224,7 +8656,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>72</v>
@@ -6233,13 +8665,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>63</v>
@@ -6296,7 +8728,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F8,config!$B$6:$O$6,),FALSE)</f>
@@ -6346,7 +8778,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F10,config!$B$6:$O$6,),FALSE)</f>
@@ -6396,7 +8828,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F12,config!$B$6:$O$6,),FALSE)</f>
@@ -6446,7 +8878,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F14,config!$B$6:$O$6,),FALSE)</f>
@@ -6496,7 +8928,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F16,config!$B$6:$O$6,),FALSE)</f>
@@ -6546,7 +8978,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F18,config!$B$6:$O$6,),FALSE)</f>
@@ -6596,7 +9028,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F20,config!$B$6:$O$6,),FALSE)</f>
@@ -6646,7 +9078,7 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F22,config!$B$6:$O$6,),FALSE)</f>
@@ -6696,7 +9128,7 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F24,config!$B$6:$O$6,),FALSE)</f>
@@ -6746,7 +9178,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C26" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F26,config!$B$6:$O$6,),FALSE)</f>
@@ -6796,7 +9228,7 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F28,config!$B$6:$O$6,),FALSE)</f>
@@ -6846,7 +9278,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(C$5, config!$B$4:$O$14,MATCH($F30,config!$B$6:$O$6,),FALSE)</f>
@@ -6882,4 +9314,4508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6333518-E2C3-4ABE-BF7E-8F9DFFABD93F}">
+  <dimension ref="A1:AD49"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="47.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="30">
+        <v>2022</v>
+      </c>
+      <c r="C1" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D1" s="31">
+        <v>2024</v>
+      </c>
+      <c r="E1" s="31">
+        <v>2025</v>
+      </c>
+      <c r="F1" s="31">
+        <v>2026</v>
+      </c>
+      <c r="G1" s="31">
+        <v>2027</v>
+      </c>
+      <c r="H1" s="31">
+        <v>2028</v>
+      </c>
+      <c r="I1" s="31">
+        <v>2029</v>
+      </c>
+      <c r="J1" s="31">
+        <v>2030</v>
+      </c>
+      <c r="K1" s="31">
+        <v>2031</v>
+      </c>
+      <c r="L1" s="31">
+        <v>2032</v>
+      </c>
+      <c r="M1" s="31">
+        <v>2033</v>
+      </c>
+      <c r="N1" s="31">
+        <v>2034</v>
+      </c>
+      <c r="O1" s="31">
+        <v>2035</v>
+      </c>
+      <c r="P1" s="31">
+        <v>2036</v>
+      </c>
+      <c r="Q1" s="31">
+        <v>2037</v>
+      </c>
+      <c r="R1" s="31">
+        <v>2038</v>
+      </c>
+      <c r="S1" s="31">
+        <v>2039</v>
+      </c>
+      <c r="T1" s="31">
+        <v>2040</v>
+      </c>
+      <c r="U1" s="31">
+        <v>2041</v>
+      </c>
+      <c r="V1" s="31">
+        <v>2042</v>
+      </c>
+      <c r="W1" s="31">
+        <v>2043</v>
+      </c>
+      <c r="X1" s="31">
+        <v>2044</v>
+      </c>
+      <c r="Y1" s="31">
+        <v>2045</v>
+      </c>
+      <c r="Z1" s="31">
+        <v>2046</v>
+      </c>
+      <c r="AA1" s="31">
+        <v>2047</v>
+      </c>
+      <c r="AB1" s="31">
+        <v>2048</v>
+      </c>
+      <c r="AC1" s="31">
+        <v>2049</v>
+      </c>
+      <c r="AD1" s="31">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="35">
+        <v>10078.17419659631</v>
+      </c>
+      <c r="C2" s="36">
+        <v>7513.4372191593648</v>
+      </c>
+      <c r="D2" s="36">
+        <v>7563.0504126749101</v>
+      </c>
+      <c r="E2" s="36">
+        <v>7036.3954927279619</v>
+      </c>
+      <c r="F2" s="36">
+        <v>6857.9171611637348</v>
+      </c>
+      <c r="G2" s="36">
+        <v>5809.9609892605013</v>
+      </c>
+      <c r="H2" s="36">
+        <v>4902.7255327184621</v>
+      </c>
+      <c r="I2" s="36">
+        <v>4321.493889117628</v>
+      </c>
+      <c r="J2" s="36">
+        <v>3850.5055242970939</v>
+      </c>
+      <c r="K2" s="36">
+        <v>4063.2631052731685</v>
+      </c>
+      <c r="L2" s="36">
+        <v>3214.6110550001813</v>
+      </c>
+      <c r="M2" s="36">
+        <v>3315.184586412734</v>
+      </c>
+      <c r="N2" s="36">
+        <v>3369.5903668576602</v>
+      </c>
+      <c r="O2" s="36">
+        <v>3790.7215198424606</v>
+      </c>
+      <c r="P2" s="36">
+        <v>3539.0774272027561</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>3488.6029652109178</v>
+      </c>
+      <c r="R2" s="36">
+        <v>3678.9389230482375</v>
+      </c>
+      <c r="S2" s="36">
+        <v>3330.4240733274082</v>
+      </c>
+      <c r="T2" s="36">
+        <v>2835.1798735838352</v>
+      </c>
+      <c r="U2" s="36">
+        <v>2717.7508151975021</v>
+      </c>
+      <c r="V2" s="36">
+        <v>2479.0199768124826</v>
+      </c>
+      <c r="W2" s="36">
+        <v>2740.4355845417404</v>
+      </c>
+      <c r="X2" s="36">
+        <v>2511.1007149853044</v>
+      </c>
+      <c r="Y2" s="36">
+        <v>3039.3957695682475</v>
+      </c>
+      <c r="Z2" s="36">
+        <v>2508.2958915408303</v>
+      </c>
+      <c r="AA2" s="36">
+        <v>2617.453359872482</v>
+      </c>
+      <c r="AB2" s="36">
+        <v>2541.3026179139547</v>
+      </c>
+      <c r="AC2" s="36">
+        <v>2422.4906029711028</v>
+      </c>
+      <c r="AD2" s="36">
+        <v>2716.7206529838886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="35">
+        <v>9613.3590136208732</v>
+      </c>
+      <c r="C3" s="38">
+        <v>7082.0543794604437</v>
+      </c>
+      <c r="D3" s="38">
+        <v>7160.2290214620507</v>
+      </c>
+      <c r="E3" s="38">
+        <v>6636.0218858858243</v>
+      </c>
+      <c r="F3" s="38">
+        <v>6456.6419093193645</v>
+      </c>
+      <c r="G3" s="38">
+        <v>5416.0817441254321</v>
+      </c>
+      <c r="H3" s="38">
+        <v>4515.710809292631</v>
+      </c>
+      <c r="I3" s="38">
+        <v>3971.465461881377</v>
+      </c>
+      <c r="J3" s="38">
+        <v>3480.348123741157</v>
+      </c>
+      <c r="K3" s="38">
+        <v>3692.5095443408768</v>
+      </c>
+      <c r="L3" s="38">
+        <v>2850.3313116738445</v>
+      </c>
+      <c r="M3" s="38">
+        <v>2951.3453383539427</v>
+      </c>
+      <c r="N3" s="38">
+        <v>3036.2831575432515</v>
+      </c>
+      <c r="O3" s="38">
+        <v>3426.1154425117852</v>
+      </c>
+      <c r="P3" s="38">
+        <v>3177.3229065379037</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>3128.2805222555912</v>
+      </c>
+      <c r="R3" s="38">
+        <v>3318.6451618890096</v>
+      </c>
+      <c r="S3" s="38">
+        <v>3003.4860923022179</v>
+      </c>
+      <c r="T3" s="38">
+        <v>2482.8263118046075</v>
+      </c>
+      <c r="U3" s="38">
+        <v>2367.1819102220052</v>
+      </c>
+      <c r="V3" s="38">
+        <v>2131.0086209067067</v>
+      </c>
+      <c r="W3" s="38">
+        <v>2391.7482754373796</v>
+      </c>
+      <c r="X3" s="38">
+        <v>2164.8561984458447</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>2690.5644241273258</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>2163.5891109922741</v>
+      </c>
+      <c r="AA3" s="38">
+        <v>2272.207895313265</v>
+      </c>
+      <c r="AB3" s="38">
+        <v>2197.1201837798599</v>
+      </c>
+      <c r="AC3" s="38">
+        <v>2079.3419190213372</v>
+      </c>
+      <c r="AD3" s="38">
+        <v>2371.7528026035925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="35">
+        <v>308.27781304952003</v>
+      </c>
+      <c r="C4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="D4" s="38">
+        <v>275.28989621912694</v>
+      </c>
+      <c r="E4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="F4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="G4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="H4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="I4" s="38">
+        <v>275.28989621912694</v>
+      </c>
+      <c r="J4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="K4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="L4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="M4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="N4" s="38">
+        <v>275.28989621912694</v>
+      </c>
+      <c r="O4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="P4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="R4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="S4" s="38">
+        <v>275.28989621912694</v>
+      </c>
+      <c r="T4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="U4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="V4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="W4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="X4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="Y4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="AA4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="AB4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="AC4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+      <c r="AD4" s="38">
+        <v>305.32152126121349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="35">
+        <v>66.93995268429083</v>
+      </c>
+      <c r="C5" s="38">
+        <v>35.489912701196758</v>
+      </c>
+      <c r="D5" s="38">
+        <v>35.489912701196758</v>
+      </c>
+      <c r="E5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="F5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="G5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="H5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="I5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="J5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="K5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="L5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="M5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="N5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="O5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="P5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="R5" s="38">
+        <v>4.3703764966609882</v>
+      </c>
+      <c r="S5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="T5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="U5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="V5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="W5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="X5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="Y5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="Z5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="AA5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="AB5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="AC5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+      <c r="AD5" s="38">
+        <v>4.3661142424792478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="35">
+        <v>89.597417241624456</v>
+      </c>
+      <c r="C6" s="38">
+        <v>90.571405736511593</v>
+      </c>
+      <c r="D6" s="38">
+        <v>92.041582292535693</v>
+      </c>
+      <c r="E6" s="38">
+        <v>90.681709084263105</v>
+      </c>
+      <c r="F6" s="38">
+        <v>91.583354086495618</v>
+      </c>
+      <c r="G6" s="38">
+        <v>84.187347377194627</v>
+      </c>
+      <c r="H6" s="38">
+        <v>77.322825667957005</v>
+      </c>
+      <c r="I6" s="38">
+        <v>70.36815452046234</v>
+      </c>
+      <c r="J6" s="38">
+        <v>60.46550279806268</v>
+      </c>
+      <c r="K6" s="38">
+        <v>61.061663174417525</v>
+      </c>
+      <c r="L6" s="38">
+        <v>54.587845568462548</v>
+      </c>
+      <c r="M6" s="38">
+        <v>54.147350300917168</v>
+      </c>
+      <c r="N6" s="38">
+        <v>53.646936598621039</v>
+      </c>
+      <c r="O6" s="38">
+        <v>54.91417957280089</v>
+      </c>
+      <c r="P6" s="38">
+        <v>52.062622906977843</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>50.630545197452001</v>
+      </c>
+      <c r="R6" s="38">
+        <v>50.601863401353505</v>
+      </c>
+      <c r="S6" s="38">
+        <v>47.281970563584039</v>
+      </c>
+      <c r="T6" s="38">
+        <v>42.665926275534858</v>
+      </c>
+      <c r="U6" s="38">
+        <v>40.881269471803876</v>
+      </c>
+      <c r="V6" s="38">
+        <v>38.323720402082877</v>
+      </c>
+      <c r="W6" s="38">
+        <v>38.999673600667649</v>
+      </c>
+      <c r="X6" s="38">
+        <v>36.556881035766651</v>
+      </c>
+      <c r="Y6" s="38">
+        <v>39.143709937228849</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>35.019145044863393</v>
+      </c>
+      <c r="AA6" s="38">
+        <v>35.557829055524216</v>
+      </c>
+      <c r="AB6" s="38">
+        <v>34.494798630401952</v>
+      </c>
+      <c r="AC6" s="38">
+        <v>33.46104844607278</v>
+      </c>
+      <c r="AD6" s="38">
+        <v>35.280214876603118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="35">
+        <v>5787.3846312369369</v>
+      </c>
+      <c r="C7" s="36">
+        <v>5802.1087395543946</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5816.8328478718504</v>
+      </c>
+      <c r="E7" s="36">
+        <v>5769.2727387878758</v>
+      </c>
+      <c r="F7" s="36">
+        <v>5512.2157131536915</v>
+      </c>
+      <c r="G7" s="36">
+        <v>5231.7534518544189</v>
+      </c>
+      <c r="H7" s="36">
+        <v>4926.5099898252511</v>
+      </c>
+      <c r="I7" s="36">
+        <v>4598.8855348985026</v>
+      </c>
+      <c r="J7" s="36">
+        <v>4205.2293553764675</v>
+      </c>
+      <c r="K7" s="36">
+        <v>3788.3545642487284</v>
+      </c>
+      <c r="L7" s="36">
+        <v>3346.4056220821881</v>
+      </c>
+      <c r="M7" s="36">
+        <v>2904.3643350117818</v>
+      </c>
+      <c r="N7" s="36">
+        <v>2462.329935993007</v>
+      </c>
+      <c r="O7" s="36">
+        <v>2091.1775647069535</v>
+      </c>
+      <c r="P7" s="36">
+        <v>1723.1927021189308</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>1416.5221774547981</v>
+      </c>
+      <c r="R7" s="36">
+        <v>1075.515652080484</v>
+      </c>
+      <c r="S7" s="36">
+        <v>822.45215462303349</v>
+      </c>
+      <c r="T7" s="36">
+        <v>601.66779632393127</v>
+      </c>
+      <c r="U7" s="36">
+        <v>516.22328622710972</v>
+      </c>
+      <c r="V7" s="36">
+        <v>433.16771196297293</v>
+      </c>
+      <c r="W7" s="36">
+        <v>353.95999199484231</v>
+      </c>
+      <c r="X7" s="36">
+        <v>276.13781919337589</v>
+      </c>
+      <c r="Y7" s="36">
+        <v>249.66990796761934</v>
+      </c>
+      <c r="Z7" s="36">
+        <v>223.8060065898199</v>
+      </c>
+      <c r="AA7" s="36">
+        <v>223.35072914530275</v>
+      </c>
+      <c r="AB7" s="36">
+        <v>222.90220065807932</v>
+      </c>
+      <c r="AC7" s="36">
+        <v>222.41949614673661</v>
+      </c>
+      <c r="AD7" s="36">
+        <v>221.68962831263147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="35">
+        <v>4302.058623617625</v>
+      </c>
+      <c r="C8" s="36">
+        <v>4167.331818223046</v>
+      </c>
+      <c r="D8" s="36">
+        <v>4032.6050128284678</v>
+      </c>
+      <c r="E8" s="36">
+        <v>4019.2701170807081</v>
+      </c>
+      <c r="F8" s="36">
+        <v>3986.1050473111</v>
+      </c>
+      <c r="G8" s="36">
+        <v>3912.5830053819827</v>
+      </c>
+      <c r="H8" s="36">
+        <v>3798.4786566411562</v>
+      </c>
+      <c r="I8" s="36">
+        <v>3552.8542597537712</v>
+      </c>
+      <c r="J8" s="36">
+        <v>2909.4339881243873</v>
+      </c>
+      <c r="K8" s="36">
+        <v>2847.8322674298165</v>
+      </c>
+      <c r="L8" s="36">
+        <v>2776.4154912504732</v>
+      </c>
+      <c r="M8" s="36">
+        <v>2703.0088490535054</v>
+      </c>
+      <c r="N8" s="36">
+        <v>2658.1625033771188</v>
+      </c>
+      <c r="O8" s="36">
+        <v>2561.6116133565324</v>
+      </c>
+      <c r="P8" s="36">
+        <v>2463.744144671397</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>2369.1414907375624</v>
+      </c>
+      <c r="R8" s="36">
+        <v>2265.0738268217588</v>
+      </c>
+      <c r="S8" s="36">
+        <v>2159.982585422832</v>
+      </c>
+      <c r="T8" s="36">
+        <v>2053.8029946728061</v>
+      </c>
+      <c r="U8" s="36">
+        <v>1931.0260686995762</v>
+      </c>
+      <c r="V8" s="36">
+        <v>1808.1551682877478</v>
+      </c>
+      <c r="W8" s="36">
+        <v>1684.7901973063406</v>
+      </c>
+      <c r="X8" s="36">
+        <v>1562.2253649077907</v>
+      </c>
+      <c r="Y8" s="36">
+        <v>1473.8846774841279</v>
+      </c>
+      <c r="Z8" s="36">
+        <v>1416.5631378145097</v>
+      </c>
+      <c r="AA8" s="36">
+        <v>1407.481615155521</v>
+      </c>
+      <c r="AB8" s="36">
+        <v>1336.1234820053139</v>
+      </c>
+      <c r="AC8" s="36">
+        <v>1316.1168959329025</v>
+      </c>
+      <c r="AD8" s="36">
+        <v>1315.4733348397583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1422.0414021555512</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1395.7876216787199</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1369.5338412018882</v>
+      </c>
+      <c r="E9" s="36">
+        <v>1345.9695689087916</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1259.7016813985983</v>
+      </c>
+      <c r="G9" s="36">
+        <v>1166.6069431625792</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1055.3871276451755</v>
+      </c>
+      <c r="I9" s="36">
+        <v>898.03479076139524</v>
+      </c>
+      <c r="J9" s="36">
+        <v>611.74492139824611</v>
+      </c>
+      <c r="K9" s="36">
+        <v>571.70561619797343</v>
+      </c>
+      <c r="L9" s="36">
+        <v>529.94566616960515</v>
+      </c>
+      <c r="M9" s="36">
+        <v>486.33145740920054</v>
+      </c>
+      <c r="N9" s="36">
+        <v>438.96520625537732</v>
+      </c>
+      <c r="O9" s="36">
+        <v>388.35330489967572</v>
+      </c>
+      <c r="P9" s="36">
+        <v>351.92956079592307</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>328.81334683314981</v>
+      </c>
+      <c r="R9" s="36">
+        <v>294.2364275033475</v>
+      </c>
+      <c r="S9" s="36">
+        <v>262.25838593024667</v>
+      </c>
+      <c r="T9" s="36">
+        <v>232.90790342038849</v>
+      </c>
+      <c r="U9" s="36">
+        <v>200.95120594143378</v>
+      </c>
+      <c r="V9" s="36">
+        <v>170.47621892233371</v>
+      </c>
+      <c r="W9" s="36">
+        <v>140.81056068401404</v>
+      </c>
+      <c r="X9" s="36">
+        <v>111.75308396122765</v>
+      </c>
+      <c r="Y9" s="36">
+        <v>90.835508341726552</v>
+      </c>
+      <c r="Z9" s="36">
+        <v>75.696200139392062</v>
+      </c>
+      <c r="AA9" s="36">
+        <v>72.773586320381298</v>
+      </c>
+      <c r="AB9" s="36">
+        <v>56.319182373843432</v>
+      </c>
+      <c r="AC9" s="36">
+        <v>51.435891355519004</v>
+      </c>
+      <c r="AD9" s="36">
+        <v>51.655289689340393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="35">
+        <v>11751.285849194741</v>
+      </c>
+      <c r="C10" s="36">
+        <v>11772.260861555227</v>
+      </c>
+      <c r="D10" s="36">
+        <v>11545.274814918552</v>
+      </c>
+      <c r="E10" s="36">
+        <v>11389.512601846327</v>
+      </c>
+      <c r="F10" s="36">
+        <v>10896.081330081059</v>
+      </c>
+      <c r="G10" s="36">
+        <v>10391.935828573485</v>
+      </c>
+      <c r="H10" s="36">
+        <v>9868.8354853430083</v>
+      </c>
+      <c r="I10" s="36">
+        <v>9320.5896191420998</v>
+      </c>
+      <c r="J10" s="36">
+        <v>8730.4956604229301</v>
+      </c>
+      <c r="K10" s="36">
+        <v>8404.7926196357839</v>
+      </c>
+      <c r="L10" s="36">
+        <v>8081.072180275959</v>
+      </c>
+      <c r="M10" s="36">
+        <v>7760.6581525979482</v>
+      </c>
+      <c r="N10" s="36">
+        <v>7446.5169697090341</v>
+      </c>
+      <c r="O10" s="36">
+        <v>7127.056539484227</v>
+      </c>
+      <c r="P10" s="36">
+        <v>6802.5486520807663</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>6491.1723642057896</v>
+      </c>
+      <c r="R10" s="36">
+        <v>6195.5920165951156</v>
+      </c>
+      <c r="S10" s="36">
+        <v>5919.4014652098003</v>
+      </c>
+      <c r="T10" s="36">
+        <v>5656.7097625333236</v>
+      </c>
+      <c r="U10" s="36">
+        <v>5401.7627869292592</v>
+      </c>
+      <c r="V10" s="36">
+        <v>5224.4147063562241</v>
+      </c>
+      <c r="W10" s="36">
+        <v>5154.2100003497271</v>
+      </c>
+      <c r="X10" s="36">
+        <v>5073.5627308008916</v>
+      </c>
+      <c r="Y10" s="36">
+        <v>4979.3926560748514</v>
+      </c>
+      <c r="Z10" s="36">
+        <v>4892.119209040633</v>
+      </c>
+      <c r="AA10" s="36">
+        <v>4817.1807917726301</v>
+      </c>
+      <c r="AB10" s="36">
+        <v>4750.52036908025</v>
+      </c>
+      <c r="AC10" s="36">
+        <v>4696.6216678669534</v>
+      </c>
+      <c r="AD10" s="36">
+        <v>4657.6217359853063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="35">
+        <v>21.543650907304045</v>
+      </c>
+      <c r="C11" s="38">
+        <v>31.148172434597406</v>
+      </c>
+      <c r="D11" s="38">
+        <v>27.899968208878871</v>
+      </c>
+      <c r="E11" s="38">
+        <v>25.733184830849346</v>
+      </c>
+      <c r="F11" s="38">
+        <v>25.989894891579343</v>
+      </c>
+      <c r="G11" s="38">
+        <v>27.580359398273895</v>
+      </c>
+      <c r="H11" s="38">
+        <v>27.820635308099533</v>
+      </c>
+      <c r="I11" s="38">
+        <v>28.10141193702297</v>
+      </c>
+      <c r="J11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="K11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="L11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="M11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="N11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="O11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="P11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="R11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="S11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="T11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="U11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="V11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="W11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="X11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="Y11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="Z11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="AA11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="AB11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="AC11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+      <c r="AD11" s="38">
+        <v>28.39422185004311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="35">
+        <v>11138.978381741788</v>
+      </c>
+      <c r="C12" s="38">
+        <v>11150.808736520959</v>
+      </c>
+      <c r="D12" s="38">
+        <v>10928.353497538677</v>
+      </c>
+      <c r="E12" s="38">
+        <v>10773.458547207118</v>
+      </c>
+      <c r="F12" s="38">
+        <v>10284.262240629829</v>
+      </c>
+      <c r="G12" s="38">
+        <v>9784.181985230156</v>
+      </c>
+      <c r="H12" s="38">
+        <v>9268.990680959063</v>
+      </c>
+      <c r="I12" s="38">
+        <v>8735.6868120845011</v>
+      </c>
+      <c r="J12" s="38">
+        <v>8180.5962288026622</v>
+      </c>
+      <c r="K12" s="38">
+        <v>7859.3764260127282</v>
+      </c>
+      <c r="L12" s="38">
+        <v>7540.5426095120747</v>
+      </c>
+      <c r="M12" s="38">
+        <v>7225.6748983468779</v>
+      </c>
+      <c r="N12" s="38">
+        <v>6916.0355050524449</v>
+      </c>
+      <c r="O12" s="38">
+        <v>6602.9448355819804</v>
+      </c>
+      <c r="P12" s="38">
+        <v>6284.4012357355714</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>5978.5973669002851</v>
+      </c>
+      <c r="R12" s="38">
+        <v>5689.4693055385796</v>
+      </c>
+      <c r="S12" s="38">
+        <v>5419.2834396222106</v>
+      </c>
+      <c r="T12" s="38">
+        <v>5162.4262721542455</v>
+      </c>
+      <c r="U12" s="38">
+        <v>4912.4951412211731</v>
+      </c>
+      <c r="V12" s="38">
+        <v>4740.0157941879806</v>
+      </c>
+      <c r="W12" s="38">
+        <v>4674.9371306321618</v>
+      </c>
+      <c r="X12" s="38">
+        <v>4599.0178341060373</v>
+      </c>
+      <c r="Y12" s="38">
+        <v>4509.2274605617858</v>
+      </c>
+      <c r="Z12" s="38">
+        <v>4424.8259565036351</v>
+      </c>
+      <c r="AA12" s="38">
+        <v>4350.3265132259603</v>
+      </c>
+      <c r="AB12" s="38">
+        <v>4286.2177363010805</v>
+      </c>
+      <c r="AC12" s="38">
+        <v>4233.0151879583327</v>
+      </c>
+      <c r="AD12" s="38">
+        <v>4194.1924697764916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="35">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="C13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="D13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="E13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="F13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="G13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="H13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="I13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="J13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="K13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="L13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="M13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="N13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="O13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="P13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="R13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="S13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="T13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="U13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="V13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="W13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="X13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="Y13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="Z13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="AA13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="AB13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="AC13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+      <c r="AD13" s="38">
+        <v>130.04888829006131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="35">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="C14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="D14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="E14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="F14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="G14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="H14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="I14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="J14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="K14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="L14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="M14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="N14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="O14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="P14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="R14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="S14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="T14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="U14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="V14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="W14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="X14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="Y14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="Z14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="AA14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="AB14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="AC14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+      <c r="AD14" s="38">
+        <v>305.59185758311514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="35">
+        <v>155.12307067247363</v>
+      </c>
+      <c r="C15" s="38">
+        <v>154.66320672649542</v>
+      </c>
+      <c r="D15" s="38">
+        <v>153.38060329781899</v>
+      </c>
+      <c r="E15" s="38">
+        <v>154.68012393518433</v>
+      </c>
+      <c r="F15" s="38">
+        <v>150.18844868647403</v>
+      </c>
+      <c r="G15" s="38">
+        <v>144.5327380718785</v>
+      </c>
+      <c r="H15" s="38">
+        <v>136.38342320267026</v>
+      </c>
+      <c r="I15" s="38">
+        <v>121.16064924740058</v>
+      </c>
+      <c r="J15" s="38">
+        <v>85.864463897049035</v>
+      </c>
+      <c r="K15" s="38">
+        <v>81.381225899837148</v>
+      </c>
+      <c r="L15" s="38">
+        <v>76.494603040665254</v>
+      </c>
+      <c r="M15" s="38">
+        <v>70.948286527850101</v>
+      </c>
+      <c r="N15" s="38">
+        <v>66.446496933370554</v>
+      </c>
+      <c r="O15" s="38">
+        <v>60.076736179028039</v>
+      </c>
+      <c r="P15" s="38">
+        <v>54.112448621976142</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>48.540029582285953</v>
+      </c>
+      <c r="R15" s="38">
+        <v>42.087743333317093</v>
+      </c>
+      <c r="S15" s="38">
+        <v>36.083057864370261</v>
+      </c>
+      <c r="T15" s="38">
+        <v>30.248522655858878</v>
+      </c>
+      <c r="U15" s="38">
+        <v>25.232677984866466</v>
+      </c>
+      <c r="V15" s="38">
+        <v>20.36394444502432</v>
+      </c>
+      <c r="W15" s="38">
+        <v>15.237901994345433</v>
+      </c>
+      <c r="X15" s="38">
+        <v>10.509928971634466</v>
+      </c>
+      <c r="Y15" s="38">
+        <v>6.1302277898467397</v>
+      </c>
+      <c r="Z15" s="38">
+        <v>3.2582848137788512</v>
+      </c>
+      <c r="AA15" s="38">
+        <v>2.8193108234505209</v>
+      </c>
+      <c r="AB15" s="38">
+        <v>0.26766505594968487</v>
+      </c>
+      <c r="AC15" s="38">
+        <v>-0.42848781459894458</v>
+      </c>
+      <c r="AD15" s="38">
+        <v>-0.60570151440427256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="35">
+        <v>2287.9852285519778</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2178.6110005517894</v>
+      </c>
+      <c r="D16" s="36">
+        <v>2205.2180427647486</v>
+      </c>
+      <c r="E16" s="36">
+        <v>2231.7232863728545</v>
+      </c>
+      <c r="F16" s="36">
+        <v>2258.337418216413</v>
+      </c>
+      <c r="G16" s="36">
+        <v>2286.603768211095</v>
+      </c>
+      <c r="H16" s="36">
+        <v>2315.2496766440368</v>
+      </c>
+      <c r="I16" s="36">
+        <v>2344.2804573333715</v>
+      </c>
+      <c r="J16" s="36">
+        <v>2373.7014984906905</v>
+      </c>
+      <c r="K16" s="36">
+        <v>2403.5182637625453</v>
+      </c>
+      <c r="L16" s="36">
+        <v>2433.698620853374</v>
+      </c>
+      <c r="M16" s="36">
+        <v>2464.285859895871</v>
+      </c>
+      <c r="N16" s="36">
+        <v>2495.2856772373607</v>
+      </c>
+      <c r="O16" s="36">
+        <v>2556.7536679505229</v>
+      </c>
+      <c r="P16" s="36">
+        <v>2557.8710284935764</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>2558.9607562112888</v>
+      </c>
+      <c r="R16" s="36">
+        <v>2560.0504839290006</v>
+      </c>
+      <c r="S16" s="36">
+        <v>2561.1402116467125</v>
+      </c>
+      <c r="T16" s="36">
+        <v>2562.2299393644248</v>
+      </c>
+      <c r="U16" s="36">
+        <v>2563.3196670821367</v>
+      </c>
+      <c r="V16" s="36">
+        <v>2564.3311814741414</v>
+      </c>
+      <c r="W16" s="36">
+        <v>2565.3426958661457</v>
+      </c>
+      <c r="X16" s="36">
+        <v>2566.3542102581505</v>
+      </c>
+      <c r="Y16" s="36">
+        <v>2567.3657246501552</v>
+      </c>
+      <c r="Z16" s="36">
+        <v>2568.3772390421591</v>
+      </c>
+      <c r="AA16" s="36">
+        <v>2569.2451392346375</v>
+      </c>
+      <c r="AB16" s="36">
+        <v>2570.1130394271154</v>
+      </c>
+      <c r="AC16" s="36">
+        <v>2570.9809396195938</v>
+      </c>
+      <c r="AD16" s="36">
+        <v>2571.8488398120717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="35">
+        <v>2068.3747685666494</v>
+      </c>
+      <c r="C17" s="38">
+        <v>1958.1750218612931</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1983.9565453690848</v>
+      </c>
+      <c r="E17" s="38">
+        <v>2009.6362702720226</v>
+      </c>
+      <c r="F17" s="38">
+        <v>2035.4248834104135</v>
+      </c>
+      <c r="G17" s="38">
+        <v>2062.5362004288772</v>
+      </c>
+      <c r="H17" s="38">
+        <v>2090.0270758856004</v>
+      </c>
+      <c r="I17" s="38">
+        <v>2117.9028235987171</v>
+      </c>
+      <c r="J17" s="38">
+        <v>2146.1688317798175</v>
+      </c>
+      <c r="K17" s="38">
+        <v>2174.8305640754538</v>
+      </c>
+      <c r="L17" s="38">
+        <v>2203.8935606232285</v>
+      </c>
+      <c r="M17" s="38">
+        <v>2233.3634391226719</v>
+      </c>
+      <c r="N17" s="38">
+        <v>2263.2458959211081</v>
+      </c>
+      <c r="O17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="P17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="R17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="S17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="T17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="U17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="V17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="W17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="X17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="Y17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="Z17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="AA17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="AB17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="AC17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+      <c r="AD17" s="38">
+        <v>2323.5965260912167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="T18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="U18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="V18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="W18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="X18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD18" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="T19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="U19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="W19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="X19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD19" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="35">
+        <v>179.06386998532864</v>
+      </c>
+      <c r="C20" s="38">
+        <v>179.66059431549633</v>
+      </c>
+      <c r="D20" s="38">
+        <v>180.25731864566401</v>
+      </c>
+      <c r="E20" s="38">
+        <v>180.85404297583173</v>
+      </c>
+      <c r="F20" s="38">
+        <v>181.45076730599939</v>
+      </c>
+      <c r="G20" s="38">
+        <v>182.28568028221784</v>
+      </c>
+      <c r="H20" s="38">
+        <v>183.12059325843623</v>
+      </c>
+      <c r="I20" s="38">
+        <v>183.95550623465465</v>
+      </c>
+      <c r="J20" s="38">
+        <v>184.79041921087307</v>
+      </c>
+      <c r="K20" s="38">
+        <v>185.62533218709152</v>
+      </c>
+      <c r="L20" s="38">
+        <v>186.43301373014518</v>
+      </c>
+      <c r="M20" s="38">
+        <v>187.2406952731989</v>
+      </c>
+      <c r="N20" s="38">
+        <v>188.04837681625258</v>
+      </c>
+      <c r="O20" s="38">
+        <v>188.85605835930627</v>
+      </c>
+      <c r="P20" s="38">
+        <v>189.66373990235994</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>190.45144712007195</v>
+      </c>
+      <c r="R20" s="38">
+        <v>191.23915433778396</v>
+      </c>
+      <c r="S20" s="38">
+        <v>192.026861555496</v>
+      </c>
+      <c r="T20" s="38">
+        <v>192.81456877320804</v>
+      </c>
+      <c r="U20" s="38">
+        <v>193.60227599092008</v>
+      </c>
+      <c r="V20" s="38">
+        <v>194.33344688292459</v>
+      </c>
+      <c r="W20" s="38">
+        <v>195.06461777492913</v>
+      </c>
+      <c r="X20" s="38">
+        <v>195.79578866693365</v>
+      </c>
+      <c r="Y20" s="38">
+        <v>196.52695955893819</v>
+      </c>
+      <c r="Z20" s="38">
+        <v>197.25813045094273</v>
+      </c>
+      <c r="AA20" s="38">
+        <v>197.88549014342075</v>
+      </c>
+      <c r="AB20" s="38">
+        <v>198.51284983589881</v>
+      </c>
+      <c r="AC20" s="38">
+        <v>199.14020952837686</v>
+      </c>
+      <c r="AD20" s="38">
+        <v>199.76756922085488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="35">
+        <v>40.546590000000002</v>
+      </c>
+      <c r="C21" s="38">
+        <v>40.775384374999994</v>
+      </c>
+      <c r="D21" s="38">
+        <v>41.004178749999994</v>
+      </c>
+      <c r="E21" s="38">
+        <v>41.232973125000001</v>
+      </c>
+      <c r="F21" s="38">
+        <v>41.461767500000001</v>
+      </c>
+      <c r="G21" s="38">
+        <v>41.781887499999996</v>
+      </c>
+      <c r="H21" s="38">
+        <v>42.102007499999992</v>
+      </c>
+      <c r="I21" s="38">
+        <v>42.422127499999988</v>
+      </c>
+      <c r="J21" s="38">
+        <v>42.742247499999984</v>
+      </c>
+      <c r="K21" s="38">
+        <v>43.062367500000001</v>
+      </c>
+      <c r="L21" s="38">
+        <v>43.372046500000003</v>
+      </c>
+      <c r="M21" s="38">
+        <v>43.681725499999999</v>
+      </c>
+      <c r="N21" s="38">
+        <v>43.991404500000009</v>
+      </c>
+      <c r="O21" s="38">
+        <v>44.301083500000011</v>
+      </c>
+      <c r="P21" s="38">
+        <v>44.6107625</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>44.912782999999997</v>
+      </c>
+      <c r="R21" s="38">
+        <v>45.214803499999995</v>
+      </c>
+      <c r="S21" s="38">
+        <v>45.516824</v>
+      </c>
+      <c r="T21" s="38">
+        <v>45.81884449999999</v>
+      </c>
+      <c r="U21" s="38">
+        <v>46.120864999999995</v>
+      </c>
+      <c r="V21" s="38">
+        <v>46.401208499999989</v>
+      </c>
+      <c r="W21" s="38">
+        <v>46.681551999999996</v>
+      </c>
+      <c r="X21" s="38">
+        <v>46.96189549999999</v>
+      </c>
+      <c r="Y21" s="38">
+        <v>47.242238999999984</v>
+      </c>
+      <c r="Z21" s="38">
+        <v>47.522582499999999</v>
+      </c>
+      <c r="AA21" s="38">
+        <v>47.763123000000007</v>
+      </c>
+      <c r="AB21" s="38">
+        <v>48.003663500000002</v>
+      </c>
+      <c r="AC21" s="38">
+        <v>48.244204000000011</v>
+      </c>
+      <c r="AD21" s="38">
+        <v>48.484744500000012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="35">
+        <v>741.27435456838998</v>
+      </c>
+      <c r="C22" s="36">
+        <v>727.55763007877363</v>
+      </c>
+      <c r="D22" s="36">
+        <v>726.73158626466636</v>
+      </c>
+      <c r="E22" s="36">
+        <v>679.44606773664384</v>
+      </c>
+      <c r="F22" s="36">
+        <v>651.01605952124271</v>
+      </c>
+      <c r="G22" s="36">
+        <v>642.12670371673255</v>
+      </c>
+      <c r="H22" s="36">
+        <v>621.67637546182698</v>
+      </c>
+      <c r="I22" s="36">
+        <v>615.41269410169491</v>
+      </c>
+      <c r="J22" s="36">
+        <v>622.56029652086113</v>
+      </c>
+      <c r="K22" s="36">
+        <v>636.78586963206601</v>
+      </c>
+      <c r="L22" s="36">
+        <v>639.97503980295392</v>
+      </c>
+      <c r="M22" s="36">
+        <v>655.87092732629549</v>
+      </c>
+      <c r="N22" s="36">
+        <v>676.97241800514155</v>
+      </c>
+      <c r="O22" s="36">
+        <v>703.34649851677079</v>
+      </c>
+      <c r="P22" s="36">
+        <v>730.14489972531169</v>
+      </c>
+      <c r="Q22" s="36">
+        <v>755.16826057109995</v>
+      </c>
+      <c r="R22" s="36">
+        <v>786.13604756565132</v>
+      </c>
+      <c r="S22" s="36">
+        <v>815.51355284667363</v>
+      </c>
+      <c r="T22" s="36">
+        <v>856.45611223819049</v>
+      </c>
+      <c r="U22" s="36">
+        <v>895.5054667657032</v>
+      </c>
+      <c r="V22" s="36">
+        <v>934.94238601236611</v>
+      </c>
+      <c r="W22" s="36">
+        <v>974.74496803584407</v>
+      </c>
+      <c r="X22" s="36">
+        <v>1017.2768529751816</v>
+      </c>
+      <c r="Y22" s="36">
+        <v>1057.0331326169796</v>
+      </c>
+      <c r="Z22" s="36">
+        <v>1097.6400883054771</v>
+      </c>
+      <c r="AA22" s="36">
+        <v>1138.2111307772695</v>
+      </c>
+      <c r="AB22" s="36">
+        <v>1179.2427152367632</v>
+      </c>
+      <c r="AC22" s="36">
+        <v>1220.416874486551</v>
+      </c>
+      <c r="AD22" s="36">
+        <v>1261.4521595571523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="35">
+        <v>23356.808645574583</v>
+      </c>
+      <c r="C23" s="36">
+        <v>22553.194870177649</v>
+      </c>
+      <c r="D23" s="36">
+        <v>22088.618832709824</v>
+      </c>
+      <c r="E23" s="36">
+        <v>21391.615240159321</v>
+      </c>
+      <c r="F23" s="36">
+        <v>21015.261059214765</v>
+      </c>
+      <c r="G23" s="36">
+        <v>20532.244851001786</v>
+      </c>
+      <c r="H23" s="36">
+        <v>20041.240217408158</v>
+      </c>
+      <c r="I23" s="36">
+        <v>19575.776326390089</v>
+      </c>
+      <c r="J23" s="36">
+        <v>19118.282004714387</v>
+      </c>
+      <c r="K23" s="36">
+        <v>19080.513940072164</v>
+      </c>
+      <c r="L23" s="36">
+        <v>19036.692730627485</v>
+      </c>
+      <c r="M23" s="36">
+        <v>19061.602091078748</v>
+      </c>
+      <c r="N23" s="36">
+        <v>19057.255855985462</v>
+      </c>
+      <c r="O23" s="36">
+        <v>19050.992510265041</v>
+      </c>
+      <c r="P23" s="36">
+        <v>19037.352133856792</v>
+      </c>
+      <c r="Q23" s="36">
+        <v>19023.963574232755</v>
+      </c>
+      <c r="R23" s="36">
+        <v>19010.465030403571</v>
+      </c>
+      <c r="S23" s="36">
+        <v>19007.0964943215</v>
+      </c>
+      <c r="T23" s="36">
+        <v>18997.178362646337</v>
+      </c>
+      <c r="U23" s="36">
+        <v>18977.300622664297</v>
+      </c>
+      <c r="V23" s="36">
+        <v>18971.147638312144</v>
+      </c>
+      <c r="W23" s="36">
+        <v>18965.131225128694</v>
+      </c>
+      <c r="X23" s="36">
+        <v>18955.913160168562</v>
+      </c>
+      <c r="Y23" s="36">
+        <v>18950.271788912116</v>
+      </c>
+      <c r="Z23" s="36">
+        <v>18944.59641066875</v>
+      </c>
+      <c r="AA23" s="36">
+        <v>18939.115625948383</v>
+      </c>
+      <c r="AB23" s="36">
+        <v>18930.317048080899</v>
+      </c>
+      <c r="AC23" s="36">
+        <v>18915.574233681869</v>
+      </c>
+      <c r="AD23" s="36">
+        <v>18911.833711447165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="35">
+        <v>14584.026111866118</v>
+      </c>
+      <c r="C24" s="38">
+        <v>14116.863711002659</v>
+      </c>
+      <c r="D24" s="38">
+        <v>13777.631687895282</v>
+      </c>
+      <c r="E24" s="38">
+        <v>13330.682543846131</v>
+      </c>
+      <c r="F24" s="38">
+        <v>12980.092486229576</v>
+      </c>
+      <c r="G24" s="38">
+        <v>12657.553340178887</v>
+      </c>
+      <c r="H24" s="38">
+        <v>12329.45867529084</v>
+      </c>
+      <c r="I24" s="38">
+        <v>12019.70288953114</v>
+      </c>
+      <c r="J24" s="38">
+        <v>11719.229873452869</v>
+      </c>
+      <c r="K24" s="38">
+        <v>11682.737614899297</v>
+      </c>
+      <c r="L24" s="38">
+        <v>11642.243195419751</v>
+      </c>
+      <c r="M24" s="38">
+        <v>11648.874858483758</v>
+      </c>
+      <c r="N24" s="38">
+        <v>11630.493686335583</v>
+      </c>
+      <c r="O24" s="38">
+        <v>11612.171333938288</v>
+      </c>
+      <c r="P24" s="38">
+        <v>11593.907613068663</v>
+      </c>
+      <c r="Q24" s="38">
+        <v>11575.702336105818</v>
+      </c>
+      <c r="R24" s="38">
+        <v>11557.555316029257</v>
+      </c>
+      <c r="S24" s="38">
+        <v>11539.466366416938</v>
+      </c>
+      <c r="T24" s="38">
+        <v>11521.435301443384</v>
+      </c>
+      <c r="U24" s="38">
+        <v>11503.461935877742</v>
+      </c>
+      <c r="V24" s="38">
+        <v>11485.546085081907</v>
+      </c>
+      <c r="W24" s="38">
+        <v>11467.687565008622</v>
+      </c>
+      <c r="X24" s="38">
+        <v>11449.88619219957</v>
+      </c>
+      <c r="Y24" s="38">
+        <v>11432.141783783511</v>
+      </c>
+      <c r="Z24" s="38">
+        <v>11414.454157474378</v>
+      </c>
+      <c r="AA24" s="38">
+        <v>11396.823131569437</v>
+      </c>
+      <c r="AB24" s="38">
+        <v>11379.24852494739</v>
+      </c>
+      <c r="AC24" s="38">
+        <v>11361.730157066535</v>
+      </c>
+      <c r="AD24" s="38">
+        <v>11344.267847962899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="35">
+        <v>2723.4780223024304</v>
+      </c>
+      <c r="C25" s="38">
+        <v>2680.5530605727604</v>
+      </c>
+      <c r="D25" s="38">
+        <v>2646.3646040696362</v>
+      </c>
+      <c r="E25" s="38">
+        <v>2575.563496408115</v>
+      </c>
+      <c r="F25" s="38">
+        <v>2507.0603857821575</v>
+      </c>
+      <c r="G25" s="38">
+        <v>2440.5766547338899</v>
+      </c>
+      <c r="H25" s="38">
+        <v>2367.5872577139635</v>
+      </c>
+      <c r="I25" s="38">
+        <v>2292.2154409698019</v>
+      </c>
+      <c r="J25" s="38">
+        <v>2212.5906638856209</v>
+      </c>
+      <c r="K25" s="38">
+        <v>2210.2864606735675</v>
+      </c>
+      <c r="L25" s="38">
+        <v>2208.7229413223918</v>
+      </c>
+      <c r="M25" s="38">
+        <v>2219.4386612538337</v>
+      </c>
+      <c r="N25" s="38">
+        <v>2220.0421542608424</v>
+      </c>
+      <c r="O25" s="38">
+        <v>2220.6021870514164</v>
+      </c>
+      <c r="P25" s="38">
+        <v>2221.1643614312816</v>
+      </c>
+      <c r="Q25" s="38">
+        <v>2221.7286855899661</v>
+      </c>
+      <c r="R25" s="38">
+        <v>2222.2951677483161</v>
+      </c>
+      <c r="S25" s="38">
+        <v>2222.8638161586146</v>
+      </c>
+      <c r="T25" s="38">
+        <v>2223.4346391047011</v>
+      </c>
+      <c r="U25" s="38">
+        <v>2224.0076449020935</v>
+      </c>
+      <c r="V25" s="38">
+        <v>2224.5828418981082</v>
+      </c>
+      <c r="W25" s="38">
+        <v>2225.1602384719822</v>
+      </c>
+      <c r="X25" s="38">
+        <v>2225.7398430349958</v>
+      </c>
+      <c r="Y25" s="38">
+        <v>2226.3216640305927</v>
+      </c>
+      <c r="Z25" s="38">
+        <v>2226.9057099345064</v>
+      </c>
+      <c r="AA25" s="38">
+        <v>2227.4919892548805</v>
+      </c>
+      <c r="AB25" s="38">
+        <v>2228.0805105323961</v>
+      </c>
+      <c r="AC25" s="38">
+        <v>2228.6712823403914</v>
+      </c>
+      <c r="AD25" s="38">
+        <v>2229.2643132849926</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="35">
+        <v>4378.459323770724</v>
+      </c>
+      <c r="C26" s="38">
+        <v>3912.5663866956097</v>
+      </c>
+      <c r="D26" s="38">
+        <v>3615.7846209469353</v>
+      </c>
+      <c r="E26" s="38">
+        <v>3261.1525229141766</v>
+      </c>
+      <c r="F26" s="38">
+        <v>3178.6315362023415</v>
+      </c>
+      <c r="G26" s="38">
+        <v>3097.9530720305083</v>
+      </c>
+      <c r="H26" s="38">
+        <v>3021.6830431746603</v>
+      </c>
+      <c r="I26" s="38">
+        <v>2951.9948822683255</v>
+      </c>
+      <c r="J26" s="38">
+        <v>2885.6618158972278</v>
+      </c>
+      <c r="K26" s="38">
+        <v>2885.4252709784728</v>
+      </c>
+      <c r="L26" s="38">
+        <v>2882.5213443028747</v>
+      </c>
+      <c r="M26" s="38">
+        <v>2888.9154204875167</v>
+      </c>
+      <c r="N26" s="38">
+        <v>2891.8039480065268</v>
+      </c>
+      <c r="O26" s="38">
+        <v>2894.7338249346262</v>
+      </c>
+      <c r="P26" s="38">
+        <v>2897.6747038411768</v>
+      </c>
+      <c r="Q26" s="38">
+        <v>2900.6253204712211</v>
+      </c>
+      <c r="R26" s="38">
+        <v>2903.5870233846726</v>
+      </c>
+      <c r="S26" s="38">
+        <v>2906.5598549759534</v>
+      </c>
+      <c r="T26" s="38">
+        <v>2909.5438578016015</v>
+      </c>
+      <c r="U26" s="38">
+        <v>2912.4875582876366</v>
+      </c>
+      <c r="V26" s="38">
+        <v>2915.4425156099537</v>
+      </c>
+      <c r="W26" s="38">
+        <v>2918.4087728151758</v>
+      </c>
+      <c r="X26" s="38">
+        <v>2921.3863731145352</v>
+      </c>
+      <c r="Y26" s="38">
+        <v>2924.3753598845105</v>
+      </c>
+      <c r="Z26" s="38">
+        <v>2927.3757766674489</v>
+      </c>
+      <c r="AA26" s="38">
+        <v>2930.3876671722096</v>
+      </c>
+      <c r="AB26" s="38">
+        <v>2933.4110752747933</v>
+      </c>
+      <c r="AC26" s="38">
+        <v>2936.4460450189858</v>
+      </c>
+      <c r="AD26" s="38">
+        <v>2939.4926206169985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="35">
+        <v>623.97631999999999</v>
+      </c>
+      <c r="C27" s="38">
+        <v>751.98815999999999</v>
+      </c>
+      <c r="D27" s="38">
+        <v>751.98815999999999</v>
+      </c>
+      <c r="E27" s="38">
+        <v>751.98815999999999</v>
+      </c>
+      <c r="F27" s="38">
+        <v>880</v>
+      </c>
+      <c r="G27" s="38">
+        <v>880</v>
+      </c>
+      <c r="H27" s="38">
+        <v>880</v>
+      </c>
+      <c r="I27" s="38">
+        <v>880</v>
+      </c>
+      <c r="J27" s="38">
+        <v>880</v>
+      </c>
+      <c r="K27" s="38">
+        <v>880</v>
+      </c>
+      <c r="L27" s="38">
+        <v>880</v>
+      </c>
+      <c r="M27" s="38">
+        <v>880</v>
+      </c>
+      <c r="N27" s="38">
+        <v>880</v>
+      </c>
+      <c r="O27" s="38">
+        <v>880</v>
+      </c>
+      <c r="P27" s="38">
+        <v>880</v>
+      </c>
+      <c r="Q27" s="38">
+        <v>880</v>
+      </c>
+      <c r="R27" s="38">
+        <v>880</v>
+      </c>
+      <c r="S27" s="38">
+        <v>880</v>
+      </c>
+      <c r="T27" s="38">
+        <v>880</v>
+      </c>
+      <c r="U27" s="38">
+        <v>880</v>
+      </c>
+      <c r="V27" s="38">
+        <v>880</v>
+      </c>
+      <c r="W27" s="38">
+        <v>880</v>
+      </c>
+      <c r="X27" s="38">
+        <v>880</v>
+      </c>
+      <c r="Y27" s="38">
+        <v>880</v>
+      </c>
+      <c r="Z27" s="38">
+        <v>880</v>
+      </c>
+      <c r="AA27" s="38">
+        <v>880</v>
+      </c>
+      <c r="AB27" s="38">
+        <v>880</v>
+      </c>
+      <c r="AC27" s="38">
+        <v>880</v>
+      </c>
+      <c r="AD27" s="38">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="35">
+        <v>126.8160666666667</v>
+      </c>
+      <c r="C28" s="38">
+        <v>122.24188405797101</v>
+      </c>
+      <c r="D28" s="38">
+        <v>278.93922506931079</v>
+      </c>
+      <c r="E28" s="38">
+        <v>459.2655426941372</v>
+      </c>
+      <c r="F28" s="38">
+        <v>458.2035024602265</v>
+      </c>
+      <c r="G28" s="38">
+        <v>456.87152732407441</v>
+      </c>
+      <c r="H28" s="38">
+        <v>455.26961728568006</v>
+      </c>
+      <c r="I28" s="38">
+        <v>453.39777234504425</v>
+      </c>
+      <c r="J28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="K28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="L28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="M28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="N28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="O28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="P28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="Q28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="R28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="S28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="T28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="U28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="V28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="W28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="X28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="Y28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="Z28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="AA28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="AB28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="AC28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+      <c r="AD28" s="38">
+        <v>451.25599250216641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="35">
+        <v>920.05280096864146</v>
+      </c>
+      <c r="C29" s="38">
+        <v>968.9816678486502</v>
+      </c>
+      <c r="D29" s="38">
+        <v>1017.9105347286592</v>
+      </c>
+      <c r="E29" s="38">
+        <v>1012.9629742967587</v>
+      </c>
+      <c r="F29" s="38">
+        <v>1011.2731485404631</v>
+      </c>
+      <c r="G29" s="38">
+        <v>999.29025673442845</v>
+      </c>
+      <c r="H29" s="38">
+        <v>987.24162394301095</v>
+      </c>
+      <c r="I29" s="38">
+        <v>978.46534127578047</v>
+      </c>
+      <c r="J29" s="38">
+        <v>969.54365897649882</v>
+      </c>
+      <c r="K29" s="38">
+        <v>970.8086010186596</v>
+      </c>
+      <c r="L29" s="38">
+        <v>971.9492570803003</v>
+      </c>
+      <c r="M29" s="38">
+        <v>973.11715835147345</v>
+      </c>
+      <c r="N29" s="38">
+        <v>983.6600748803412</v>
+      </c>
+      <c r="O29" s="38">
+        <v>992.22917183854486</v>
+      </c>
+      <c r="P29" s="38">
+        <v>993.34946301350033</v>
+      </c>
+      <c r="Q29" s="38">
+        <v>994.65123956358411</v>
+      </c>
+      <c r="R29" s="38">
+        <v>995.77153073915849</v>
+      </c>
+      <c r="S29" s="38">
+        <v>1006.9504642678262</v>
+      </c>
+      <c r="T29" s="38">
+        <v>1011.5085717944844</v>
+      </c>
+      <c r="U29" s="38">
+        <v>1006.0874910946576</v>
+      </c>
+      <c r="V29" s="38">
+        <v>1014.3202032200096</v>
+      </c>
+      <c r="W29" s="38">
+        <v>1022.6186563307443</v>
+      </c>
+      <c r="X29" s="38">
+        <v>1027.6447593172929</v>
+      </c>
+      <c r="Y29" s="38">
+        <v>1036.1769887113323</v>
+      </c>
+      <c r="Z29" s="38">
+        <v>1044.6047740902488</v>
+      </c>
+      <c r="AA29" s="38">
+        <v>1053.1568454496858</v>
+      </c>
+      <c r="AB29" s="38">
+        <v>1058.32094482415</v>
+      </c>
+      <c r="AC29" s="38">
+        <v>1057.4707567537866</v>
+      </c>
+      <c r="AD29" s="38">
+        <v>1067.5529370801066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="35">
+        <v>877.87375879480066</v>
+      </c>
+      <c r="C30" s="36">
+        <v>848.73661440394653</v>
+      </c>
+      <c r="D30" s="36">
+        <v>820.22570724231082</v>
+      </c>
+      <c r="E30" s="36">
+        <v>794.00705147009512</v>
+      </c>
+      <c r="F30" s="36">
+        <v>769.36107548810401</v>
+      </c>
+      <c r="G30" s="36">
+        <v>745.79588290803849</v>
+      </c>
+      <c r="H30" s="36">
+        <v>722.66796996441212</v>
+      </c>
+      <c r="I30" s="36">
+        <v>699.87077894075389</v>
+      </c>
+      <c r="J30" s="36">
+        <v>677.31346412264043</v>
+      </c>
+      <c r="K30" s="36">
+        <v>655.79982589577412</v>
+      </c>
+      <c r="L30" s="36">
+        <v>635.98677143306804</v>
+      </c>
+      <c r="M30" s="36">
+        <v>617.76397030666158</v>
+      </c>
+      <c r="N30" s="36">
+        <v>600.98328264672523</v>
+      </c>
+      <c r="O30" s="36">
+        <v>585.5147836146848</v>
+      </c>
+      <c r="P30" s="36">
+        <v>571.24406495569679</v>
+      </c>
+      <c r="Q30" s="36">
+        <v>557.81501358420201</v>
+      </c>
+      <c r="R30" s="36">
+        <v>545.41793437149101</v>
+      </c>
+      <c r="S30" s="36">
+        <v>533.97048474765597</v>
+      </c>
+      <c r="T30" s="36">
+        <v>523.39893458279312</v>
+      </c>
+      <c r="U30" s="36">
+        <v>513.63701131934874</v>
+      </c>
+      <c r="V30" s="36">
+        <v>504.50192321986952</v>
+      </c>
+      <c r="W30" s="36">
+        <v>496.06253483842653</v>
+      </c>
+      <c r="X30" s="36">
+        <v>488.26966326017384</v>
+      </c>
+      <c r="Y30" s="36">
+        <v>481.07848173072108</v>
+      </c>
+      <c r="Z30" s="36">
+        <v>474.44801021753773</v>
+      </c>
+      <c r="AA30" s="36">
+        <v>468.11482733453801</v>
+      </c>
+      <c r="AB30" s="36">
+        <v>462.27025255525865</v>
+      </c>
+      <c r="AC30" s="36">
+        <v>456.88246750920445</v>
+      </c>
+      <c r="AD30" s="36">
+        <v>451.92208957422429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="35">
+        <v>634.1460278567971</v>
+      </c>
+      <c r="C31" s="38">
+        <v>603.7106471752835</v>
+      </c>
+      <c r="D31" s="38">
+        <v>573.90150372298831</v>
+      </c>
+      <c r="E31" s="38">
+        <v>546.38461166011291</v>
+      </c>
+      <c r="F31" s="38">
+        <v>520.44039938746243</v>
+      </c>
+      <c r="G31" s="38">
+        <v>495.05876616559385</v>
+      </c>
+      <c r="H31" s="38">
+        <v>470.11441258016453</v>
+      </c>
+      <c r="I31" s="38">
+        <v>445.50078091470328</v>
+      </c>
+      <c r="J31" s="38">
+        <v>421.12702545478686</v>
+      </c>
+      <c r="K31" s="38">
+        <v>397.79694658611743</v>
+      </c>
+      <c r="L31" s="38">
+        <v>376.22669631711091</v>
+      </c>
+      <c r="M31" s="38">
+        <v>356.24669938440394</v>
+      </c>
+      <c r="N31" s="38">
+        <v>337.70881591816709</v>
+      </c>
+      <c r="O31" s="38">
+        <v>320.48312107982599</v>
+      </c>
+      <c r="P31" s="38">
+        <v>304.45520661453759</v>
+      </c>
+      <c r="Q31" s="38">
+        <v>289.31241567395097</v>
+      </c>
+      <c r="R31" s="38">
+        <v>275.2015968921483</v>
+      </c>
+      <c r="S31" s="38">
+        <v>262.04040769922136</v>
+      </c>
+      <c r="T31" s="38">
+        <v>249.75511796526686</v>
+      </c>
+      <c r="U31" s="38">
+        <v>238.27945513273062</v>
+      </c>
+      <c r="V31" s="38">
+        <v>227.55362816324856</v>
+      </c>
+      <c r="W31" s="38">
+        <v>217.5235009118027</v>
+      </c>
+      <c r="X31" s="38">
+        <v>208.1398904635472</v>
+      </c>
+      <c r="Y31" s="38">
+        <v>199.35797006409169</v>
+      </c>
+      <c r="Z31" s="38">
+        <v>191.13675968090541</v>
+      </c>
+      <c r="AA31" s="38">
+        <v>183.43869006730586</v>
+      </c>
+      <c r="AB31" s="38">
+        <v>176.22922855742667</v>
+      </c>
+      <c r="AC31" s="38">
+        <v>169.47655678077254</v>
+      </c>
+      <c r="AD31" s="38">
+        <v>163.15129211519258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="35">
+        <v>51.11329844885006</v>
+      </c>
+      <c r="C32" s="38">
+        <v>51.401718145125201</v>
+      </c>
+      <c r="D32" s="38">
+        <v>51.690137841400357</v>
+      </c>
+      <c r="E32" s="38">
+        <v>51.978557537675528</v>
+      </c>
+      <c r="F32" s="38">
+        <v>52.266977233950662</v>
+      </c>
+      <c r="G32" s="38">
+        <v>52.670522614695287</v>
+      </c>
+      <c r="H32" s="38">
+        <v>53.07406799543989</v>
+      </c>
+      <c r="I32" s="38">
+        <v>53.477613376184507</v>
+      </c>
+      <c r="J32" s="38">
+        <v>53.881158756929125</v>
+      </c>
+      <c r="K32" s="38">
+        <v>54.284704137673742</v>
+      </c>
+      <c r="L32" s="38">
+        <v>54.675087525039778</v>
+      </c>
+      <c r="M32" s="38">
+        <v>55.065470912405814</v>
+      </c>
+      <c r="N32" s="38">
+        <v>55.455854299771843</v>
+      </c>
+      <c r="O32" s="38">
+        <v>55.846237687137872</v>
+      </c>
+      <c r="P32" s="38">
+        <v>56.236621074503887</v>
+      </c>
+      <c r="Q32" s="38">
+        <v>56.617350106320643</v>
+      </c>
+      <c r="R32" s="38">
+        <v>56.998079138137385</v>
+      </c>
+      <c r="S32" s="38">
+        <v>57.378808169954141</v>
+      </c>
+      <c r="T32" s="38">
+        <v>57.759537201770897</v>
+      </c>
+      <c r="U32" s="38">
+        <v>58.140266233587653</v>
+      </c>
+      <c r="V32" s="38">
+        <v>58.493669096410258</v>
+      </c>
+      <c r="W32" s="38">
+        <v>58.847071959232906</v>
+      </c>
+      <c r="X32" s="38">
+        <v>59.200474822055526</v>
+      </c>
+      <c r="Y32" s="38">
+        <v>59.553877684878145</v>
+      </c>
+      <c r="Z32" s="38">
+        <v>59.907280547700772</v>
+      </c>
+      <c r="AA32" s="38">
+        <v>60.210507486526851</v>
+      </c>
+      <c r="AB32" s="38">
+        <v>60.513734425352922</v>
+      </c>
+      <c r="AC32" s="38">
+        <v>60.816961364179001</v>
+      </c>
+      <c r="AD32" s="38">
+        <v>61.120188303005065</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="35">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="C33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="D33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="E33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="F33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="G33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="H33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="I33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="J33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="K33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="L33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="M33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="N33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="O33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="P33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="Q33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="R33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="S33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="T33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="U33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="V33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="W33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="X33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="Y33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="Z33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="AA33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="AB33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="AC33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+      <c r="AD33" s="38">
+        <v>36.374321164242211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="35">
+        <v>156.24011132491125</v>
+      </c>
+      <c r="C34" s="38">
+        <v>157.2499279192956</v>
+      </c>
+      <c r="D34" s="38">
+        <v>158.25974451368</v>
+      </c>
+      <c r="E34" s="38">
+        <v>159.26956110806435</v>
+      </c>
+      <c r="F34" s="38">
+        <v>160.2793777024487</v>
+      </c>
+      <c r="G34" s="38">
+        <v>161.69227296350709</v>
+      </c>
+      <c r="H34" s="38">
+        <v>163.10516822456543</v>
+      </c>
+      <c r="I34" s="38">
+        <v>164.51806348562386</v>
+      </c>
+      <c r="J34" s="38">
+        <v>165.93095874668228</v>
+      </c>
+      <c r="K34" s="38">
+        <v>167.3438540077407</v>
+      </c>
+      <c r="L34" s="38">
+        <v>168.71066642667517</v>
+      </c>
+      <c r="M34" s="38">
+        <v>170.07747884560965</v>
+      </c>
+      <c r="N34" s="38">
+        <v>171.44429126454418</v>
+      </c>
+      <c r="O34" s="38">
+        <v>172.81110368347868</v>
+      </c>
+      <c r="P34" s="38">
+        <v>174.17791610241312</v>
+      </c>
+      <c r="Q34" s="38">
+        <v>175.51092663968817</v>
+      </c>
+      <c r="R34" s="38">
+        <v>176.84393717696315</v>
+      </c>
+      <c r="S34" s="38">
+        <v>178.17694771423822</v>
+      </c>
+      <c r="T34" s="38">
+        <v>179.50995825151324</v>
+      </c>
+      <c r="U34" s="38">
+        <v>180.84296878878826</v>
+      </c>
+      <c r="V34" s="38">
+        <v>182.08030479596852</v>
+      </c>
+      <c r="W34" s="38">
+        <v>183.31764080314872</v>
+      </c>
+      <c r="X34" s="38">
+        <v>184.5549768103289</v>
+      </c>
+      <c r="Y34" s="38">
+        <v>185.79231281750907</v>
+      </c>
+      <c r="Z34" s="38">
+        <v>187.02964882468933</v>
+      </c>
+      <c r="AA34" s="38">
+        <v>188.0913086164631</v>
+      </c>
+      <c r="AB34" s="38">
+        <v>189.15296840823686</v>
+      </c>
+      <c r="AC34" s="38">
+        <v>190.21462820001068</v>
+      </c>
+      <c r="AD34" s="38">
+        <v>191.27628799178444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="39">
+        <f t="shared" ref="B35:T35" si="0">SUM(B36:B43)</f>
+        <v>3983.3390111056015</v>
+      </c>
+      <c r="C35" s="40">
+        <f t="shared" si="0"/>
+        <v>5077.8705954682737</v>
+      </c>
+      <c r="D35" s="40">
+        <f t="shared" si="0"/>
+        <v>4885.3614548421901</v>
+      </c>
+      <c r="E35" s="40">
+        <f t="shared" si="0"/>
+        <v>4896.5568885815455</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="0"/>
+        <v>5480.3035164639041</v>
+      </c>
+      <c r="G35" s="40">
+        <f t="shared" si="0"/>
+        <v>5087.9338677655087</v>
+      </c>
+      <c r="H35" s="40">
+        <f t="shared" si="0"/>
+        <v>5042.5297096195554</v>
+      </c>
+      <c r="I35" s="40">
+        <f t="shared" si="0"/>
+        <v>4846.4550254472178</v>
+      </c>
+      <c r="J35" s="40">
+        <f t="shared" si="0"/>
+        <v>4912.0071930599061</v>
+      </c>
+      <c r="K35" s="40">
+        <f t="shared" si="0"/>
+        <v>6990.0048818979703</v>
+      </c>
+      <c r="L35" s="40">
+        <f t="shared" si="0"/>
+        <v>7158.6974029686817</v>
+      </c>
+      <c r="M35" s="40">
+        <f t="shared" si="0"/>
+        <v>6310.4703124564494</v>
+      </c>
+      <c r="N35" s="40">
+        <f t="shared" si="0"/>
+        <v>7990.1150580214053</v>
+      </c>
+      <c r="O35" s="40">
+        <f t="shared" si="0"/>
+        <v>7529.6585892538569</v>
+      </c>
+      <c r="P35" s="40">
+        <f t="shared" si="0"/>
+        <v>7870.6915266832184</v>
+      </c>
+      <c r="Q35" s="40">
+        <f t="shared" si="0"/>
+        <v>7741.7413443548485</v>
+      </c>
+      <c r="R35" s="40">
+        <f t="shared" si="0"/>
+        <v>7462.9107521955048</v>
+      </c>
+      <c r="S35" s="40">
+        <f t="shared" si="0"/>
+        <v>6921.5775194175258</v>
+      </c>
+      <c r="T35" s="40">
+        <f t="shared" si="0"/>
+        <v>6253.1189200235503</v>
+      </c>
+      <c r="U35" s="40">
+        <f t="shared" ref="U35:AD35" si="1">SUM(U36:U43)</f>
+        <v>5955.4155027146207</v>
+      </c>
+      <c r="V35" s="40">
+        <f t="shared" si="1"/>
+        <v>5565.500283034301</v>
+      </c>
+      <c r="W35" s="40">
+        <f t="shared" si="1"/>
+        <v>5323.229865039194</v>
+      </c>
+      <c r="X35" s="40">
+        <f t="shared" si="1"/>
+        <v>5631.1898728855458</v>
+      </c>
+      <c r="Y35" s="40">
+        <f t="shared" si="1"/>
+        <v>5893.6373472436835</v>
+      </c>
+      <c r="Z35" s="40">
+        <f t="shared" si="1"/>
+        <v>5964.3809446835512</v>
+      </c>
+      <c r="AA35" s="40">
+        <f t="shared" si="1"/>
+        <v>5428.856686420364</v>
+      </c>
+      <c r="AB35" s="40">
+        <f t="shared" si="1"/>
+        <v>5789.5975837094065</v>
+      </c>
+      <c r="AC35" s="40">
+        <f t="shared" si="1"/>
+        <v>5794.8745351457519</v>
+      </c>
+      <c r="AD35" s="40">
+        <f t="shared" si="1"/>
+        <v>6312.9338438523337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="39">
+        <v>-1574.9888325543609</v>
+      </c>
+      <c r="C36" s="41">
+        <v>1080.7653808300149</v>
+      </c>
+      <c r="D36" s="41">
+        <v>654.35429894362983</v>
+      </c>
+      <c r="E36" s="41">
+        <v>572.98467770804086</v>
+      </c>
+      <c r="F36" s="41">
+        <v>1808.069578312361</v>
+      </c>
+      <c r="G36" s="41">
+        <v>1421.2564032394221</v>
+      </c>
+      <c r="H36" s="41">
+        <v>1706.9578247899924</v>
+      </c>
+      <c r="I36" s="41">
+        <v>1560.585154455563</v>
+      </c>
+      <c r="J36" s="41">
+        <v>1836.1490762538815</v>
+      </c>
+      <c r="K36" s="41">
+        <v>5297.3635822754768</v>
+      </c>
+      <c r="L36" s="41">
+        <v>4729.9136109563979</v>
+      </c>
+      <c r="M36" s="41">
+        <v>3113.39220436095</v>
+      </c>
+      <c r="N36" s="41">
+        <v>6190.2413509588232</v>
+      </c>
+      <c r="O36" s="41">
+        <v>4706.9776462721074</v>
+      </c>
+      <c r="P36" s="41">
+        <v>5337.358558100852</v>
+      </c>
+      <c r="Q36" s="41">
+        <v>4962.0735298437448</v>
+      </c>
+      <c r="R36" s="41">
+        <v>4312.9594131261947</v>
+      </c>
+      <c r="S36" s="41">
+        <v>3346.7550911709077</v>
+      </c>
+      <c r="T36" s="41">
+        <v>2332.1255908842386</v>
+      </c>
+      <c r="U36" s="41">
+        <v>2269.3740929709143</v>
+      </c>
+      <c r="V36" s="41">
+        <v>1656.466264832668</v>
+      </c>
+      <c r="W36" s="41">
+        <v>1257.4627278117268</v>
+      </c>
+      <c r="X36" s="41">
+        <v>1393.1757187269018</v>
+      </c>
+      <c r="Y36" s="41">
+        <v>1540.8215540459366</v>
+      </c>
+      <c r="Z36" s="41">
+        <v>1855.7701273368216</v>
+      </c>
+      <c r="AA36" s="41">
+        <v>1686.0634644164547</v>
+      </c>
+      <c r="AB36" s="41">
+        <v>1858.2583787911021</v>
+      </c>
+      <c r="AC36" s="41">
+        <v>1928.2959017245093</v>
+      </c>
+      <c r="AD36" s="41">
+        <v>2201.4454396298593</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="39">
+        <v>-83.384424128579766</v>
+      </c>
+      <c r="C37" s="41">
+        <v>-133.77565922401797</v>
+      </c>
+      <c r="D37" s="41">
+        <v>-154.75939525520832</v>
+      </c>
+      <c r="E37" s="41">
+        <v>-168.6042310479578</v>
+      </c>
+      <c r="F37" s="41">
+        <v>-186.95495830341753</v>
+      </c>
+      <c r="G37" s="41">
+        <v>-215.78804213307967</v>
+      </c>
+      <c r="H37" s="41">
+        <v>-240.71982929456942</v>
+      </c>
+      <c r="I37" s="41">
+        <v>-268.45203920970846</v>
+      </c>
+      <c r="J37" s="41">
+        <v>-291.84411587399018</v>
+      </c>
+      <c r="K37" s="41">
+        <v>-129.06500931045383</v>
+      </c>
+      <c r="L37" s="41">
+        <v>-128.52495235420318</v>
+      </c>
+      <c r="M37" s="41">
+        <v>-128.59254469600086</v>
+      </c>
+      <c r="N37" s="41">
+        <v>-129.02990845648762</v>
+      </c>
+      <c r="O37" s="41">
+        <v>-129.37511498347402</v>
+      </c>
+      <c r="P37" s="41">
+        <v>-129.14269427910162</v>
+      </c>
+      <c r="Q37" s="41">
+        <v>-128.95503734662023</v>
+      </c>
+      <c r="R37" s="41">
+        <v>-128.93670868598124</v>
+      </c>
+      <c r="S37" s="41">
+        <v>-129.00533474127758</v>
+      </c>
+      <c r="T37" s="41">
+        <v>-129.07413308215709</v>
+      </c>
+      <c r="U37" s="41">
+        <v>-129.08150385310196</v>
+      </c>
+      <c r="V37" s="41">
+        <v>-129.03256866470659</v>
+      </c>
+      <c r="W37" s="41">
+        <v>-129.01421439564081</v>
+      </c>
+      <c r="X37" s="41">
+        <v>-129.02407723714421</v>
+      </c>
+      <c r="Y37" s="41">
+        <v>-129.03863866233806</v>
+      </c>
+      <c r="Z37" s="41">
+        <v>-129.04418931584809</v>
+      </c>
+      <c r="AA37" s="41">
+        <v>-129.03919868812994</v>
+      </c>
+      <c r="AB37" s="41">
+        <v>-129.03214782730132</v>
+      </c>
+      <c r="AC37" s="41">
+        <v>-129.0320776877337</v>
+      </c>
+      <c r="AD37" s="41">
+        <v>-129.03505490308254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="39">
+        <v>2484.8826823772165</v>
+      </c>
+      <c r="C38" s="41">
+        <v>2208.386217247019</v>
+      </c>
+      <c r="D38" s="41">
+        <v>2109.2431282368034</v>
+      </c>
+      <c r="E38" s="41">
+        <v>1988.8734190246923</v>
+      </c>
+      <c r="F38" s="41">
+        <v>1786.2056269965894</v>
+      </c>
+      <c r="G38" s="41">
+        <v>1552.2238635102217</v>
+      </c>
+      <c r="H38" s="41">
+        <v>1242.1722734312386</v>
+      </c>
+      <c r="I38" s="41">
+        <v>1067.5594115337717</v>
+      </c>
+      <c r="J38" s="41">
+        <v>889.61628110009019</v>
+      </c>
+      <c r="K38" s="41">
+        <v>878.27067977278534</v>
+      </c>
+      <c r="L38" s="41">
+        <v>877.27355889409068</v>
+      </c>
+      <c r="M38" s="41">
+        <v>865.90369749865556</v>
+      </c>
+      <c r="N38" s="41">
+        <v>861.48977879572726</v>
+      </c>
+      <c r="O38" s="41">
+        <v>856.54623290086397</v>
+      </c>
+      <c r="P38" s="41">
+        <v>852.00324854791336</v>
+      </c>
+      <c r="Q38" s="41">
+        <v>847.50123324333208</v>
+      </c>
+      <c r="R38" s="41">
+        <v>843.10911529407031</v>
+      </c>
+      <c r="S38" s="41">
+        <v>838.55018436251521</v>
+      </c>
+      <c r="T38" s="41">
+        <v>833.99515835633804</v>
+      </c>
+      <c r="U38" s="41">
+        <v>828.94408136673121</v>
+      </c>
+      <c r="V38" s="41">
+        <v>823.9077121609605</v>
+      </c>
+      <c r="W38" s="41">
+        <v>818.86131750058746</v>
+      </c>
+      <c r="X38" s="41">
+        <v>813.79212698960282</v>
+      </c>
+      <c r="Y38" s="41">
+        <v>808.73972714842114</v>
+      </c>
+      <c r="Z38" s="41">
+        <v>803.68862694746633</v>
+      </c>
+      <c r="AA38" s="41">
+        <v>798.64194749585704</v>
+      </c>
+      <c r="AB38" s="41">
+        <v>793.58878050501107</v>
+      </c>
+      <c r="AC38" s="41">
+        <v>788.53529813003684</v>
+      </c>
+      <c r="AD38" s="41">
+        <v>783.48417906394343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A39" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="39">
+        <v>3757.6455491787606</v>
+      </c>
+      <c r="C39" s="41">
+        <v>3683.0813888490934</v>
+      </c>
+      <c r="D39" s="41">
+        <v>3731.2807099723796</v>
+      </c>
+      <c r="E39" s="41">
+        <v>3779.6821078250787</v>
+      </c>
+      <c r="F39" s="41">
+        <v>3779.1598333488878</v>
+      </c>
+      <c r="G39" s="41">
+        <v>3779.2197455393639</v>
+      </c>
+      <c r="H39" s="41">
+        <v>3778.697471063173</v>
+      </c>
+      <c r="I39" s="41">
+        <v>3778.75738325365</v>
+      </c>
+      <c r="J39" s="41">
+        <v>3778.2351087774591</v>
+      </c>
+      <c r="K39" s="41">
+        <v>3778.8172954441261</v>
+      </c>
+      <c r="L39" s="41">
+        <v>3778.8172954441261</v>
+      </c>
+      <c r="M39" s="41">
+        <v>3779.3994821107926</v>
+      </c>
+      <c r="N39" s="41">
+        <v>3779.9816687774596</v>
+      </c>
+      <c r="O39" s="41">
+        <v>3781.1460421107927</v>
+      </c>
+      <c r="P39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="Q39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="R39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="S39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="T39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="U39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="V39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="W39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="X39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="Y39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="Z39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="AA39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="AB39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="AC39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+      <c r="AD39" s="41">
+        <v>3781.7282287774597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="39">
+        <v>221.29314294687202</v>
+      </c>
+      <c r="C40" s="41">
+        <v>181.28988312372675</v>
+      </c>
+      <c r="D40" s="41">
+        <v>180.90631104549024</v>
+      </c>
+      <c r="E40" s="41">
+        <v>180.52273896725376</v>
+      </c>
+      <c r="F40" s="41">
+        <v>180.13916688901725</v>
+      </c>
+      <c r="G40" s="41">
+        <v>179.75559481078068</v>
+      </c>
+      <c r="H40" s="41">
+        <v>170.19195967746117</v>
+      </c>
+      <c r="I40" s="41">
+        <v>169.80838759922466</v>
+      </c>
+      <c r="J40" s="41">
+        <v>169.32820037433632</v>
+      </c>
+      <c r="K40" s="41">
+        <v>168.94115581973318</v>
+      </c>
+      <c r="L40" s="41">
+        <v>168.5541112651301</v>
+      </c>
+      <c r="M40" s="41">
+        <v>168.16706671052697</v>
+      </c>
+      <c r="N40" s="41">
+        <v>167.78002215592372</v>
+      </c>
+      <c r="O40" s="41">
+        <v>167.3245910842297</v>
+      </c>
+      <c r="P40" s="41">
+        <v>166.93546304380666</v>
+      </c>
+      <c r="Q40" s="41">
+        <v>166.54633500338358</v>
+      </c>
+      <c r="R40" s="41">
+        <v>166.15720696296052</v>
+      </c>
+      <c r="S40" s="41">
+        <v>165.76807892253748</v>
+      </c>
+      <c r="T40" s="41">
+        <v>165.37895088211442</v>
+      </c>
+      <c r="U40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="V40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="W40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="X40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="Y40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="Z40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="AA40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="AB40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="AC40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+      <c r="AD40" s="41">
+        <v>165.3789508821144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A41" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="39">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="C41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="D41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="E41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="F41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="G41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="H41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="I41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="J41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="K41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="L41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="M41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="N41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="O41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="P41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="Q41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="R41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="S41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="T41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="U41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="V41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="W41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="X41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="Y41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="Z41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="AA41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="AB41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="AC41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+      <c r="AD41" s="41">
+        <v>43.62282885714388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A42" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="39">
+        <v>-865.731935571451</v>
+      </c>
+      <c r="C42" s="41">
+        <v>-1985.4994442147076</v>
+      </c>
+      <c r="D42" s="41">
+        <v>-1679.2864269580473</v>
+      </c>
+      <c r="E42" s="41">
+        <v>-1500.5246527527063</v>
+      </c>
+      <c r="F42" s="41">
+        <v>-1929.9385596366778</v>
+      </c>
+      <c r="G42" s="41">
+        <v>-1672.3565260583443</v>
+      </c>
+      <c r="H42" s="41">
+        <v>-1658.3928189048847</v>
+      </c>
+      <c r="I42" s="41">
+        <v>-1505.4261010424264</v>
+      </c>
+      <c r="J42" s="41">
+        <v>-1513.1001864290147</v>
+      </c>
+      <c r="K42" s="41">
+        <v>-3047.9456509608403</v>
+      </c>
+      <c r="L42" s="41">
+        <v>-2310.9590500940039</v>
+      </c>
+      <c r="M42" s="41">
+        <v>-1531.4224223856195</v>
+      </c>
+      <c r="N42" s="41">
+        <v>-2923.9706830671862</v>
+      </c>
+      <c r="O42" s="41">
+        <v>-1896.5836369878052</v>
+      </c>
+      <c r="P42" s="41">
+        <v>-2181.8141063648541</v>
+      </c>
+      <c r="Q42" s="41">
+        <v>-1930.7757740235959</v>
+      </c>
+      <c r="R42" s="41">
+        <v>-1555.7293321363429</v>
+      </c>
+      <c r="S42" s="41">
+        <v>-1125.8415579317605</v>
+      </c>
+      <c r="T42" s="41">
+        <v>-774.65770465158698</v>
+      </c>
+      <c r="U42" s="41">
+        <v>-1004.5511762866405</v>
+      </c>
+      <c r="V42" s="41">
+        <v>-776.57113381133877</v>
+      </c>
+      <c r="W42" s="41">
+        <v>-614.80997439419775</v>
+      </c>
+      <c r="X42" s="41">
+        <v>-437.48390411053208</v>
+      </c>
+      <c r="Y42" s="41">
+        <v>-317.61530380505394</v>
+      </c>
+      <c r="Z42" s="41">
+        <v>-556.7636288016065</v>
+      </c>
+      <c r="AA42" s="41">
+        <v>-917.53953532053583</v>
+      </c>
+      <c r="AB42" s="41">
+        <v>-723.94743627612354</v>
+      </c>
+      <c r="AC42" s="41">
+        <v>-783.65459553777862</v>
+      </c>
+      <c r="AD42" s="41">
+        <v>-533.69072845510414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A43" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="39"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+    </row>
+    <row r="45" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="42">
+        <v>60604.886690290921</v>
+      </c>
+      <c r="C45" s="42">
+        <v>56959.026375382913</v>
+      </c>
+      <c r="D45" s="42">
+        <v>56168.09109847722</v>
+      </c>
+      <c r="E45" s="42">
+        <v>54657.212165090576</v>
+      </c>
+      <c r="F45" s="42">
+        <v>53205.996545548704</v>
+      </c>
+      <c r="G45" s="42">
+        <v>50719.611424070616</v>
+      </c>
+      <c r="H45" s="42">
+        <v>48252.771031651486</v>
+      </c>
+      <c r="I45" s="42">
+        <v>45927.198350439307</v>
+      </c>
+      <c r="J45" s="42">
+        <v>43099.266713467703</v>
+      </c>
+      <c r="K45" s="42">
+        <v>42452.566072148016</v>
+      </c>
+      <c r="L45" s="42">
+        <v>40694.803177495291</v>
+      </c>
+      <c r="M45" s="42">
+        <v>39969.070229092737</v>
+      </c>
+      <c r="N45" s="42">
+        <v>39206.062216066886</v>
+      </c>
+      <c r="O45" s="42">
+        <v>38855.528002636871</v>
+      </c>
+      <c r="P45" s="42">
+        <v>37777.104613901145</v>
+      </c>
+      <c r="Q45" s="42">
+        <v>36990.159949041561</v>
+      </c>
+      <c r="R45" s="42">
+        <v>36411.426342318664</v>
+      </c>
+      <c r="S45" s="42">
+        <v>35412.23940807586</v>
+      </c>
+      <c r="T45" s="42">
+        <v>34319.531679366031</v>
+      </c>
+      <c r="U45" s="42">
+        <v>33717.476930826371</v>
+      </c>
+      <c r="V45" s="42">
+        <v>33090.156911360282</v>
+      </c>
+      <c r="W45" s="42">
+        <v>33075.487758745774</v>
+      </c>
+      <c r="X45" s="42">
+        <v>32562.593600510656</v>
+      </c>
+      <c r="Y45" s="42">
+        <v>32888.927647346543</v>
+      </c>
+      <c r="Z45" s="42">
+        <v>32201.542193359106</v>
+      </c>
+      <c r="AA45" s="42">
+        <v>32252.926805561146</v>
+      </c>
+      <c r="AB45" s="42">
+        <v>32049.11090733148</v>
+      </c>
+      <c r="AC45" s="42">
+        <v>31872.939069570431</v>
+      </c>
+      <c r="AD45" s="42">
+        <v>32160.217442201541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B46" s="43">
+        <f t="shared" ref="B46:AD46" si="2">B45-(B2+B7+B8+B9+B10+B16+B22+B23+B30)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="42">
+        <f t="shared" ref="B47:AD47" si="3">B35+B45</f>
+        <v>64588.225701396521</v>
+      </c>
+      <c r="C47" s="42">
+        <f t="shared" si="3"/>
+        <v>62036.896970851187</v>
+      </c>
+      <c r="D47" s="42">
+        <f t="shared" si="3"/>
+        <v>61053.45255331941</v>
+      </c>
+      <c r="E47" s="42">
+        <f t="shared" si="3"/>
+        <v>59553.76905367212</v>
+      </c>
+      <c r="F47" s="42">
+        <f t="shared" si="3"/>
+        <v>58686.300062012611</v>
+      </c>
+      <c r="G47" s="42">
+        <f t="shared" si="3"/>
+        <v>55807.545291836126</v>
+      </c>
+      <c r="H47" s="42">
+        <f t="shared" si="3"/>
+        <v>53295.300741271043</v>
+      </c>
+      <c r="I47" s="42">
+        <f t="shared" si="3"/>
+        <v>50773.653375886526</v>
+      </c>
+      <c r="J47" s="42">
+        <f t="shared" si="3"/>
+        <v>48011.273906527611</v>
+      </c>
+      <c r="K47" s="42">
+        <f t="shared" si="3"/>
+        <v>49442.570954045987</v>
+      </c>
+      <c r="L47" s="42">
+        <f t="shared" si="3"/>
+        <v>47853.500580463973</v>
+      </c>
+      <c r="M47" s="42">
+        <f t="shared" si="3"/>
+        <v>46279.540541549184</v>
+      </c>
+      <c r="N47" s="42">
+        <f t="shared" si="3"/>
+        <v>47196.177274088288</v>
+      </c>
+      <c r="O47" s="42">
+        <f t="shared" si="3"/>
+        <v>46385.186591890728</v>
+      </c>
+      <c r="P47" s="42">
+        <f t="shared" si="3"/>
+        <v>45647.796140584367</v>
+      </c>
+      <c r="Q47" s="42">
+        <f t="shared" si="3"/>
+        <v>44731.901293396411</v>
+      </c>
+      <c r="R47" s="42">
+        <f t="shared" si="3"/>
+        <v>43874.337094514165</v>
+      </c>
+      <c r="S47" s="42">
+        <f t="shared" si="3"/>
+        <v>42333.81692749339</v>
+      </c>
+      <c r="T47" s="42">
+        <f t="shared" si="3"/>
+        <v>40572.650599389584</v>
+      </c>
+      <c r="U47" s="42">
+        <f t="shared" si="3"/>
+        <v>39672.89243354099</v>
+      </c>
+      <c r="V47" s="42">
+        <f t="shared" si="3"/>
+        <v>38655.657194394582</v>
+      </c>
+      <c r="W47" s="42">
+        <f t="shared" si="3"/>
+        <v>38398.717623784971</v>
+      </c>
+      <c r="X47" s="42">
+        <f t="shared" si="3"/>
+        <v>38193.783473396201</v>
+      </c>
+      <c r="Y47" s="42">
+        <f t="shared" si="3"/>
+        <v>38782.564994590226</v>
+      </c>
+      <c r="Z47" s="42">
+        <f t="shared" si="3"/>
+        <v>38165.923138042657</v>
+      </c>
+      <c r="AA47" s="42">
+        <f t="shared" si="3"/>
+        <v>37681.783491981507</v>
+      </c>
+      <c r="AB47" s="42">
+        <f t="shared" si="3"/>
+        <v>37838.708491040888</v>
+      </c>
+      <c r="AC47" s="42">
+        <f t="shared" si="3"/>
+        <v>37667.813604716182</v>
+      </c>
+      <c r="AD47" s="42">
+        <f t="shared" si="3"/>
+        <v>38473.151286053879</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B48" s="30">
+        <v>2022</v>
+      </c>
+      <c r="C48" s="31">
+        <v>2023</v>
+      </c>
+      <c r="D48" s="31">
+        <v>2024</v>
+      </c>
+      <c r="E48" s="31">
+        <v>2025</v>
+      </c>
+      <c r="F48" s="31">
+        <v>2026</v>
+      </c>
+      <c r="G48" s="31">
+        <v>2027</v>
+      </c>
+      <c r="H48" s="31">
+        <v>2028</v>
+      </c>
+      <c r="I48" s="31">
+        <v>2029</v>
+      </c>
+      <c r="J48" s="31">
+        <v>2030</v>
+      </c>
+      <c r="K48" s="31">
+        <v>2031</v>
+      </c>
+      <c r="L48" s="31">
+        <v>2032</v>
+      </c>
+      <c r="M48" s="31">
+        <v>2033</v>
+      </c>
+      <c r="N48" s="31">
+        <v>2034</v>
+      </c>
+      <c r="O48" s="31">
+        <v>2035</v>
+      </c>
+      <c r="P48" s="31">
+        <v>2036</v>
+      </c>
+      <c r="Q48" s="31">
+        <v>2037</v>
+      </c>
+      <c r="R48" s="31">
+        <v>2038</v>
+      </c>
+      <c r="S48" s="31">
+        <v>2039</v>
+      </c>
+      <c r="T48" s="31">
+        <v>2040</v>
+      </c>
+      <c r="U48" s="31">
+        <v>2041</v>
+      </c>
+      <c r="V48" s="31">
+        <v>2042</v>
+      </c>
+      <c r="W48" s="31">
+        <v>2043</v>
+      </c>
+      <c r="X48" s="31">
+        <v>2044</v>
+      </c>
+      <c r="Y48" s="31">
+        <v>2045</v>
+      </c>
+      <c r="Z48" s="31">
+        <v>2046</v>
+      </c>
+      <c r="AA48" s="31">
+        <v>2047</v>
+      </c>
+      <c r="AB48" s="31">
+        <v>2048</v>
+      </c>
+      <c r="AC48" s="31">
+        <v>2049</v>
+      </c>
+      <c r="AD48" s="31">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B49" s="32">
+        <f>+B3+B7+B8+B9+B10+B16+B29+B33</f>
+        <v>36120.541870510591</v>
+      </c>
+      <c r="C49" s="32">
+        <f t="shared" ref="C49:AD49" si="4">+C3+C7+C8+C9+C10+C16+C29+C33</f>
+        <v>33403.510410036513</v>
+      </c>
+      <c r="D49" s="32">
+        <f t="shared" si="4"/>
+        <v>33183.978436940459</v>
+      </c>
+      <c r="E49" s="32">
+        <f t="shared" si="4"/>
+        <v>32441.107494343385</v>
+      </c>
+      <c r="F49" s="32">
+        <f t="shared" si="4"/>
+        <v>31416.730569184929</v>
+      </c>
+      <c r="G49" s="32">
+        <f t="shared" si="4"/>
+        <v>29441.229319207665</v>
+      </c>
+      <c r="H49" s="32">
+        <f t="shared" si="4"/>
+        <v>27503.787690498513</v>
+      </c>
+      <c r="I49" s="32">
+        <f t="shared" si="4"/>
+        <v>25700.949786210538</v>
+      </c>
+      <c r="J49" s="32">
+        <f t="shared" si="4"/>
+        <v>23316.871527694617</v>
+      </c>
+      <c r="K49" s="32">
+        <f t="shared" si="4"/>
+        <v>22715.895797798625</v>
+      </c>
+      <c r="L49" s="32">
+        <f t="shared" si="4"/>
+        <v>21026.192470549988</v>
+      </c>
+      <c r="M49" s="32">
+        <f t="shared" si="4"/>
+        <v>20279.485471837965</v>
+      </c>
+      <c r="N49" s="32">
+        <f t="shared" si="4"/>
+        <v>19557.577846159729</v>
+      </c>
+      <c r="O49" s="32">
+        <f t="shared" si="4"/>
+        <v>19179.671625912488</v>
+      </c>
+      <c r="P49" s="32">
+        <f t="shared" si="4"/>
+        <v>18106.33277887624</v>
+      </c>
+      <c r="Q49" s="32">
+        <f t="shared" si="4"/>
+        <v>17323.916218426009</v>
+      </c>
+      <c r="R49" s="32">
+        <f t="shared" si="4"/>
+        <v>16741.259420722119</v>
+      </c>
+      <c r="S49" s="32">
+        <f t="shared" si="4"/>
+        <v>15772.045680566909</v>
+      </c>
+      <c r="T49" s="32">
+        <f t="shared" si="4"/>
+        <v>14638.027601078207</v>
+      </c>
+      <c r="U49" s="32">
+        <f t="shared" si="4"/>
+        <v>14022.926737360418</v>
+      </c>
+      <c r="V49" s="32">
+        <f t="shared" si="4"/>
+        <v>13382.248132294379</v>
+      </c>
+      <c r="W49" s="32">
+        <f t="shared" si="4"/>
+        <v>13349.854699133435</v>
+      </c>
+      <c r="X49" s="32">
+        <f t="shared" si="4"/>
+        <v>12818.908488048815</v>
+      </c>
+      <c r="Y49" s="32">
+        <f t="shared" si="4"/>
+        <v>13124.264208521379</v>
+      </c>
+      <c r="Z49" s="32">
+        <f t="shared" si="4"/>
+        <v>12421.129998873279</v>
+      </c>
+      <c r="AA49" s="32">
+        <f t="shared" si="4"/>
+        <v>12451.770923555665</v>
+      </c>
+      <c r="AB49" s="32">
+        <f t="shared" si="4"/>
+        <v>12227.793723312854</v>
+      </c>
+      <c r="AC49" s="32">
+        <f t="shared" si="4"/>
+        <v>12030.76188786107</v>
+      </c>
+      <c r="AD49" s="32">
+        <f t="shared" si="4"/>
+        <v>12293.968889487049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>